--- a/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -22,10 +22,397 @@
     <t>Stream-Cornstover flow rate [kg/hr] (9.38e+04, 1.04e+05, 1.15e+05)</t>
   </si>
   <si>
-    <t>Saccharification and co fermentation-U22 saccharification conversion (0.85, 0.9, 0.95)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation-U22 ethanol conversion (0.9, 0.95, 1)</t>
+    <t>Saccharification and co fermentation-U72 saccharification conversion (0.85, 0.9, 0.95)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation-U72 ethanol conversion (0.9, 0.95, 1)</t>
+  </si>
+  <si>
+    <t>Seed hold tank301 pump base cost [USD] (7.38e+03, 8.2e+03, 9.02e+03)</t>
+  </si>
+  <si>
+    <t>Seed hold tank301 pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Seed hold tank301 pump electricity rate [hr·kW/kg] (0.000156, 0.000173, 0.00019)</t>
+  </si>
+  <si>
+    <t>Seed hold tank301 tank base cost [USD] (3.95e+05, 4.39e+05, 4.83e+05)</t>
+  </si>
+  <si>
+    <t>Seed hold tank301 tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Seed hold tank301 agitator base cost [USD] (2.86e+04, 3.18e+04, 3.5e+04)</t>
+  </si>
+  <si>
+    <t>Seed hold tank301 agitator exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Seed hold tank301 agitator electricity rate [hr·kW/kg] (0.000252, 0.00028, 0.000308)</t>
+  </si>
+  <si>
+    <t>Fire water tank tank base cost [USD] (7.23e+05, 8.03e+05, 8.83e+05)</t>
+  </si>
+  <si>
+    <t>Fire water tank tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Fire water tank pump base cost [USD] (1.35e+04, 1.5e+04, 1.65e+04)</t>
+  </si>
+  <si>
+    <t>Fire water tank pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Fire water tank pump electricity rate [hr·kW/kg] (0.0102, 0.0113, 0.0124)</t>
+  </si>
+  <si>
+    <t>Feed stock handling system base cost [USD] (1.2e+07, 1.33e+07, 1.47e+07)</t>
+  </si>
+  <si>
+    <t>Feed stock handling system exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Feed stock handling system electricity rate [hr·kW/kg] (0.00744, 0.00827, 0.0091)</t>
+  </si>
+  <si>
+    <t>Process water center tank base cost [USD] (2.26e+05, 2.51e+05, 2.76e+05)</t>
+  </si>
+  <si>
+    <t>Process water center tank exponent (0.585, 0.685, 0.785)</t>
+  </si>
+  <si>
+    <t>Process water center process water pump base cost [USD] (1.38e+04, 1.53e+04, 1.68e+04)</t>
+  </si>
+  <si>
+    <t>Process water center process water pump exponent (0.688, 0.788, 0.888)</t>
+  </si>
+  <si>
+    <t>Process water center process water pump electricity rate [hr·kW/kg] (9.43e-05, 0.000105, 0.000115)</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump base cost [USD] (6.34e+03, 7.04e+03, 7.75e+03)</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump exponent (0.713, 0.813, 0.913)</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump electricity rate [hr·kW/kg] (8.62e-05, 9.58e-05, 0.000105)</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank209 tank base cost [USD] (2.12e+05, 2.36e+05, 2.6e+05)</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank209 tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank209 agitator base cost [USD] (1.97e+04, 2.19e+04, 2.41e+04)</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank209 agitator exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank209 agitator electricity rate [hr·kW/kg] (1.64e-05, 1.82e-05, 2e-05)</t>
+  </si>
+  <si>
+    <t>Mix tank base cost [USD] (1.12e+04, 1.24e+04, 1.36e+04)</t>
+  </si>
+  <si>
+    <t>Mix tank exponent (0.428, 0.528, 0.628)</t>
+  </si>
+  <si>
+    <t>Mix tank electricity rate [kW/m³] (0.0879, 0.0977, 0.107)</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank208 tank base cost [USD] (1.83e+05, 2.03e+05, 2.23e+05)</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank208 tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank208 pump base cost [USD] (1.57e+04, 1.75e+04, 1.92e+04)</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank208 pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank208 pump electricity rate [hr·kW/kg] (0.00019, 0.000212, 0.000233)</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank208 agitator base cost [USD] (8.1e+04, 9e+04, 9.9e+04)</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank208 agitator exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank208 agitator electricity rate [hr·kW/kg] (0.000579, 0.000644, 0.000708)</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank201 tank base cost [USD] (5.59e+03, 6.21e+03, 6.83e+03)</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank201 tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank201 pump base cost [USD] (7.2e+03, 8e+03, 8.8e+03)</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank201 pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank201 pump electricity rate [hr·kW/kg] (0.000242, 0.000269, 0.000296)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler base cost [USD] (2.5e+07, 2.77e+07, 3.05e+07)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent (0.478, 0.578, 0.678)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate [hr·kW/kg] (0.0104, 0.0116, 0.0127)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost [USD] (2.74e+05, 3.05e+05, 3.35e+05)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent (0.523, 0.623, 0.723)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost [USD] (3.68e+04, 4.09e+04, 4.5e+04)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent (0.501, 0.601, 0.701)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost [USD] (6.69e+04, 7.44e+04, 8.18e+04)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent (0.539, 0.639, 0.739)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost [USD] (8.59e+06, 9.54e+06, 1.05e+07)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer base cost [USD] (5.4e+03, 6e+03, 6.6e+03)</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system base cost [USD] (1.78e+07, 1.98e+07, 2.18e+07)</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system electricity rate [hr·kW/kg] (0.0494, 0.0549, 0.0604)</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor base cost [USD] (2.52e+04, 2.8e+04, 3.08e+04)</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor electricity rate [hr·kW/kg] (0.00121, 0.00134, 0.00148)</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer base cost [USD] (1.35e+04, 1.5e+04, 1.65e+04)</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever base cost [USD] (1.44e+04, 1.6e+04, 1.76e+04)</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Molecular sieve column base cost [USD] (2.36e+06, 2.62e+06, 2.89e+06)</t>
+  </si>
+  <si>
+    <t>Molecular sieve column exponent (0.507, 0.607, 0.707)</t>
+  </si>
+  <si>
+    <t>Molecular sieve column electricity rate [hr·kW/kg] (0.00598, 0.00664, 0.00731)</t>
+  </si>
+  <si>
+    <t>Dap tank tank base cost [USD] (9.18e+04, 1.02e+05, 1.12e+05)</t>
+  </si>
+  <si>
+    <t>Dap tank tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Dap tank pump base cost [USD] (2.7e+03, 3e+03, 3.3e+03)</t>
+  </si>
+  <si>
+    <t>Dap tank pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Dap tank pump electricity rate [hr·kW/kg] (0.00208, 0.00232, 0.00255)</t>
+  </si>
+  <si>
+    <t>Dap tank agitator base cost [USD] (8.82e+03, 9.8e+03, 1.08e+04)</t>
+  </si>
+  <si>
+    <t>Dap tank agitator exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Dap tank agitator electricity rate [hr·kW/kg] (0.0226, 0.0252, 0.0277)</t>
+  </si>
+  <si>
+    <t>Dap tank bag base cost [USD] (2.7e+04, 3e+04, 3.3e+04)</t>
+  </si>
+  <si>
+    <t>Dap tank bag exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Ammonia mixer210 mixer base cost [USD] (4.5e+03, 5e+03, 5.5e+03)</t>
+  </si>
+  <si>
+    <t>Ammonia mixer210 mixer exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Chilled water package base cost [USD] (1.27e+06, 1.41e+06, 1.56e+06)</t>
+  </si>
+  <si>
+    <t>Chilled water package exponent (0.624, 0.724, 0.824)</t>
+  </si>
+  <si>
+    <t>Chilled water package electricity rate [hr·kW/kJ] (-3.83e-05, -4.26e-05, -4.68e-05)</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators base cost [USD] (1.94e+04, 2.15e+04, 2.37e+04)</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators electricity rate [kW/m3] (0.0119, 0.0132, 0.0145)</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors base cost [USD] (5.31e+05, 5.9e+05, 6.49e+05)</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators base cost [USD] (1.17e+04, 1.3e+04, 1.43e+04)</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators electricity rate [kW/m3] (0.0892, 0.0991, 0.109)</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors base cost [USD] (1.58e+05, 1.76e+05, 1.94e+05)</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors base cost [USD] (7.09e+04, 7.88e+04, 8.67e+04)</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors base cost [USD] (5.25e+04, 5.83e+04, 6.41e+04)</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors base cost [USD] (3.39e+04, 3.77e+04, 4.15e+04)</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Seed train pumps base cost [USD] (2.23e+04, 2.48e+04, 2.73e+04)</t>
+  </si>
+  <si>
+    <t>Seed train pumps exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Seed train pumps electricity rate [hr·kW/kg] (0.000834, 0.000927, 0.00102)</t>
+  </si>
+  <si>
+    <t>Cooling tower base cost [USD] (1.21e+06, 1.35e+06, 1.48e+06)</t>
+  </si>
+  <si>
+    <t>Cooling tower exponent (0.658, 0.758, 0.858)</t>
+  </si>
+  <si>
+    <t>Cooling tower electricity rate [hr·kW/kmol] (0.00257, 0.00286, 0.00314)</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump base cost [USD] (2.58e+05, 2.86e+05, 3.15e+05)</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump exponent (0.67, 0.77, 0.87)</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump electricity rate [hr·kW/kmol] (0.00171, 0.0019, 0.00208)</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump203 pump base cost [USD] (2.28e+04, 2.54e+04, 2.79e+04)</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump203 pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump203 pump electricity rate [hr·kW/kg] (0.000287, 0.000319, 0.000351)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation tanks base cost [USD] (4.32e+05, 4.8e+05, 5.28e+05)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation tanks exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps base cost [USD] (8.5e+03, 9.44e+03, 1.04e+04)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps electricity rate [hr·kW/m3] (0.54, 0.6, 0.66)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation reactors base cost [USD] (7.6e+05, 8.44e+05, 9.28e+05)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation reactors exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators base cost [USD] (4.72e+04, 5.25e+04, 5.78e+04)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators electricity rate [kW/m3] (0.0171, 0.019, 0.0209)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation heat exchangers base cost [USD] (2.15e+04, 2.39e+04, 2.63e+04)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation heat exchangers exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps base cost [USD] (4.25e+04, 4.72e+04, 5.19e+04)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps electricity rate [hr·kW/m3] (0.233, 0.259, 0.285)</t>
   </si>
   <si>
     <t>Flash tank base cost [USD] (4.6e+05, 5.11e+05, 5.62e+05)</t>
@@ -52,199 +439,118 @@
     <t>Flash agitator electricity rate [hr·kW/kg] (0.000605, 0.000672, 0.000739)</t>
   </si>
   <si>
-    <t>Seed hold tank301 pump base cost [USD] (7.38e+03, 8.2e+03, 9.02e+03)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 pump electricity rate [hr·kW/kg] (0.000156, 0.000173, 0.00019)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 tank base cost [USD] (3.95e+05, 4.39e+05, 4.83e+05)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 agitator base cost [USD] (2.86e+04, 3.18e+04, 3.5e+04)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 agitator electricity rate [hr·kW/kg] (0.000252, 0.00028, 0.000308)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank201 tank base cost [USD] (5.59e+03, 6.21e+03, 6.83e+03)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank201 tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank201 pump base cost [USD] (7.2e+03, 8e+03, 8.8e+03)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank201 pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank201 pump electricity rate [hr·kW/kg] (0.000242, 0.000269, 0.000296)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler base cost [USD] (2.57e+07, 2.86e+07, 3.14e+07)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate [hr·kW/kg] (0.0104, 0.0115, 0.0127)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost [USD] (2.74e+05, 3.05e+05, 3.36e+05)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost [USD] (3.6e+04, 4e+04, 4.4e+04)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost [USD] (7.02e+04, 7.8e+04, 8.58e+04)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost [USD] (8.55e+06, 9.5e+06, 1.04e+07)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer base cost [USD] (5.4e+03, 6e+03, 6.6e+03)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Chilled water package base cost [USD] (1.24e+06, 1.38e+06, 1.51e+06)</t>
-  </si>
-  <si>
-    <t>Chilled water package exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Chilled water package electricity rate [hr·kW/kJ] (-3.9e-05, -4.33e-05, -4.76e-05)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column base cost [USD] (2.34e+06, 2.6e+06, 2.86e+06)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column electricity rate [hr·kW/kg] (0.00599, 0.00666, 0.00732)</t>
-  </si>
-  <si>
-    <t>Dap tank tank base cost [USD] (9.18e+04, 1.02e+05, 1.12e+05)</t>
-  </si>
-  <si>
-    <t>Dap tank tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Dap tank pump base cost [USD] (2.7e+03, 3e+03, 3.3e+03)</t>
-  </si>
-  <si>
-    <t>Dap tank pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Dap tank pump electricity rate [hr·kW/kg] (0.00208, 0.00232, 0.00255)</t>
-  </si>
-  <si>
-    <t>Dap tank agitator base cost [USD] (8.82e+03, 9.8e+03, 1.08e+04)</t>
-  </si>
-  <si>
-    <t>Dap tank agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Dap tank agitator electricity rate [hr·kW/kg] (0.0226, 0.0252, 0.0277)</t>
-  </si>
-  <si>
-    <t>Dap tank bag base cost [USD] (2.7e+04, 3e+04, 3.3e+04)</t>
-  </si>
-  <si>
-    <t>Dap tank bag exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Ammonia mixer210 mixer base cost [USD] (4.5e+03, 5e+03, 5.5e+03)</t>
-  </si>
-  <si>
-    <t>Ammonia mixer210 mixer exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Cooling tower base cost [USD] (1.24e+06, 1.38e+06, 1.51e+06)</t>
-  </si>
-  <si>
-    <t>Cooling tower exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Cooling tower electricity rate [hr·kW/kmol] (0.00258, 0.00287, 0.00315)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump base cost [USD] (2.55e+05, 2.84e+05, 3.12e+05)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump electricity rate [hr·kW/kmol] (0.00165, 0.00183, 0.00202)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation tanks base cost [USD] (4.32e+05, 4.8e+05, 5.28e+05)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation tanks exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps base cost [USD] (8.5e+03, 9.44e+03, 1.04e+04)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps electricity rate [hr·kW/m3] (0.54, 0.6, 0.66)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation reactors base cost [USD] (7.6e+05, 8.44e+05, 9.28e+05)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation reactors exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators base cost [USD] (4.72e+04, 5.25e+04, 5.78e+04)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators electricity rate [kW/m3] (0.0171, 0.019, 0.0209)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation heat exchangers base cost [USD] (2.15e+04, 2.39e+04, 2.63e+04)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation heat exchangers exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps base cost [USD] (4.25e+04, 4.72e+04, 5.19e+04)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps electricity rate [hr·kW/m3] (0.233, 0.259, 0.285)</t>
+    <t>Pressure filter505 dry air pressure filter (2) base cost [USD] (3.64e+05, 4.05e+05, 4.46e+05)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 dry air pressure filter (2) exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 dry air pressure filter (2) electricity rate [hr·kW/kg] (0.0295, 0.0328, 0.0361)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 pressing air pressure filter base cost [USD] (6.77e+04, 7.52e+04, 8.27e+04)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 pressing air pressure filter exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 pressing air pressure filter electricity rate [hr·kW/kg] (0.00317, 0.00352, 0.00387)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 dry air compressor reciever tank base cost [USD] (1.53e+04, 1.7e+04, 1.87e+04)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 dry air compressor reciever tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 cloth wash pump base cost [USD] (2.62e+04, 2.92e+04, 3.21e+04)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 cloth wash pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 cloth wash pump electricity rate [hr·kW/kg] (0.00316, 0.00352, 0.00387)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 pressing air compressor reciever tank base cost [USD] (7.2e+03, 8e+03, 8.8e+03)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 pressing air compressor reciever tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 pressure filter base cost [USD] (2.97e+06, 3.29e+06, 3.62e+06)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 pressure filter exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 lignin wet cake conveyor base cost [USD] (6.3e+04, 7e+04, 7.7e+04)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 lignin wet cake conveyor exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 lignin wet cake conveyor electricity rate [hr·kW/kg] (0.000234, 0.00026, 0.000287)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 lignin wet cake screw base cost [USD] (1.8e+04, 2e+04, 2.2e+04)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 lignin wet cake screw exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 lignin wet cake screw electricity rate [hr·kW/kg] (0.000352, 0.000391, 0.00043)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 recycled water tank base cost [USD] (1.37e+03, 1.52e+03, 1.67e+03)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 recycled water tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 mafifold flush pump base cost [USD] (1.54e+04, 1.71e+04, 1.88e+04)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 mafifold flush pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 mafifold flush pump electricity rate [hr·kW/kg] (0.00211, 0.00234, 0.00258)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 stillage tank 531 base cost [USD] (1.57e+05, 1.75e+05, 1.92e+05)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 stillage tank 531 exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 feed pump base cost [USD] (1.64e+04, 1.82e+04, 2e+04)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 feed pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 feed pump electricity rate [hr·kW/kg] (0.00211, 0.00234, 0.00258)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 filtrate tank base cost [USD] (9.27e+04, 1.03e+05, 1.13e+05)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 filtrate tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 discharge pump base cost [USD] (1.17e+04, 1.3e+04, 1.43e+04)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 discharge pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 flitrate tank agitator base cost [USD] (2.34e+04, 2.6e+04, 2.86e+04)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 flitrate tank agitator exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Pressure filter505 flitrate tank agitator electricity rate [hr·kW/kg] (0.000158, 0.000176, 0.000193)</t>
   </si>
   <si>
     <t>C i p package base cost [USD] (3.79e+05, 4.21e+05, 4.63e+05)</t>
@@ -277,139 +583,34 @@
     <t>Csl tank agitator electricity rate [hr·kW/kg] (0.00482, 0.00535, 0.00589)</t>
   </si>
   <si>
-    <t>Fire water tank tank base cost [USD] (7.23e+05, 8.03e+05, 8.83e+05)</t>
-  </si>
-  <si>
-    <t>Fire water tank tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Fire water tank pump base cost [USD] (1.35e+04, 1.5e+04, 1.65e+04)</t>
-  </si>
-  <si>
-    <t>Fire water tank pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Fire water tank pump electricity rate [hr·kW/kg] (0.0102, 0.0113, 0.0124)</t>
-  </si>
-  <si>
     <t>Heat exchanger base cost [USD] (7.65e+04, 8.5e+04, 9.35e+04)</t>
   </si>
   <si>
     <t>Heat exchanger exponent (0.6, 0.7, 0.8)</t>
   </si>
   <si>
-    <t>Pressure filter505 dry air pressure filter (2) base cost [USD] (3.64e+05, 4.05e+05, 4.46e+05)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 dry air pressure filter (2) exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 dry air pressure filter (2) electricity rate [hr·kW/kg] (0.0295, 0.0328, 0.0361)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressing air pressure filter base cost [USD] (6.77e+04, 7.52e+04, 8.27e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressing air pressure filter exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressing air pressure filter electricity rate [hr·kW/kg] (0.00317, 0.00352, 0.00387)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 dry air compressor reciever tank base cost [USD] (1.53e+04, 1.7e+04, 1.87e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 dry air compressor reciever tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 cloth wash pump base cost [USD] (2.62e+04, 2.92e+04, 3.21e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 cloth wash pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 cloth wash pump electricity rate [hr·kW/kg] (0.00316, 0.00352, 0.00387)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressing air compressor reciever tank base cost [USD] (7.2e+03, 8e+03, 8.8e+03)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressing air compressor reciever tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressure filter base cost [USD] (2.97e+06, 3.29e+06, 3.62e+06)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressure filter exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake conveyor base cost [USD] (6.3e+04, 7e+04, 7.7e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake conveyor exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake conveyor electricity rate [hr·kW/kg] (0.000234, 0.00026, 0.000287)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake screw base cost [USD] (1.8e+04, 2e+04, 2.2e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake screw exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake screw electricity rate [hr·kW/kg] (0.000352, 0.000391, 0.00043)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 recycled water tank base cost [USD] (1.37e+03, 1.52e+03, 1.67e+03)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 recycled water tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 mafifold flush pump base cost [USD] (1.54e+04, 1.71e+04, 1.88e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 mafifold flush pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 mafifold flush pump electricity rate [hr·kW/kg] (0.00211, 0.00234, 0.00258)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 stillage tank 531 base cost [USD] (1.57e+05, 1.75e+05, 1.92e+05)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 stillage tank 531 exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 feed pump base cost [USD] (1.64e+04, 1.82e+04, 2e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 feed pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 feed pump electricity rate [hr·kW/kg] (0.00211, 0.00234, 0.00258)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 filtrate tank base cost [USD] (9.27e+04, 1.03e+05, 1.13e+05)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 filtrate tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 discharge pump base cost [USD] (1.17e+04, 1.3e+04, 1.43e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 discharge pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 flitrate tank agitator base cost [USD] (2.34e+04, 2.6e+04, 2.86e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 flitrate tank agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 flitrate tank agitator electricity rate [hr·kW/kg] (0.000158, 0.000176, 0.000193)</t>
+    <t>Beer tank306 tank base cost [USD] (5.72e+05, 6.36e+05, 7e+05)</t>
+  </si>
+  <si>
+    <t>Beer tank306 tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Beer tank306 pump base cost [USD] (2.41e+04, 2.68e+04, 2.95e+04)</t>
+  </si>
+  <si>
+    <t>Beer tank306 pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Beer tank306 pump electricity rate [hr·kW/kg] (0.000197, 0.000219, 0.000241)</t>
+  </si>
+  <si>
+    <t>Beer tank306 agitator base cost [USD] (6.15e+04, 6.83e+04, 7.51e+04)</t>
+  </si>
+  <si>
+    <t>Beer tank306 agitator exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Beer tank306 agitator electricity rate [hr·kW/kg] (3.15e-05, 3.5e-05, 3.85e-05)</t>
   </si>
   <si>
     <t>Heat exchanger heat exchanger base cost [USD] (3.06e+04, 3.4e+04, 3.74e+04)</t>
@@ -418,19 +619,19 @@
     <t>Heat exchanger heat exchanger exponent (0.6, 0.7, 0.8)</t>
   </si>
   <si>
-    <t>Vent scrubber base cost [USD] (1.94e+05, 2.15e+05, 2.37e+05)</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system base cost [USD] (1.78e+07, 1.98e+07, 2.18e+07)</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system electricity rate [hr·kW/kg] (0.0494, 0.0549, 0.0604)</t>
+    <t>Vent scrubber base cost [USD] (1.98e+05, 2.2e+05, 2.42e+05)</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent (0.57, 0.67, 0.77)</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system base cost [USD] (4.53e+07, 5.03e+07, 5.53e+07)</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system electricity rate [hr·kW/kg] (0.0156, 0.0173, 0.019)</t>
   </si>
   <si>
     <t>Enzyme hydrolysate mixer308 mixer base cost [USD] (9.81e+04, 1.09e+05, 1.2e+05)</t>
@@ -442,262 +643,61 @@
     <t>Enzyme hydrolysate mixer308 mixer electricity rate [hr·kW/kg] (0.000177, 0.000196, 0.000216)</t>
   </si>
   <si>
-    <t>Seed train stage #5 agitators base cost [USD] (1.94e+04, 2.15e+04, 2.37e+04)</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators electricity rate [kW/m3] (0.0119, 0.0132, 0.0145)</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors base cost [USD] (5.31e+05, 5.9e+05, 6.49e+05)</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators base cost [USD] (1.17e+04, 1.3e+04, 1.43e+04)</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators electricity rate [kW/m3] (0.0892, 0.0991, 0.109)</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors base cost [USD] (1.58e+05, 1.76e+05, 1.94e+05)</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors base cost [USD] (7.09e+04, 7.88e+04, 8.67e+04)</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors base cost [USD] (5.25e+04, 5.83e+04, 6.41e+04)</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors base cost [USD] (3.39e+04, 3.77e+04, 4.15e+04)</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed train pumps base cost [USD] (2.23e+04, 2.48e+04, 2.73e+04)</t>
-  </si>
-  <si>
-    <t>Seed train pumps exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Seed train pumps electricity rate [hr·kW/kg] (0.000834, 0.000927, 0.00102)</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system base cost [USD] (4.53e+07, 5.03e+07, 5.53e+07)</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system electricity rate [hr·kW/kg] (0.0156, 0.0173, 0.019)</t>
-  </si>
-  <si>
-    <t>Process water center tank base cost [USD] (2.25e+05, 2.5e+05, 2.75e+05)</t>
-  </si>
-  <si>
-    <t>Process water center tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Process water center process water pump base cost [USD] (1.38e+04, 1.53e+04, 1.68e+04)</t>
-  </si>
-  <si>
-    <t>Process water center process water pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Process water center process water pump electricity rate [hr·kW/kg] (9.7e-05, 0.000108, 0.000119)</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump base cost [USD] (6.18e+03, 6.86e+03, 7.55e+03)</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump electricity rate [hr·kW/kg] (8.63e-05, 9.59e-05, 0.000105)</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor base cost [USD] (2.52e+04, 2.8e+04, 3.08e+04)</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor electricity rate [hr·kW/kg] (0.00121, 0.00134, 0.00148)</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer base cost [USD] (1.35e+04, 1.5e+04, 1.65e+04)</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever base cost [USD] (1.44e+04, 1.6e+04, 1.76e+04)</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Feed stock handling system base cost [USD] (1.2e+07, 1.33e+07, 1.47e+07)</t>
-  </si>
-  <si>
-    <t>Feed stock handling system exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Feed stock handling system electricity rate [hr·kW/kg] (0.00744, 0.00827, 0.0091)</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank209 tank base cost [USD] (2.12e+05, 2.36e+05, 2.6e+05)</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank209 tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank209 agitator base cost [USD] (1.97e+04, 2.19e+04, 2.41e+04)</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank209 agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank209 agitator electricity rate [hr·kW/kg] (1.64e-05, 1.82e-05, 2e-05)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 tank base cost [USD] (1.83e+05, 2.03e+05, 2.23e+05)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 pump base cost [USD] (1.57e+04, 1.75e+04, 1.92e+04)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 pump electricity rate [hr·kW/kg] (0.00019, 0.000212, 0.000233)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 agitator base cost [USD] (8.1e+04, 9e+04, 9.9e+04)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 agitator electricity rate [hr·kW/kg] (0.000579, 0.000644, 0.000708)</t>
-  </si>
-  <si>
-    <t>Beer tank306 tank base cost [USD] (5.72e+05, 6.36e+05, 7e+05)</t>
-  </si>
-  <si>
-    <t>Beer tank306 tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Beer tank306 pump base cost [USD] (2.41e+04, 2.68e+04, 2.95e+04)</t>
-  </si>
-  <si>
-    <t>Beer tank306 pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Beer tank306 pump electricity rate [hr·kW/kg] (0.000197, 0.000219, 0.000241)</t>
-  </si>
-  <si>
-    <t>Beer tank306 agitator base cost [USD] (6.15e+04, 6.83e+04, 7.51e+04)</t>
-  </si>
-  <si>
-    <t>Beer tank306 agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Beer tank306 agitator electricity rate [hr·kW/kg] (3.15e-05, 3.5e-05, 3.85e-05)</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump203 pump base cost [USD] (2.28e+04, 2.54e+04, 2.79e+04)</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump203 pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump203 pump electricity rate [hr·kW/kg] (0.000287, 0.000319, 0.000351)</t>
-  </si>
-  <si>
-    <t>Mix tank base cost [USD] (1.09e+04, 1.21e+04, 1.33e+04)</t>
-  </si>
-  <si>
-    <t>Mix tank exponent (0.425, 0.525, 0.625)</t>
-  </si>
-  <si>
-    <t>Mix tank electricity rate [kW/m³] (0.0887, 0.0985, 0.108)</t>
+    <t>Stream-Sulfuric acid price [USD/kg] (0.0807, 0.0897, 0.0987)</t>
+  </si>
+  <si>
+    <t>Stream-Denaturant price [USD/kg] (0.68, 0.756, 0.832)</t>
+  </si>
+  <si>
+    <t>Stream-Ammonia price [USD/kg] (0.404, 0.449, 0.493)</t>
   </si>
   <si>
     <t>Stream-Baghouse bags price [USD/kg] (9.99, 11.1, 12.2)</t>
   </si>
   <si>
+    <t>Stream-Cellulase price [USD/kg] (0.189, 0.21, 0.231)</t>
+  </si>
+  <si>
+    <t>Stream-WWT caustic price [USD/kg] (0.0673, 0.0748, 0.0822)</t>
+  </si>
+  <si>
+    <t>Stream-Makeup water price [USD/kg] (0.000228, 0.000254, 0.000279)</t>
+  </si>
+  <si>
+    <t>Stream-BT water makeup price [USD/kg] (0.000228, 0.000254, 0.000279)</t>
+  </si>
+  <si>
+    <t>Stream-Lime price [USD/kg] (0.179, 0.199, 0.219)</t>
+  </si>
+  <si>
+    <t>Stream-CT water makeup price [USD/kg] (0.000228, 0.000254, 0.000279)</t>
+  </si>
+  <si>
     <t>Stream-Cornstover price [USD/kg] (0.0464, 0.0516, 0.0567)</t>
   </si>
   <si>
-    <t>Stream-Sulfuric acid price [USD/kg] (0.0807, 0.0897, 0.0987)</t>
-  </si>
-  <si>
-    <t>Stream-Lime price [USD/kg] (0.179, 0.199, 0.219)</t>
-  </si>
-  <si>
-    <t>Stream-Denaturant price [USD/kg] (0.68, 0.756, 0.832)</t>
-  </si>
-  <si>
-    <t>Stream-Ammonia price [USD/kg] (0.404, 0.449, 0.493)</t>
-  </si>
-  <si>
-    <t>Stream-Cellulase price [USD/kg] (0.189, 0.21, 0.231)</t>
-  </si>
-  <si>
-    <t>Stream-Makeup water price [USD/kg] (0.000228, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-WWT caustic price [USD/kg] (0.0673, 0.0748, 0.0822)</t>
-  </si>
-  <si>
-    <t>Stream-BT water makeup price [USD/kg] (0.000228, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-CT water makeup price [USD/kg] (0.000228, 0.000254, 0.000279)</t>
-  </si>
-  <si>
     <t>Stream-Ash price [USD/kg] (-0.0286, -0.0318, -0.035)</t>
   </si>
   <si>
-    <t>Stream-Ethanol price [USD/kg] (0.64, 0.711, 0.782)</t>
-  </si>
-  <si>
     <t>Stream-Boiler chemicals price [USD/kg] (4.5, 5, 5.5)</t>
   </si>
   <si>
+    <t>Stream-Ethanol price [USD/kg] (0.639, 0.71, 0.781)</t>
+  </si>
+  <si>
     <t>Electricity price [USD/kW] (0.0515, 0.0572, 0.0629)</t>
   </si>
   <si>
-    <t>Chilled Brine price [USD/kJ] (-7.33e-06, -8.15e-06, -8.96e-06)</t>
+    <t>Chilled Brine price [USD/kJ] (-7.28e-06, -8.09e-06, -8.9e-06)</t>
   </si>
   <si>
     <t>Low pressure steam price [USD/kmol] (0.276, 0.306, 0.337)</t>
   </si>
   <si>
-    <t>Medium pressure steam price [USD/kmol] (0.248, 0.276, 0.303)</t>
-  </si>
-  <si>
-    <t>High pressure steam price [USD/kmol] (0.285, 0.317, 0.349)</t>
+    <t>Medium pressure steam price [USD/kmol] (0.267, 0.296, 0.326)</t>
+  </si>
+  <si>
+    <t>High pressure steam price [USD/kmol] (0.296, 0.329, 0.362)</t>
   </si>
   <si>
     <t>TEA operating days (315, 350, 385)</t>
@@ -709,10 +709,10 @@
     <t>TEA startup months (2.7, 3, 3.3)</t>
   </si>
   <si>
-    <t>Saccharification and co fermentation-U22 saccharification time (54, 60, 66)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation-U22 fermentation time (32.4, 36, 39.6)</t>
+    <t>Saccharification and co fermentation-U72 saccharification time (54, 60, 66)</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation-U72 fermentation time (32.4, 36, 39.6)</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.6547502587502588</v>
+        <v>-0.6592190158727605</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.2904808584808585</v>
+        <v>-0.2187294591491783</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.06756790356790357</v>
+        <v>-0.08460165276006611</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.08620085020085021</v>
+        <v>0.01657301787892071</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.03254981654981656</v>
+        <v>0.01241683806467352</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.04415877215877216</v>
+        <v>0.01274299375771975</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.01072447072447073</v>
+        <v>0.01047882061115282</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.05238163638163638</v>
+        <v>0.001298118099924724</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.01500649500649501</v>
+        <v>0.02866059551442382</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.01536150336150336</v>
+        <v>-0.01122948716917948</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.02718583518583519</v>
+        <v>0.01501752885670115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.0278025038025038</v>
+        <v>0.002987669783506791</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.03264130464130464</v>
+        <v>-0.0211249276609971</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.02221939021939022</v>
+        <v>0.005104768716190747</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.06293342693342693</v>
+        <v>0.03176545039061802</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.01274788874788875</v>
+        <v>0.02211912222876489</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.01296478896478897</v>
+        <v>0.06955615017424599</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.02481266481266481</v>
+        <v>-0.003156173598246943</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.00614938214938215</v>
+        <v>-0.01748725807549032</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.01434686634686635</v>
+        <v>0.01570593950823758</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.01166511566511567</v>
+        <v>-0.01180288309611532</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.01561363561363561</v>
+        <v>-0.003372117350884694</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.04393606393606394</v>
+        <v>0.001144557933782317</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.05796467796467796</v>
+        <v>0.02046138715445548</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.04282356682356683</v>
+        <v>-0.016436574897463</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.03053969453969455</v>
+        <v>0.002994028151761126</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.08120326520326521</v>
+        <v>-0.004955634150225366</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.01828173028173028</v>
+        <v>-0.02264055786562231</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.06070360870360871</v>
+        <v>0.01970127342805094</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.01532252732252732</v>
+        <v>-0.008104248132169924</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.0005381645381645383</v>
+        <v>0.00220897477635899</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.06775408375408376</v>
+        <v>0.006625992457039698</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.009121377121377122</v>
+        <v>0.0001553311742132469</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.008551448551448553</v>
+        <v>0.0003574232782969311</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.00135980535980536</v>
+        <v>0.01057952029518081</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.05180739980739981</v>
+        <v>-0.01816021531840861</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.06078327678327679</v>
+        <v>-0.03328554065942162</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.0156052596052596</v>
+        <v>-0.006833460657338425</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.04954064554064554</v>
+        <v>-0.0131645524305821</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.01722352122352122</v>
+        <v>-0.03069144641165785</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.07403088203088204</v>
+        <v>-0.00671921854076874</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.04486898086898087</v>
+        <v>-0.009683917731356708</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.02516150516150516</v>
+        <v>0.02837115598284624</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.004124452124452125</v>
+        <v>0.01319180404767216</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.01619346419346419</v>
+        <v>-0.01243854721754189</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.03871729471729472</v>
+        <v>0.02870310230012409</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.01470585870585871</v>
+        <v>-0.004803093696123747</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.0008981168981168983</v>
+        <v>0.005058376906335075</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.01977474777474778</v>
+        <v>0.05592057833282312</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.03795316995316996</v>
+        <v>-0.003259036738361469</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.04484513684513685</v>
+        <v>0.01302473687298947</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.05403535803535803</v>
+        <v>-0.00968414601936584</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.0026999906999907</v>
+        <v>-0.0216238050249522</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.006388122388122388</v>
+        <v>0.005110610028424401</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.01351886551886552</v>
+        <v>0.01863035354521414</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.04364271164271165</v>
+        <v>-0.003988944543557782</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.008557784557784559</v>
+        <v>0.00485228678609147</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.04974651774651775</v>
+        <v>0.01163483566539343</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.0256998976998977</v>
+        <v>-0.002396233151849326</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.04704488304488305</v>
+        <v>-0.01966621230664849</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.0226981546981547</v>
+        <v>-0.02741541296861651</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.04788644388644389</v>
+        <v>0.08630292882811715</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.03714632514632515</v>
+        <v>-0.01029839061993562</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.01568124368124368</v>
+        <v>0.01680111696004468</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.03912841512841513</v>
+        <v>0.004497478163899126</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.01899190299190299</v>
+        <v>-0.009707231140289244</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.01617108417108417</v>
+        <v>0.007503958860158352</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.005625497625497626</v>
+        <v>-0.0004903468036138721</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.0188988668988669</v>
+        <v>-0.001024318792972752</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.0005388725388725388</v>
+        <v>-0.007527415021096599</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.01859068259068259</v>
+        <v>-0.01082583412903336</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.04536538536538537</v>
+        <v>-9.419117176764685e-05</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.05848865848865849</v>
+        <v>-0.02251952058078082</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.03833791433791434</v>
+        <v>-0.02439459361578374</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.0413032373032373</v>
+        <v>0.01416655871066235</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.0682919842919843</v>
+        <v>0.01330321128412845</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.03618289218289219</v>
+        <v>-0.003478789291151571</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.02597470997470997</v>
+        <v>0.007070745402829814</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.02961300561300562</v>
+        <v>0.004084633507385339</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.01672718872718873</v>
+        <v>0.00655008275800331</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.05865007065007066</v>
+        <v>-0.006334778653391145</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.01993001593001593</v>
+        <v>0.01644516411380656</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.02915965715965716</v>
+        <v>0.01641802184072087</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.005501261501261502</v>
+        <v>-0.00218157426326297</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.003203295203295203</v>
+        <v>-0.01772097670883907</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.02243951843951844</v>
+        <v>-0.008947966917918675</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.05375854175854177</v>
+        <v>0.007925001341000052</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-0.01748579348579349</v>
+        <v>0.02351286276451451</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.03013732213732214</v>
+        <v>-0.007600438672017545</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.004512340512340513</v>
+        <v>-0.0170605948904238</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.007032223032223032</v>
+        <v>-0.00267274474690979</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.04872321672321672</v>
+        <v>0.01193923209356928</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.02536333336333336</v>
+        <v>0.02518000036720001</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.01693177693177693</v>
+        <v>0.02377546885501875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.002905946905946906</v>
+        <v>-0.003932111485284459</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.04376254376254377</v>
+        <v>-0.03873995185359806</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.01735810135810136</v>
+        <v>0.005209733968389359</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.035995163995164</v>
+        <v>0.005996914895876595</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-0.01606724806724807</v>
+        <v>0.002403516480140659</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.02013466413466413</v>
+        <v>0.0048698925147957</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-0.02421337221337222</v>
+        <v>0.01153548708541948</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-0.01974877974877975</v>
+        <v>0.03441521542460861</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.03998707598707599</v>
+        <v>-0.008681494235259768</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.007460743460743461</v>
+        <v>0.01483307195332288</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-0.002982842982842983</v>
+        <v>-0.01004004798560192</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.002697350697350697</v>
+        <v>-0.03237841319913653</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.04707237507237507</v>
+        <v>0.0002515218340608733</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-0.07283302883302883</v>
+        <v>0.007115943740637749</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.01119227919227919</v>
+        <v>0.01742657772106311</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.03571327171327172</v>
+        <v>0.005270925810837031</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.02686441486441487</v>
+        <v>-0.008226259817050391</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.006138510138510139</v>
+        <v>-0.004152947974117918</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.01261646461646462</v>
+        <v>0.02311432575657303</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.01814374214374214</v>
+        <v>-0.01813652818146112</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.006528126528126528</v>
+        <v>-0.005703615396144614</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.0215025815025815</v>
+        <v>-0.01047283165091326</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-0.01779176979176979</v>
+        <v>9.530237181209486e-05</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.004417288417288417</v>
+        <v>0.03482996750519869</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.06391021591021591</v>
+        <v>0.0008742505309700211</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.04746571146571147</v>
+        <v>-0.004186868711474748</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-0.02467734067734068</v>
+        <v>0.01073100465324018</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.02597553797553797</v>
+        <v>0.03066558132262325</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.06725921525921527</v>
+        <v>0.03967546334701853</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.02484742884742885</v>
+        <v>-0.004035568865422755</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.01054023454023454</v>
+        <v>0.005328797685151906</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.005406833406833407</v>
+        <v>0.003238489953539598</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.01552019152019152</v>
+        <v>-0.01461931335277253</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-0.03408613008613009</v>
+        <v>-0.003654327410173096</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.01861300261300261</v>
+        <v>0.01034923807796952</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-0.03905696705696706</v>
+        <v>-0.008526721397068854</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-0.000515964515964516</v>
+        <v>0.002879890867195634</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.01671248871248871</v>
+        <v>-0.01155551575822063</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-0.003132207132207132</v>
+        <v>-0.01049446976377879</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>-0.02011670011670012</v>
+        <v>-0.005482960443318417</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.02083012483012483</v>
+        <v>-0.007374589830983592</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-4.690804690804691e-05</v>
+        <v>-0.02505377706615108</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.05176428376428377</v>
+        <v>0.01355413158216526</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.01073503073503074</v>
+        <v>-0.005018194472727778</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.03354138954138954</v>
+        <v>0.01125685149027406</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.02772035172035172</v>
+        <v>0.01487753982710159</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.02549415749415749</v>
+        <v>-0.000449928401997136</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.03441741441741442</v>
+        <v>-0.001582452639298106</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.02852558852558853</v>
+        <v>-0.00323738576149543</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-0.04751147951147951</v>
+        <v>-0.01451105126844205</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-0.02312787512787513</v>
+        <v>0.007096787611871502</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.03406417006417007</v>
+        <v>-0.001607906944316277</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.010998646998647</v>
+        <v>0.003454918890196755</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.01516970716970717</v>
+        <v>0.01014025806961032</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.05447760647760647</v>
+        <v>0.02288360203534408</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>-0.03363521763521764</v>
+        <v>0.003389994951599797</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.008994368994368994</v>
+        <v>-0.03151866596474663</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.03396863796863797</v>
+        <v>-0.01984472680978907</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.007861147861147862</v>
+        <v>-0.01404067361762694</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-0.05635172035172036</v>
+        <v>0.02637028348681134</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.04171470571470572</v>
+        <v>0.004163181094527244</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>-0.003497499497499498</v>
+        <v>-0.002724431724977269</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>-0.01990941190941191</v>
+        <v>-0.0126063575282543</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.005940557940557941</v>
+        <v>-0.01659496213579848</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.01047068247068247</v>
+        <v>0.008209633192385326</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>-0.03086820686820687</v>
+        <v>0.01343765170550607</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.04077078477078477</v>
+        <v>0.0004000009120000364</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>-0.08893723693723694</v>
+        <v>0.007704008852160353</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.001951021951021951</v>
+        <v>0.02663092858523714</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.03593443193443194</v>
+        <v>-0.0004751166910046676</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-0.003768099768099768</v>
+        <v>-0.001317862132714485</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.02604671004671005</v>
+        <v>-0.003990676287627051</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.004861564861564862</v>
+        <v>-0.004620230104809203</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-0.003325191325191325</v>
+        <v>0.01925983459439338</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>-0.01267268467268467</v>
+        <v>-0.002301923708076948</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-0.002790998790998791</v>
+        <v>-0.005603723552148942</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.007770403770403772</v>
+        <v>0.02435028462201138</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.01487516687516688</v>
+        <v>0.0113622326144893</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.01409301809301809</v>
+        <v>-0.009662472002498878</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.0271994311994312</v>
+        <v>-0.0008061210562448421</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.008656952656952658</v>
+        <v>0.01014701627788065</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.04297051897051898</v>
+        <v>-0.01404379044975162</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.006402222402222404</v>
+        <v>0.005439687385587495</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-0.01045595845595846</v>
+        <v>-0.003974596958983878</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.03853793053793055</v>
+        <v>0.009826187241047489</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>-0.004167736167736168</v>
+        <v>-0.0108478850419154</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.009857793857793859</v>
+        <v>0.01774071517362861</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.001426273426273426</v>
+        <v>0.0004408961456358458</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-0.03606547206547207</v>
+        <v>0.01769446736377869</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.007169995169995169</v>
+        <v>0.00188931674757267</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>-0.03305014505014505</v>
+        <v>-0.02274787905391516</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-0.02223212223212223</v>
+        <v>-0.002600975624039025</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.02106690906690907</v>
+        <v>0.00674580228583209</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-0.004068244068244069</v>
+        <v>0.001084354603374184</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.02185072585072585</v>
+        <v>0.004542376597695063</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-0.04188173388173388</v>
+        <v>0.004929271973170879</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.01639132039132039</v>
+        <v>-0.004576678647067145</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.0005957285957285958</v>
+        <v>-0.01538287424731497</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-0.003922899922899924</v>
+        <v>-0.003870524410820976</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.02162740562740563</v>
+        <v>-0.01327426469097059</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-0.0827976227976228</v>
+        <v>-0.0002161315286452611</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.01086626286626287</v>
+        <v>0.006811551728462068</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-0.04583726183726184</v>
+        <v>-0.02201261992050479</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.0006725766725766726</v>
+        <v>-0.02096963075878523</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.001450417450417451</v>
+        <v>0.005001674408066976</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.0004434964434964435</v>
+        <v>0.01708664113146564</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-0.01495574695574696</v>
+        <v>-0.01048385523535421</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-0.03572109572109572</v>
+        <v>-0.03455361143014445</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.0301916821916822</v>
+        <v>0.06956374118254963</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.04897972897972898</v>
+        <v>0.004264455434578217</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.008322980322980322</v>
+        <v>0.02729421238776849</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>-0.0411954531954532</v>
+        <v>0.002793142383725696</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.006416562416562417</v>
+        <v>-0.001947418829896753</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>-0.05578126378126377</v>
+        <v>-0.01254496782979871</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>-0.06396873996873997</v>
+        <v>-0.009851410186056406</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.3922670362670363</v>
+        <v>-0.0006264990970599638</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.03805957405957407</v>
+        <v>0.02153313100532524</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-0.03322404922404923</v>
+        <v>0.0001593287103731484</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.03400513000513001</v>
+        <v>0.1981960367598415</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.03892535092535093</v>
+        <v>-0.01075534622221385</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.2359378999379</v>
+        <v>-0.01051196125247845</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.01817493017493018</v>
+        <v>0.02062310828092433</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.08477784077784078</v>
+        <v>0.02709319711572788</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>-0.03593137193137193</v>
+        <v>0.005672303554892141</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>-0.007351711351711353</v>
+        <v>0.3775555214702209</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-0.02544308544308544</v>
+        <v>-0.02910119060404762</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>-0.009097821097821097</v>
+        <v>0.02633112393324495</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>-0.05976602376602377</v>
+        <v>0.02673839742153589</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>-0.06188251388251388</v>
+        <v>-0.1117285738131429</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.02835677235677236</v>
+        <v>0.01042016345680654</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.02324025524025524</v>
+        <v>-0.01067415057096602</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-0.02692226692226692</v>
+        <v>0.00974269699770788</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.004347940347940349</v>
+        <v>-0.04243293894531755</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-0.4958649518649519</v>
+        <v>-0.5025160196526407</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.1240570360570361</v>
+        <v>0.1100591971063679</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>-0.01574901974901975</v>
+        <v>0.0253706824868273</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.05877580677580677</v>
+        <v>0.003153743166149726</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>-0.01141642741642742</v>
+        <v>0.002706062124242485</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -14,705 +14,696 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
-  <si>
-    <t>Minimum ethanol selling price</t>
-  </si>
-  <si>
-    <t>Stream-Cornstover flow rate [kg/hr] (9.38e+04, 1.04e+05, 1.15e+05)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation-U72 saccharification conversion (0.85, 0.9, 0.95)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation-U72 ethanol conversion (0.9, 0.95, 1)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 pump base cost [USD] (7.38e+03, 8.2e+03, 9.02e+03)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 pump electricity rate [hr·kW/kg] (0.000156, 0.000173, 0.00019)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 tank base cost [USD] (3.95e+05, 4.39e+05, 4.83e+05)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 agitator base cost [USD] (2.86e+04, 3.18e+04, 3.5e+04)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Seed hold tank301 agitator electricity rate [hr·kW/kg] (0.000252, 0.00028, 0.000308)</t>
-  </si>
-  <si>
-    <t>Fire water tank tank base cost [USD] (7.23e+05, 8.03e+05, 8.83e+05)</t>
-  </si>
-  <si>
-    <t>Fire water tank tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Fire water tank pump base cost [USD] (1.35e+04, 1.5e+04, 1.65e+04)</t>
-  </si>
-  <si>
-    <t>Fire water tank pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Fire water tank pump electricity rate [hr·kW/kg] (0.0102, 0.0113, 0.0124)</t>
-  </si>
-  <si>
-    <t>Feed stock handling system base cost [USD] (1.2e+07, 1.33e+07, 1.47e+07)</t>
-  </si>
-  <si>
-    <t>Feed stock handling system exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Feed stock handling system electricity rate [hr·kW/kg] (0.00744, 0.00827, 0.0091)</t>
-  </si>
-  <si>
-    <t>Process water center tank base cost [USD] (2.26e+05, 2.51e+05, 2.76e+05)</t>
-  </si>
-  <si>
-    <t>Process water center tank exponent (0.585, 0.685, 0.785)</t>
-  </si>
-  <si>
-    <t>Process water center process water pump base cost [USD] (1.38e+04, 1.53e+04, 1.68e+04)</t>
-  </si>
-  <si>
-    <t>Process water center process water pump exponent (0.688, 0.788, 0.888)</t>
-  </si>
-  <si>
-    <t>Process water center process water pump electricity rate [hr·kW/kg] (9.43e-05, 0.000105, 0.000115)</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump base cost [USD] (6.34e+03, 7.04e+03, 7.75e+03)</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump exponent (0.713, 0.813, 0.913)</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump electricity rate [hr·kW/kg] (8.62e-05, 9.58e-05, 0.000105)</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank209 tank base cost [USD] (2.12e+05, 2.36e+05, 2.6e+05)</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank209 tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank209 agitator base cost [USD] (1.97e+04, 2.19e+04, 2.41e+04)</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank209 agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank209 agitator electricity rate [hr·kW/kg] (1.64e-05, 1.82e-05, 2e-05)</t>
-  </si>
-  <si>
-    <t>Mix tank base cost [USD] (1.12e+04, 1.24e+04, 1.36e+04)</t>
-  </si>
-  <si>
-    <t>Mix tank exponent (0.428, 0.528, 0.628)</t>
-  </si>
-  <si>
-    <t>Mix tank electricity rate [kW/m³] (0.0879, 0.0977, 0.107)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 tank base cost [USD] (1.83e+05, 2.03e+05, 2.23e+05)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 pump base cost [USD] (1.57e+04, 1.75e+04, 1.92e+04)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 pump electricity rate [hr·kW/kg] (0.00019, 0.000212, 0.000233)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 agitator base cost [USD] (8.1e+04, 9e+04, 9.9e+04)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank208 agitator electricity rate [hr·kW/kg] (0.000579, 0.000644, 0.000708)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank201 tank base cost [USD] (5.59e+03, 6.21e+03, 6.83e+03)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank201 tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank201 pump base cost [USD] (7.2e+03, 8e+03, 8.8e+03)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank201 pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank201 pump electricity rate [hr·kW/kg] (0.000242, 0.000269, 0.000296)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler base cost [USD] (2.5e+07, 2.77e+07, 3.05e+07)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent (0.478, 0.578, 0.678)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate [hr·kW/kg] (0.0104, 0.0116, 0.0127)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost [USD] (2.74e+05, 3.05e+05, 3.35e+05)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent (0.523, 0.623, 0.723)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost [USD] (3.68e+04, 4.09e+04, 4.5e+04)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent (0.501, 0.601, 0.701)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost [USD] (6.69e+04, 7.44e+04, 8.18e+04)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent (0.539, 0.639, 0.739)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost [USD] (8.59e+06, 9.54e+06, 1.05e+07)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer base cost [USD] (5.4e+03, 6e+03, 6.6e+03)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system base cost [USD] (1.78e+07, 1.98e+07, 2.18e+07)</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system electricity rate [hr·kW/kg] (0.0494, 0.0549, 0.0604)</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor base cost [USD] (2.52e+04, 2.8e+04, 3.08e+04)</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor electricity rate [hr·kW/kg] (0.00121, 0.00134, 0.00148)</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer base cost [USD] (1.35e+04, 1.5e+04, 1.65e+04)</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever base cost [USD] (1.44e+04, 1.6e+04, 1.76e+04)</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column base cost [USD] (2.36e+06, 2.62e+06, 2.89e+06)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column exponent (0.507, 0.607, 0.707)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column electricity rate [hr·kW/kg] (0.00598, 0.00664, 0.00731)</t>
-  </si>
-  <si>
-    <t>Dap tank tank base cost [USD] (9.18e+04, 1.02e+05, 1.12e+05)</t>
-  </si>
-  <si>
-    <t>Dap tank tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Dap tank pump base cost [USD] (2.7e+03, 3e+03, 3.3e+03)</t>
-  </si>
-  <si>
-    <t>Dap tank pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Dap tank pump electricity rate [hr·kW/kg] (0.00208, 0.00232, 0.00255)</t>
-  </si>
-  <si>
-    <t>Dap tank agitator base cost [USD] (8.82e+03, 9.8e+03, 1.08e+04)</t>
-  </si>
-  <si>
-    <t>Dap tank agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Dap tank agitator electricity rate [hr·kW/kg] (0.0226, 0.0252, 0.0277)</t>
-  </si>
-  <si>
-    <t>Dap tank bag base cost [USD] (2.7e+04, 3e+04, 3.3e+04)</t>
-  </si>
-  <si>
-    <t>Dap tank bag exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Ammonia mixer210 mixer base cost [USD] (4.5e+03, 5e+03, 5.5e+03)</t>
-  </si>
-  <si>
-    <t>Ammonia mixer210 mixer exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Chilled water package base cost [USD] (1.27e+06, 1.41e+06, 1.56e+06)</t>
-  </si>
-  <si>
-    <t>Chilled water package exponent (0.624, 0.724, 0.824)</t>
-  </si>
-  <si>
-    <t>Chilled water package electricity rate [hr·kW/kJ] (-3.83e-05, -4.26e-05, -4.68e-05)</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators base cost [USD] (1.94e+04, 2.15e+04, 2.37e+04)</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators electricity rate [kW/m3] (0.0119, 0.0132, 0.0145)</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors base cost [USD] (5.31e+05, 5.9e+05, 6.49e+05)</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators base cost [USD] (1.17e+04, 1.3e+04, 1.43e+04)</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators electricity rate [kW/m3] (0.0892, 0.0991, 0.109)</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors base cost [USD] (1.58e+05, 1.76e+05, 1.94e+05)</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors base cost [USD] (7.09e+04, 7.88e+04, 8.67e+04)</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors base cost [USD] (5.25e+04, 5.83e+04, 6.41e+04)</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors base cost [USD] (3.39e+04, 3.77e+04, 4.15e+04)</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Seed train pumps base cost [USD] (2.23e+04, 2.48e+04, 2.73e+04)</t>
-  </si>
-  <si>
-    <t>Seed train pumps exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Seed train pumps electricity rate [hr·kW/kg] (0.000834, 0.000927, 0.00102)</t>
-  </si>
-  <si>
-    <t>Cooling tower base cost [USD] (1.21e+06, 1.35e+06, 1.48e+06)</t>
-  </si>
-  <si>
-    <t>Cooling tower exponent (0.658, 0.758, 0.858)</t>
-  </si>
-  <si>
-    <t>Cooling tower electricity rate [hr·kW/kmol] (0.00257, 0.00286, 0.00314)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump base cost [USD] (2.58e+05, 2.86e+05, 3.15e+05)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump exponent (0.67, 0.77, 0.87)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump electricity rate [hr·kW/kmol] (0.00171, 0.0019, 0.00208)</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump203 pump base cost [USD] (2.28e+04, 2.54e+04, 2.79e+04)</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump203 pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump203 pump electricity rate [hr·kW/kg] (0.000287, 0.000319, 0.000351)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation tanks base cost [USD] (4.32e+05, 4.8e+05, 5.28e+05)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation tanks exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps base cost [USD] (8.5e+03, 9.44e+03, 1.04e+04)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps electricity rate [hr·kW/m3] (0.54, 0.6, 0.66)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation reactors base cost [USD] (7.6e+05, 8.44e+05, 9.28e+05)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation reactors exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators base cost [USD] (4.72e+04, 5.25e+04, 5.78e+04)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators electricity rate [kW/m3] (0.0171, 0.019, 0.0209)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation heat exchangers base cost [USD] (2.15e+04, 2.39e+04, 2.63e+04)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation heat exchangers exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps base cost [USD] (4.25e+04, 4.72e+04, 5.19e+04)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps electricity rate [hr·kW/m3] (0.233, 0.259, 0.285)</t>
-  </si>
-  <si>
-    <t>Flash tank base cost [USD] (4.6e+05, 5.11e+05, 5.62e+05)</t>
-  </si>
-  <si>
-    <t>Flash tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Flash pump base cost [USD] (2.7e+04, 3e+04, 3.3e+04)</t>
-  </si>
-  <si>
-    <t>Flash pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Flash pump electricity rate [hr·kW/kg] (0.000199, 0.000221, 0.000243)</t>
-  </si>
-  <si>
-    <t>Flash agitator base cost [USD] (8.1e+04, 9e+04, 9.9e+04)</t>
-  </si>
-  <si>
-    <t>Flash agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Flash agitator electricity rate [hr·kW/kg] (0.000605, 0.000672, 0.000739)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 dry air pressure filter (2) base cost [USD] (3.64e+05, 4.05e+05, 4.46e+05)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 dry air pressure filter (2) exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 dry air pressure filter (2) electricity rate [hr·kW/kg] (0.0295, 0.0328, 0.0361)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressing air pressure filter base cost [USD] (6.77e+04, 7.52e+04, 8.27e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressing air pressure filter exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressing air pressure filter electricity rate [hr·kW/kg] (0.00317, 0.00352, 0.00387)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 dry air compressor reciever tank base cost [USD] (1.53e+04, 1.7e+04, 1.87e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 dry air compressor reciever tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 cloth wash pump base cost [USD] (2.62e+04, 2.92e+04, 3.21e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 cloth wash pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 cloth wash pump electricity rate [hr·kW/kg] (0.00316, 0.00352, 0.00387)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressing air compressor reciever tank base cost [USD] (7.2e+03, 8e+03, 8.8e+03)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressing air compressor reciever tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressure filter base cost [USD] (2.97e+06, 3.29e+06, 3.62e+06)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 pressure filter exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake conveyor base cost [USD] (6.3e+04, 7e+04, 7.7e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake conveyor exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake conveyor electricity rate [hr·kW/kg] (0.000234, 0.00026, 0.000287)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake screw base cost [USD] (1.8e+04, 2e+04, 2.2e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake screw exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 lignin wet cake screw electricity rate [hr·kW/kg] (0.000352, 0.000391, 0.00043)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 recycled water tank base cost [USD] (1.37e+03, 1.52e+03, 1.67e+03)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 recycled water tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 mafifold flush pump base cost [USD] (1.54e+04, 1.71e+04, 1.88e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 mafifold flush pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 mafifold flush pump electricity rate [hr·kW/kg] (0.00211, 0.00234, 0.00258)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 stillage tank 531 base cost [USD] (1.57e+05, 1.75e+05, 1.92e+05)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 stillage tank 531 exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 feed pump base cost [USD] (1.64e+04, 1.82e+04, 2e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 feed pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 feed pump electricity rate [hr·kW/kg] (0.00211, 0.00234, 0.00258)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 filtrate tank base cost [USD] (9.27e+04, 1.03e+05, 1.13e+05)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 filtrate tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 discharge pump base cost [USD] (1.17e+04, 1.3e+04, 1.43e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 discharge pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 flitrate tank agitator base cost [USD] (2.34e+04, 2.6e+04, 2.86e+04)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 flitrate tank agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Pressure filter505 flitrate tank agitator electricity rate [hr·kW/kg] (0.000158, 0.000176, 0.000193)</t>
-  </si>
-  <si>
-    <t>C i p package base cost [USD] (3.79e+05, 4.21e+05, 4.63e+05)</t>
-  </si>
-  <si>
-    <t>C i p package exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Csl tank tank base cost [USD] (6.3e+04, 7e+04, 7.7e+04)</t>
-  </si>
-  <si>
-    <t>Csl tank tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Csl tank pump base cost [USD] (2.7e+03, 3e+03, 3.3e+03)</t>
-  </si>
-  <si>
-    <t>Csl tank pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Csl tank pump electricity rate [hr·kW/kg] (0.000241, 0.000268, 0.000294)</t>
-  </si>
-  <si>
-    <t>Csl tank agitator base cost [USD] (1.91e+04, 2.12e+04, 2.33e+04)</t>
-  </si>
-  <si>
-    <t>Csl tank agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Csl tank agitator electricity rate [hr·kW/kg] (0.00482, 0.00535, 0.00589)</t>
-  </si>
-  <si>
-    <t>Heat exchanger base cost [USD] (7.65e+04, 8.5e+04, 9.35e+04)</t>
-  </si>
-  <si>
-    <t>Heat exchanger exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Beer tank306 tank base cost [USD] (5.72e+05, 6.36e+05, 7e+05)</t>
-  </si>
-  <si>
-    <t>Beer tank306 tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Beer tank306 pump base cost [USD] (2.41e+04, 2.68e+04, 2.95e+04)</t>
-  </si>
-  <si>
-    <t>Beer tank306 pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Beer tank306 pump electricity rate [hr·kW/kg] (0.000197, 0.000219, 0.000241)</t>
-  </si>
-  <si>
-    <t>Beer tank306 agitator base cost [USD] (6.15e+04, 6.83e+04, 7.51e+04)</t>
-  </si>
-  <si>
-    <t>Beer tank306 agitator exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Beer tank306 agitator electricity rate [hr·kW/kg] (3.15e-05, 3.5e-05, 3.85e-05)</t>
-  </si>
-  <si>
-    <t>Heat exchanger heat exchanger base cost [USD] (3.06e+04, 3.4e+04, 3.74e+04)</t>
-  </si>
-  <si>
-    <t>Heat exchanger heat exchanger exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Vent scrubber base cost [USD] (1.98e+05, 2.2e+05, 2.42e+05)</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent (0.57, 0.67, 0.77)</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system base cost [USD] (4.53e+07, 5.03e+07, 5.53e+07)</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system electricity rate [hr·kW/kg] (0.0156, 0.0173, 0.019)</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer308 mixer base cost [USD] (9.81e+04, 1.09e+05, 1.2e+05)</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer308 mixer exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer308 mixer electricity rate [hr·kW/kg] (0.000177, 0.000196, 0.000216)</t>
-  </si>
-  <si>
-    <t>Stream-Sulfuric acid price [USD/kg] (0.0807, 0.0897, 0.0987)</t>
-  </si>
-  <si>
-    <t>Stream-Denaturant price [USD/kg] (0.68, 0.756, 0.832)</t>
-  </si>
-  <si>
-    <t>Stream-Ammonia price [USD/kg] (0.404, 0.449, 0.493)</t>
-  </si>
-  <si>
-    <t>Stream-Baghouse bags price [USD/kg] (9.99, 11.1, 12.2)</t>
-  </si>
-  <si>
-    <t>Stream-Cellulase price [USD/kg] (0.189, 0.21, 0.231)</t>
-  </si>
-  <si>
-    <t>Stream-WWT caustic price [USD/kg] (0.0673, 0.0748, 0.0822)</t>
-  </si>
-  <si>
-    <t>Stream-Makeup water price [USD/kg] (0.000228, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-BT water makeup price [USD/kg] (0.000228, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-Lime price [USD/kg] (0.179, 0.199, 0.219)</t>
-  </si>
-  <si>
-    <t>Stream-CT water makeup price [USD/kg] (0.000228, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-Cornstover price [USD/kg] (0.0464, 0.0516, 0.0567)</t>
-  </si>
-  <si>
-    <t>Stream-Ash price [USD/kg] (-0.0286, -0.0318, -0.035)</t>
-  </si>
-  <si>
-    <t>Stream-Boiler chemicals price [USD/kg] (4.5, 5, 5.5)</t>
-  </si>
-  <si>
-    <t>Stream-Ethanol price [USD/kg] (0.639, 0.71, 0.781)</t>
-  </si>
-  <si>
-    <t>Electricity price [USD/kW] (0.0515, 0.0572, 0.0629)</t>
-  </si>
-  <si>
-    <t>Chilled Brine price [USD/kJ] (-7.28e-06, -8.09e-06, -8.9e-06)</t>
-  </si>
-  <si>
-    <t>Low pressure steam price [USD/kmol] (0.276, 0.306, 0.337)</t>
-  </si>
-  <si>
-    <t>Medium pressure steam price [USD/kmol] (0.267, 0.296, 0.326)</t>
-  </si>
-  <si>
-    <t>High pressure steam price [USD/kmol] (0.296, 0.329, 0.362)</t>
-  </si>
-  <si>
-    <t>TEA operating days (315, 350, 385)</t>
-  </si>
-  <si>
-    <t>TEA income tax (0.315, 0.35, 0.385)</t>
-  </si>
-  <si>
-    <t>TEA startup months (2.7, 3, 3.3)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation-U72 saccharification time (54, 60, 66)</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation-U72 fermentation time (32.4, 36, 39.6)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+  <si>
+    <t>('Biorefinery', 'Minimum ethanol selling price')</t>
+  </si>
+  <si>
+    <t>Stream-cornstover flow rate (kg/hr) [9.38e+04, 1.04e+05, 1.15e+05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation-R301 saccharification conversion [0.85, 0.9, 0.95]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation-R301 ethanol conversion [0.9, 0.95, 1]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system electricity rate (hr·kW/kg) [0.0156, 0.0173, 0.019]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+  </si>
+  <si>
+    <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>CSLTank pump electricity rate (hr·kW/kg) [0.000241, 0.000268, 0.000294]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator electricity rate (hr·kW/kg) [0.00482, 0.00535, 0.00589]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+  </si>
+  <si>
+    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
+  </si>
+  <si>
+    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+  </si>
+  <si>
+    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.7e-05, 0.000108, 0.000119]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system electricity rate (hr·kW/kg) [0.00744, 0.00827, 0.0091]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator electricity rate (hr·kW/kg) [1.64e-05, 1.82e-05, 2e-05]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump electricity rate (hr·kW/kg) [0.00019, 0.000212, 0.000233]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator electricity rate (hr·kW/kg) [0.000579, 0.000644, 0.000708]</t>
+  </si>
+  <si>
+    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+  </si>
+  <si>
+    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+  </si>
+  <si>
+    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+  </si>
+  <si>
+    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>DAPTank pump electricity rate (hr·kW/kg) [0.00208, 0.00232, 0.00255]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator electricity rate (hr·kW/kg) [0.0226, 0.0252, 0.0277]</t>
+  </si>
+  <si>
+    <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system electricity rate (hr·kW/kg) [0.0494, 0.0549, 0.0604]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps electricity rate (hr·kW/m3) [0.653, 0.725, 0.798]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators electricity rate (kW/m3) [0.0214, 0.0238, 0.0262]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps electricity rate (hr·kW/m3) [0.35, 0.388, 0.427]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump electricity rate (hr·kW/kg) [0.000199, 0.000221, 0.000243]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator electricity rate (hr·kW/kg) [0.000605, 0.000672, 0.000739]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump electricity rate (hr·kW/kg) [0.000156, 0.000173, 0.00019]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator electricity rate (hr·kW/kg) [0.000252, 0.00028, 0.000308]</t>
+  </si>
+  <si>
+    <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+  </si>
+  <si>
+    <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Molecular sieve column electricity rate (hr·kW/kg) [0.00599, 0.00666, 0.00732]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) electricity rate (hr·kW/kg) [0.0295, 0.0328, 0.0361]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter electricity rate (hr·kW/kg) [0.00317, 0.00352, 0.00387]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump electricity rate (hr·kW/kg) [0.00316, 0.00352, 0.00387]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+  </si>
+  <si>
+    <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor electricity rate (hr·kW/kg) [0.000234, 0.00026, 0.000287]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw electricity rate (hr·kW/kg) [0.000352, 0.000391, 0.00043]</t>
+  </si>
+  <si>
+    <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+  </si>
+  <si>
+    <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
+  </si>
+  <si>
+    <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
+  </si>
+  <si>
+    <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator electricity rate (hr·kW/kg) [0.000158, 0.000176, 0.000193]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump electricity rate (hr·kW/kg) [0.000242, 0.000269, 0.000296]</t>
+  </si>
+  <si>
+    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+  </si>
+  <si>
+    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Chilled water package electricity rate (hr·kW/kJ) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump electricity rate (hr·kW/kg) [0.0102, 0.0113, 0.0124]</t>
+  </si>
+  <si>
+    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00258, 0.00287, 0.00315]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump electricity rate (hr·kW/kg) [0.000287, 0.000319, 0.000351]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
+  </si>
+  <si>
+    <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
+  </si>
+  <si>
+    <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+  </si>
+  <si>
+    <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
+  </si>
+  <si>
+    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
+  </si>
+  <si>
+    <t>Stream-cellulase price (USD/kg) [0.456, 0.507, 0.558]</t>
+  </si>
+  <si>
+    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+  </si>
+  <si>
+    <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
+  </si>
+  <si>
+    <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+  </si>
+  <si>
+    <t>Stream-ethanol price (USD/kg) [0.609, 0.676, 0.744]</t>
+  </si>
+  <si>
+    <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
+  </si>
+  <si>
+    <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
+  </si>
+  <si>
+    <t>Electricity price (USD/kWhr) [0.0515, 0.0572, 0.0629]</t>
+  </si>
+  <si>
+    <t>Chilled Brine price (USD/kJ) [-7.33e-06, -8.15e-06, -8.96e-06]</t>
+  </si>
+  <si>
+    <t>Low pressure steam price (USD/kmol) [0.276, 0.306, 0.337]</t>
+  </si>
+  <si>
+    <t>Medium pressure steam price (USD/kmol) [0.248, 0.276, 0.303]</t>
+  </si>
+  <si>
+    <t>High pressure steam price (USD/kmol) [0.285, 0.317, 0.349]</t>
+  </si>
+  <si>
+    <t>TEA operating days [315, 350, 385]</t>
+  </si>
+  <si>
+    <t>TEA income tax [0.315, 0.35, 0.385]</t>
+  </si>
+  <si>
+    <t>TEA startup months [2.7, 3, 3.3]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation-R301 saccharification time [54, 60, 66]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation-R301 fermentation time [32.4, 36, 39.6]</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B233"/>
+  <dimension ref="A1:B230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1086,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.6592190158727605</v>
+        <v>-0.4720894723578895</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1094,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.2187294591491783</v>
+        <v>-0.303254461017844</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1102,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.08460165276006611</v>
+        <v>-0.002227304909219637</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1110,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.01657301787892071</v>
+        <v>0.08623532094128375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1118,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.01241683806467352</v>
+        <v>-0.01833914535658143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1126,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.01274299375771975</v>
+        <v>-0.02276178704714819</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1134,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.01047882061115282</v>
+        <v>0.01739565358261433</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1142,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.001298118099924724</v>
+        <v>-0.01008906435625742</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1150,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.02866059551442382</v>
+        <v>-0.1107310669242677</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1158,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.01122948716917948</v>
+        <v>0.1380784083136332</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1166,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.01501752885670115</v>
+        <v>0.03905334021336085</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1174,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.002987669783506791</v>
+        <v>0.01264814659258637</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1182,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.0211249276609971</v>
+        <v>0.01653395413581654</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1190,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.005104768716190747</v>
+        <v>0.01230398521594086</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1198,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.03176545039061802</v>
+        <v>0.08501736406945627</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1206,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.02211912222876489</v>
+        <v>0.03440778563114252</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1214,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.06955615017424599</v>
+        <v>0.0254187896751587</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1222,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.003156173598246943</v>
+        <v>-0.04432702530810123</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1230,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.01748725807549032</v>
+        <v>0.000853443413773655</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1238,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.01570593950823758</v>
+        <v>-0.07770837483349932</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1246,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.01180288309611532</v>
+        <v>-0.03917180468721875</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1254,7 +1245,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.003372117350884694</v>
+        <v>-0.01685872343489374</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1262,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.001144557933782317</v>
+        <v>-0.01336939747758991</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1270,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.02046138715445548</v>
+        <v>0.01320926883707535</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1278,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.016436574897463</v>
+        <v>-0.02768641474565898</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1286,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.002994028151761126</v>
+        <v>0.01168622274489098</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1294,7 +1285,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.004955634150225366</v>
+        <v>-0.002844107376429506</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1302,7 +1293,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.02264055786562231</v>
+        <v>-0.005829719318877275</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1310,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.01970127342805094</v>
+        <v>0.04401531206124824</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1318,7 +1309,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.008104248132169924</v>
+        <v>-0.005965943863775454</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1326,7 +1317,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.00220897477635899</v>
+        <v>0.03645480181920727</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1334,7 +1325,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.006625992457039698</v>
+        <v>-0.05524428497713991</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1342,7 +1333,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.0001553311742132469</v>
+        <v>0.03157548630194521</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1350,7 +1341,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.0003574232782969311</v>
+        <v>-0.09612960051840207</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1358,7 +1349,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.01057952029518081</v>
+        <v>0.05143940575762303</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1366,7 +1357,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.01816021531840861</v>
+        <v>0.07099420397681591</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1374,7 +1365,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.03328554065942162</v>
+        <v>0.03032431329725319</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1382,7 +1373,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.006833460657338425</v>
+        <v>0.0134061656246625</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1390,7 +1381,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.0131645524305821</v>
+        <v>-0.057875271501086</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1398,7 +1389,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.03069144641165785</v>
+        <v>0.007079164316657266</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1406,7 +1397,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.00671921854076874</v>
+        <v>0.0273814215256861</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1414,7 +1405,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.009683917731356708</v>
+        <v>0.0439563678254713</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1422,7 +1413,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.02837115598284624</v>
+        <v>-0.0609249156996628</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1430,7 +1421,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.01319180404767216</v>
+        <v>-0.05301803607214429</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1438,7 +1429,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.01243854721754189</v>
+        <v>0.01556790227160909</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1446,7 +1437,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.02870310230012409</v>
+        <v>-0.04245703382813531</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1454,7 +1445,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.004803093696123747</v>
+        <v>-0.1215502142008568</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1462,7 +1453,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.005058376906335075</v>
+        <v>-0.07960207840831363</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1470,7 +1461,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.05592057833282312</v>
+        <v>-0.01987361549446198</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1478,7 +1469,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.003259036738361469</v>
+        <v>0.02720929283717135</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1486,7 +1477,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.01302473687298947</v>
+        <v>0.05961623846495385</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1494,7 +1485,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.00968414601936584</v>
+        <v>0.01791472765891063</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1502,7 +1493,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.0216238050249522</v>
+        <v>0.03101714806859227</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1510,7 +1501,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.005110610028424401</v>
+        <v>-0.04166080664322657</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1518,7 +1509,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.01863035354521414</v>
+        <v>0.01033607334429338</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1526,7 +1517,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.003988944543557782</v>
+        <v>0.01544530978123912</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1534,7 +1525,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.00485228678609147</v>
+        <v>0.009828903315613261</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1542,7 +1533,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.01163483566539343</v>
+        <v>-0.04069437077748311</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1550,7 +1541,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.002396233151849326</v>
+        <v>-0.04350727802911212</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1558,7 +1549,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.01966621230664849</v>
+        <v>0.02736740546962188</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1566,7 +1557,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.02741541296861651</v>
+        <v>-0.03480503522014088</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1574,7 +1565,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.08630292882811715</v>
+        <v>0.02900325201300805</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1582,7 +1573,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.01029839061993562</v>
+        <v>0.07312118848475394</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1590,7 +1581,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.01680111696004468</v>
+        <v>-0.01707952431809727</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1598,7 +1589,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.004497478163899126</v>
+        <v>-0.0002422089688358753</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1606,7 +1597,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.009707231140289244</v>
+        <v>-0.06231528926115704</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1614,7 +1605,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.007503958860158352</v>
+        <v>-0.05954212616850468</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1622,7 +1613,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.0004903468036138721</v>
+        <v>0.03487559550238201</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1630,7 +1621,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-0.001024318792972752</v>
+        <v>0.05318594074376298</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1638,7 +1629,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.007527415021096599</v>
+        <v>0.03645096180384721</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1646,7 +1637,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.01082583412903336</v>
+        <v>0.03189564758259033</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1654,7 +1645,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-9.419117176764685e-05</v>
+        <v>-0.03817004068016273</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1662,7 +1653,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.02251952058078082</v>
+        <v>-0.05632342529370118</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1670,7 +1661,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-0.02439459361578374</v>
+        <v>0.003544526178104712</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1678,7 +1669,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.01416655871066235</v>
+        <v>-0.004271921087684351</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1686,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.01330321128412845</v>
+        <v>-0.08705353221412886</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1694,7 +1685,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.003478789291151571</v>
+        <v>-0.001718886875547502</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1702,7 +1693,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.007070745402829814</v>
+        <v>0.002939915759663038</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1710,7 +1701,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.004084633507385339</v>
+        <v>-0.0008131232524930099</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1718,7 +1709,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.00655008275800331</v>
+        <v>0.06141710966843868</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1726,7 +1717,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.006334778653391145</v>
+        <v>0.01865489061956248</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1734,7 +1725,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.01644516411380656</v>
+        <v>-0.03045976983907935</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1742,7 +1733,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.01641802184072087</v>
+        <v>-0.04466561866247465</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1750,7 +1741,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.00218157426326297</v>
+        <v>0.1231062844251377</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1758,7 +1749,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.01772097670883907</v>
+        <v>0.004744914979659919</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1766,7 +1757,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.008947966917918675</v>
+        <v>0.01903678014712059</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1774,7 +1765,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.007925001341000052</v>
+        <v>-0.02687098748394993</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1782,7 +1773,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.02351286276451451</v>
+        <v>-0.04610284041136165</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1790,7 +1781,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.007600438672017545</v>
+        <v>0.06015652862611451</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1798,7 +1789,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.0170605948904238</v>
+        <v>-0.006427321709286837</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1806,7 +1797,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.00267274474690979</v>
+        <v>0.04112397249588998</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1814,7 +1805,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.01193923209356928</v>
+        <v>0.01475218700874803</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1822,7 +1813,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.02518000036720001</v>
+        <v>-0.003580142320569282</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1830,7 +1821,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.02377546885501875</v>
+        <v>0.02055329821319285</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1838,7 +1829,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.003932111485284459</v>
+        <v>-0.03195679982719931</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1846,7 +1837,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.03873995185359806</v>
+        <v>-0.02839825759303037</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1854,7 +1845,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.005209733968389359</v>
+        <v>0.07595156780627121</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1862,7 +1853,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.005996914895876595</v>
+        <v>-0.01386552746210985</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1870,7 +1861,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.002403516480140659</v>
+        <v>-0.06537069348277393</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1878,7 +1869,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.0048698925147957</v>
+        <v>-0.004164112656450626</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1886,7 +1877,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.01153548708541948</v>
+        <v>-0.03894591578366313</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1894,7 +1885,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.03441521542460861</v>
+        <v>-0.05812765651062604</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1902,7 +1893,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.008681494235259768</v>
+        <v>0.04951709406837627</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1910,7 +1901,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.01483307195332288</v>
+        <v>-0.03217107268429074</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1918,7 +1909,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-0.01004004798560192</v>
+        <v>0.002793419173676695</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1926,7 +1917,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.03237841319913653</v>
+        <v>0.08238378553514213</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1934,7 +1925,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.0002515218340608733</v>
+        <v>-0.004608018432073728</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1942,7 +1933,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.007115943740637749</v>
+        <v>0.00779628718514874</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1950,7 +1941,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.01742657772106311</v>
+        <v>-0.009786663146652585</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1958,7 +1949,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.005270925810837031</v>
+        <v>-0.001811239244956979</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1966,7 +1957,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-0.008226259817050391</v>
+        <v>-0.03963020652082608</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1974,7 +1965,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.004152947974117918</v>
+        <v>0.1325778743114973</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1982,7 +1973,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.02311432575657303</v>
+        <v>-0.002633578534314137</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1990,7 +1981,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.01813652818146112</v>
+        <v>0.01193495973983896</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1998,7 +1989,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.005703615396144614</v>
+        <v>0.02393423973695894</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2006,7 +1997,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.01047283165091326</v>
+        <v>0.03759307837231349</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2014,7 +2005,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>9.530237181209486e-05</v>
+        <v>0.03450359401437605</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2022,7 +2013,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.03482996750519869</v>
+        <v>0.01953463813855255</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2030,7 +2021,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.0008742505309700211</v>
+        <v>0.0429252277009108</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2038,7 +2029,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-0.004186868711474748</v>
+        <v>0.02955861423445694</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2046,7 +2037,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.01073100465324018</v>
+        <v>-0.06597376789507158</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2054,7 +2045,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.03066558132262325</v>
+        <v>-0.01556425425701703</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2062,7 +2053,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.03967546334701853</v>
+        <v>-0.05716064464257856</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2070,7 +2061,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.004035568865422755</v>
+        <v>-0.001404869619478478</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2078,7 +2069,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.005328797685151906</v>
+        <v>-0.04008620834483338</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2086,7 +2077,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.003238489953539598</v>
+        <v>-0.009044196176784708</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2094,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.01461931335277253</v>
+        <v>-0.008639074556298225</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2102,7 +2093,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-0.003654327410173096</v>
+        <v>0.08040857763431054</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2110,7 +2101,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.01034923807796952</v>
+        <v>-0.002322921291685166</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2118,7 +2109,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-0.008526721397068854</v>
+        <v>0.08242362569450276</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2126,7 +2117,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.002879890867195634</v>
+        <v>0.01725434101736407</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2134,7 +2125,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.01155551575822063</v>
+        <v>-0.05160347041388166</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2142,7 +2133,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-0.01049446976377879</v>
+        <v>-0.01375839103356413</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2150,7 +2141,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>-0.005482960443318417</v>
+        <v>0.06541763767055067</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2158,7 +2149,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-0.007374589830983592</v>
+        <v>0.04658850635402541</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2166,7 +2157,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-0.02505377706615108</v>
+        <v>-0.05615052860211441</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2174,7 +2165,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.01355413158216526</v>
+        <v>0.04719561278245113</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2182,7 +2173,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>-0.005018194472727778</v>
+        <v>-0.005583862335449341</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2190,7 +2181,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.01125685149027406</v>
+        <v>0.01940801363205453</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2198,7 +2189,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.01487753982710159</v>
+        <v>-0.02126638906555626</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2206,7 +2197,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.000449928401997136</v>
+        <v>0.001951975807903232</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2214,7 +2205,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-0.001582452639298106</v>
+        <v>0.04893801975207901</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2222,7 +2213,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.00323738576149543</v>
+        <v>-0.002428905715622862</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2230,7 +2221,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-0.01451105126844205</v>
+        <v>-0.04692633170532682</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2238,7 +2229,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.007096787611871502</v>
+        <v>0.04307614030456122</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2246,7 +2237,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>-0.001607906944316277</v>
+        <v>0.00410065640262561</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2254,7 +2245,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.003454918890196755</v>
+        <v>-0.06769841479365916</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2262,7 +2253,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.01014025806961032</v>
+        <v>0.07604104016416066</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2270,7 +2261,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.02288360203534408</v>
+        <v>-0.00293185172740691</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2278,7 +2269,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.003389994951599797</v>
+        <v>0.08341002964011857</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2286,7 +2277,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-0.03151866596474663</v>
+        <v>-0.01157284629138517</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2294,7 +2285,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>-0.01984472680978907</v>
+        <v>-0.02497622790491161</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2302,7 +2293,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>-0.01404067361762694</v>
+        <v>-0.02929470917883671</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2310,7 +2301,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.02637028348681134</v>
+        <v>-0.01279022716090865</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2318,7 +2309,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.004163181094527244</v>
+        <v>0.001812199248796995</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2326,7 +2317,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>-0.002724431724977269</v>
+        <v>-0.02684189936759747</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2334,7 +2325,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>-0.0126063575282543</v>
+        <v>-0.007986559946239783</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2342,7 +2333,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-0.01659496213579848</v>
+        <v>0.02063998655994624</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2350,7 +2341,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.008209633192385326</v>
+        <v>0.01547852591410365</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2358,7 +2349,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.01343765170550607</v>
+        <v>0.04637740150960604</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2366,7 +2357,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.0004000009120000364</v>
+        <v>-0.02798507194028776</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2374,7 +2365,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.007704008852160353</v>
+        <v>-0.01186007944031776</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2382,7 +2373,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.02663092858523714</v>
+        <v>-0.0452185808743235</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2390,7 +2381,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-0.0004751166910046676</v>
+        <v>0.004281329125316501</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2398,7 +2389,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-0.001317862132714485</v>
+        <v>-0.07794751179004715</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2406,7 +2397,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>-0.003990676287627051</v>
+        <v>0.01972203088812355</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2414,7 +2405,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>-0.004620230104809203</v>
+        <v>0.005081204324817299</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2422,7 +2413,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.01925983459439338</v>
+        <v>0.01471570686282745</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2430,7 +2421,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>-0.002301923708076948</v>
+        <v>0.04627852111408445</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2438,7 +2429,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-0.005603723552148942</v>
+        <v>0.07598468793875177</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2446,7 +2437,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.02435028462201138</v>
+        <v>-0.0174064056256225</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2454,7 +2445,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.0113622326144893</v>
+        <v>-0.00816752067008268</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2462,7 +2453,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>-0.009662472002498878</v>
+        <v>-0.02489529958119832</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2470,7 +2461,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-0.0008061210562448421</v>
+        <v>-0.004318193272773091</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2478,7 +2469,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.01014701627788065</v>
+        <v>0.0175815103260413</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2486,7 +2477,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-0.01404379044975162</v>
+        <v>0.01179854319417277</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2494,7 +2485,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.005439687385587495</v>
+        <v>0.01397554390217561</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2502,7 +2493,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-0.003974596958983878</v>
+        <v>-0.007943647774591098</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2510,7 +2501,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.009826187241047489</v>
+        <v>0.005742646970587882</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2518,7 +2509,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>-0.0108478850419154</v>
+        <v>-0.02361724646898587</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2526,7 +2517,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.01774071517362861</v>
+        <v>0.03227417709670839</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2534,7 +2525,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.0004408961456358458</v>
+        <v>0.03764549458197833</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2542,7 +2533,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.01769446736377869</v>
+        <v>0.02263919455677823</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2550,7 +2541,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.00188931674757267</v>
+        <v>-0.03843826575306301</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2558,7 +2549,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>-0.02274787905391516</v>
+        <v>0.01685440341761367</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2566,7 +2557,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-0.002600975624039025</v>
+        <v>-0.04552021408085632</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2574,7 +2565,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.00674580228583209</v>
+        <v>0.02439014556058224</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2582,7 +2573,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0.001084354603374184</v>
+        <v>-0.02735876543506174</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2590,7 +2581,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.004542376597695063</v>
+        <v>-0.04467992271969088</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2598,7 +2589,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.004929271973170879</v>
+        <v>-0.06233640934563738</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2606,7 +2597,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.004576678647067145</v>
+        <v>0.01031005724022896</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2614,7 +2605,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.01538287424731497</v>
+        <v>0.01729773319093277</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2622,7 +2613,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-0.003870524410820976</v>
+        <v>0.0667567470269881</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2630,7 +2621,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-0.01327426469097059</v>
+        <v>-0.01988014352057408</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2638,7 +2629,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-0.0002161315286452611</v>
+        <v>-0.02281285925143701</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2646,7 +2637,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.006811551728462068</v>
+        <v>0.09405724022896091</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2654,7 +2645,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-0.02201261992050479</v>
+        <v>0.06027470509882039</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2662,7 +2653,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.02096963075878523</v>
+        <v>-0.01935434941739767</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2670,7 +2661,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.005001674408066976</v>
+        <v>-0.04646341785367141</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2678,7 +2669,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.01708664113146564</v>
+        <v>-0.06830427321709287</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2686,7 +2677,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-0.01048385523535421</v>
+        <v>0.02367321469285877</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2694,7 +2685,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-0.03455361143014445</v>
+        <v>-0.005804087216348864</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2702,7 +2693,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.06956374118254963</v>
+        <v>-0.1905338821355285</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2710,7 +2701,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.004264455434578217</v>
+        <v>0.06307378829515317</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2718,7 +2709,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.02729421238776849</v>
+        <v>-0.03757042228168912</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2726,7 +2717,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.002793142383725696</v>
+        <v>0.008218496873987494</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2734,7 +2725,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-0.001947418829896753</v>
+        <v>-0.0871002844011376</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2742,7 +2733,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>-0.01254496782979871</v>
+        <v>0.4460798003192012</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2750,7 +2741,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>-0.009851410186056406</v>
+        <v>0.05239710558842236</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2758,7 +2749,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-0.0006264990970599638</v>
+        <v>-0.0395316141264565</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2766,7 +2757,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.02153313100532524</v>
+        <v>0.03916441265765063</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2774,7 +2765,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.0001593287103731484</v>
+        <v>0.01671549086196344</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2782,7 +2773,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.1981960367598415</v>
+        <v>0.2899546638186553</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2790,7 +2781,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-0.01075534622221385</v>
+        <v>-0.01983454333817335</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2798,7 +2789,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>-0.01051196125247845</v>
+        <v>-0.06097195588782355</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2806,7 +2797,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.02062310828092433</v>
+        <v>0.004450577802311209</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2814,7 +2805,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.02709319711572788</v>
+        <v>0.02091339565358261</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2822,7 +2813,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.005672303554892141</v>
+        <v>0.02809777639110556</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2830,7 +2821,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.3775555214702209</v>
+        <v>-0.01035757743030972</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2838,7 +2829,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-0.02910119060404762</v>
+        <v>-0.1867272749090996</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2846,7 +2837,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.02633112393324495</v>
+        <v>0.009874599498397993</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2854,7 +2845,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.02673839742153589</v>
+        <v>-0.04262801051204205</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2862,7 +2853,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>-0.1117285738131429</v>
+        <v>-0.00449569798279193</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2870,7 +2861,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.01042016345680654</v>
+        <v>-0.03152403009612038</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2878,7 +2869,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-0.01067415057096602</v>
+        <v>-0.4634449257797031</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2886,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.00974269699770788</v>
+        <v>0.04514744458977836</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2894,7 +2885,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>-0.04243293894531755</v>
+        <v>0.06077246708986835</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2902,7 +2893,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-0.5025160196526407</v>
+        <v>0.01923434893739575</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2910,31 +2901,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.1100591971063679</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B231">
-        <v>0.0253706824868273</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B232">
-        <v>0.003153743166149726</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B233">
-        <v>0.002706062124242485</v>
+        <v>-0.02165778263113052</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -37,6 +37,126 @@
     <t>Molecular sieve column electricity rate (hr·kW/kg) [0.00599, 0.00666, 0.00732]</t>
   </si>
   <si>
+    <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) electricity rate (hr·kW/kg) [0.0295, 0.0328, 0.0361]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter electricity rate (hr·kW/kg) [0.00317, 0.00352, 0.00387]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump electricity rate (hr·kW/kg) [0.00316, 0.00352, 0.00387]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+  </si>
+  <si>
+    <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor electricity rate (hr·kW/kg) [0.000234, 0.00026, 0.000287]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw electricity rate (hr·kW/kg) [0.000352, 0.000391, 0.00043]</t>
+  </si>
+  <si>
+    <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+  </si>
+  <si>
+    <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
+  </si>
+  <si>
+    <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
+  </si>
+  <si>
+    <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator electricity rate (hr·kW/kg) [0.000158, 0.000176, 0.000193]</t>
+  </si>
+  <si>
+    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+  </si>
+  <si>
+    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
     <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
   </si>
   <si>
@@ -61,124 +181,19 @@
     <t>Seed hold tank agitator electricity rate (hr·kW/kg) [0.000252, 0.00028, 0.000308]</t>
   </si>
   <si>
-    <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) electricity rate (hr·kW/kg) [0.0295, 0.0328, 0.0361]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter electricity rate (hr·kW/kg) [0.00317, 0.00352, 0.00387]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump electricity rate (hr·kW/kg) [0.00316, 0.00352, 0.00387]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
-  </si>
-  <si>
-    <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor electricity rate (hr·kW/kg) [0.000234, 0.00026, 0.000287]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw electricity rate (hr·kW/kg) [0.000352, 0.000391, 0.00043]</t>
-  </si>
-  <si>
-    <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
-  </si>
-  <si>
-    <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
-  </si>
-  <si>
-    <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
-  </si>
-  <si>
-    <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator electricity rate (hr·kW/kg) [0.000158, 0.000176, 0.000193]</t>
-  </si>
-  <si>
-    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
-  </si>
-  <si>
-    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump electricity rate (hr·kW/kg) [0.0102, 0.0113, 0.0124]</t>
   </si>
   <si>
     <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
@@ -205,21 +220,6 @@
     <t>CSLTank agitator electricity rate (hr·kW/kg) [0.00482, 0.00535, 0.00589]</t>
   </si>
   <si>
-    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
-  </si>
-  <si>
-    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump electricity rate (hr·kW/kg) [0.0102, 0.0113, 0.0124]</t>
-  </si>
-  <si>
     <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
   </si>
   <si>
@@ -235,6 +235,15 @@
     <t>Ammonia addition tank agitator electricity rate (hr·kW/kg) [1.64e-05, 1.82e-05, 2e-05]</t>
   </si>
   <si>
+    <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Chilled water package electricity rate (hr·kW/kJ) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+  </si>
+  <si>
     <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
   </si>
   <si>
@@ -265,6 +274,294 @@
     <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
   </si>
   <si>
+    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
+  </si>
+  <si>
+    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00258, 0.00287, 0.00315]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump electricity rate (hr·kW/kg) [0.000242, 0.000269, 0.000296]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump electricity rate (hr·kW/kg) [0.000287, 0.000319, 0.000351]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system electricity rate (hr·kW/kg) [0.0156, 0.0173, 0.019]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+  </si>
+  <si>
+    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
+  </si>
+  <si>
+    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+  </si>
+  <si>
+    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.7e-05, 0.000108, 0.000119]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system electricity rate (hr·kW/kg) [0.00744, 0.00827, 0.0091]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump electricity rate (hr·kW/kg) [0.00019, 0.000212, 0.000233]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator electricity rate (hr·kW/kg) [0.000579, 0.000644, 0.000708]</t>
+  </si>
+  <si>
+    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+  </si>
+  <si>
+    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+  </si>
+  <si>
     <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
   </si>
   <si>
@@ -274,168 +571,6 @@
     <t>Pretreatment reactor system electricity rate (hr·kW/kg) [0.0494, 0.0549, 0.0604]</t>
   </si>
   <si>
-    <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Chilled water package electricity rate (hr·kW/kJ) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump electricity rate (hr·kW/kg) [0.000242, 0.000269, 0.000296]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00258, 0.00287, 0.00315]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
-  </si>
-  <si>
-    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system electricity rate (hr·kW/kg) [0.0156, 0.0173, 0.019]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump electricity rate (hr·kW/kg) [0.000287, 0.000319, 0.000351]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
     <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
   </si>
   <si>
@@ -481,141 +616,6 @@
     <t>Saccharification and co fermentation recirculation pumps electricity rate (hr·kW/m3) [0.35, 0.388, 0.427]</t>
   </si>
   <si>
-    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
-  </si>
-  <si>
-    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump electricity rate (hr·kW/kg) [0.00019, 0.000212, 0.000233]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator electricity rate (hr·kW/kg) [0.000579, 0.000644, 0.000708]</t>
-  </si>
-  <si>
-    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
-  </si>
-  <si>
-    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.7e-05, 0.000108, 0.000119]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
-  </si>
-  <si>
-    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
-  </si>
-  <si>
-    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
-  </si>
-  <si>
-    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Feed stock handling system electricity rate (hr·kW/kg) [0.00744, 0.00827, 0.0091]</t>
-  </si>
-  <si>
     <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
   </si>
   <si>
@@ -640,6 +640,12 @@
     <t>Pretreatment flash agitator electricity rate (hr·kW/kg) [0.000605, 0.000672, 0.000739]</t>
   </si>
   <si>
+    <t>Stream-cellulase price (USD/kg) [0.456, 0.507, 0.558]</t>
+  </si>
+  <si>
+    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+  </si>
+  <si>
     <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
   </si>
   <si>
@@ -661,19 +667,13 @@
     <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
   </si>
   <si>
-    <t>Stream-cellulase price (USD/kg) [0.456, 0.507, 0.558]</t>
-  </si>
-  <si>
-    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+    <t>Stream-ethanol price (USD/kg) [0.602, 0.669, 0.736]</t>
+  </si>
+  <si>
+    <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
   </si>
   <si>
     <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
-  </si>
-  <si>
-    <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
-  </si>
-  <si>
-    <t>Stream-ethanol price (USD/kg) [0.609, 0.676, 0.744]</t>
   </si>
   <si>
     <t>Electricity price (USD/kWhr) [0.0515, 0.0572, 0.0629]</t>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.5205962583850335</v>
+        <v>-0.4918604634418537</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.2414136056544226</v>
+        <v>-0.2995159180636722</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.1275479341917367</v>
+        <v>-0.1234492937971752</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.02283465133860535</v>
+        <v>0.007478237912951653</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.007804159216636865</v>
+        <v>0.01963822255289021</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.04617762471049884</v>
+        <v>0.002957195828783315</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.008619682478729913</v>
+        <v>0.009031428125712502</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.02561703046812187</v>
+        <v>0.03254557018228073</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.05507129228516914</v>
+        <v>-0.009829383317533269</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.006034776139104556</v>
+        <v>-0.010437641750567</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.02464550658202632</v>
+        <v>-0.04678482713930855</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.0406686426745707</v>
+        <v>0.02582083928335713</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.03743390973563894</v>
+        <v>-0.005314101256405025</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.004277873111492446</v>
+        <v>0.03287331549326197</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.05119383677534711</v>
+        <v>0.03108924435697743</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.02376307105228421</v>
+        <v>-0.03611553646214585</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.02113707654830619</v>
+        <v>-0.02167544670178681</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.03958921435685742</v>
+        <v>0.01611203244812979</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.1008797955191821</v>
+        <v>-0.04309466837867351</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.001415141660566642</v>
+        <v>-0.005099732398929595</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.08190925563702255</v>
+        <v>0.003801807207228828</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.01439247356989428</v>
+        <v>-0.08674229896919586</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.04041942567770271</v>
+        <v>0.02475331501326005</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1261,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.08758057432229729</v>
+        <v>-0.007801567206268824</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1269,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.0393443173772695</v>
+        <v>-0.03938271753087012</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1277,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.01686313945255781</v>
+        <v>-0.04204231216924868</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1285,7 +1285,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.001639206556826227</v>
+        <v>0.008561698246792987</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1293,7 +1293,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.05093578774315097</v>
+        <v>-0.01733834135336541</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1301,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.06307945231780927</v>
+        <v>0.04312250849003396</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1309,7 +1309,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.01342843771375085</v>
+        <v>0.07865138660554641</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1317,7 +1317,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.01648844995379982</v>
+        <v>-0.04405563222252889</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1325,7 +1325,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.01449461797847191</v>
+        <v>-0.006518906075624303</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1333,7 +1333,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.03461370645482582</v>
+        <v>0.02893883575534302</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1341,7 +1341,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.06763966255865024</v>
+        <v>0.03253549014196057</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1349,7 +1349,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.01189175956703827</v>
+        <v>-0.01575894303577214</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1357,7 +1357,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.06194299977199909</v>
+        <v>-0.03571175884703539</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1365,7 +1365,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.006299929199716799</v>
+        <v>-0.008276769107076427</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1373,7 +1373,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.01834423337693351</v>
+        <v>-0.03113945255781023</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1381,7 +1381,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.008938019752079007</v>
+        <v>-0.008347329389317556</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1389,7 +1389,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.01376741506966028</v>
+        <v>-0.03561479845919383</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1397,7 +1397,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.02674436297745191</v>
+        <v>-0.04944326977307909</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1405,7 +1405,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.08945114180456722</v>
+        <v>0.02217071268285073</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1413,7 +1413,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.001816423265693063</v>
+        <v>-0.02432678530714123</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.03680136320545282</v>
+        <v>-0.00962883851535406</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1429,7 +1429,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.01059575438301753</v>
+        <v>-0.03160879843519374</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1437,7 +1437,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.0067062988251953</v>
+        <v>0.00763068652274609</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1445,7 +1445,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.05255992223968895</v>
+        <v>5.500822003288013e-05</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1453,7 +1453,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.002662186648746595</v>
+        <v>-0.03731074124296497</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1461,7 +1461,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.01874887499549998</v>
+        <v>-0.05924500498001991</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1469,7 +1469,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.1123453133812535</v>
+        <v>0.00449569798279193</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1477,7 +1477,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.002002376009504038</v>
+        <v>-0.03788059952239808</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1485,7 +1485,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.06684621938487753</v>
+        <v>0.0626691466765867</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1493,7 +1493,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.01374178296713187</v>
+        <v>0.001295813183252733</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1501,7 +1501,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.06433667334669338</v>
+        <v>0.007852927411709646</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1509,7 +1509,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.02077371509486038</v>
+        <v>0.007690110760443042</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1517,7 +1517,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.0603570734282937</v>
+        <v>-0.0237815031260125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1525,7 +1525,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.0629324757299029</v>
+        <v>0.005056532226128905</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1533,7 +1533,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.03046408985635942</v>
+        <v>-0.04306836427345709</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.02658893835575343</v>
+        <v>0.01084938739754959</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.03209888039552158</v>
+        <v>0.05144103776415105</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.02276831507326029</v>
+        <v>0.05773031092124369</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.02092462769851079</v>
+        <v>-0.04658495433981736</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.0559883839535358</v>
+        <v>0.01070183480733923</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.04501803607214429</v>
+        <v>0.02075422701690807</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.02574951099804399</v>
+        <v>-0.0369564038256153</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1597,7 +1597,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.03423968895875584</v>
+        <v>0.03399603998415993</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1605,7 +1605,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.02780238320953284</v>
+        <v>0.007054780219120877</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1613,7 +1613,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.1126726746906987</v>
+        <v>0.03119609278437114</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1621,7 +1621,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-0.06165519062076247</v>
+        <v>0.06617968871875488</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1629,7 +1629,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.02800571202284809</v>
+        <v>-0.02051633806535226</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1637,7 +1637,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.03993999975999904</v>
+        <v>0.02165586262345049</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1645,7 +1645,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.01608083232332929</v>
+        <v>0.02678545114180456</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1653,7 +1653,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.04590882363529454</v>
+        <v>0.05680438721754887</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1661,7 +1661,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.02388940755763023</v>
+        <v>-0.1102137208548834</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1669,7 +1669,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.0006114264457057827</v>
+        <v>0.001380293521174085</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.09499785199140796</v>
+        <v>-0.0521936807747231</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1685,7 +1685,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.1181356725426902</v>
+        <v>0.005430837723350894</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1693,7 +1693,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.07202592010368042</v>
+        <v>0.0143626174504698</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1701,7 +1701,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.04261082644330577</v>
+        <v>-0.02961007044028176</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1709,7 +1709,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.03745531782127128</v>
+        <v>-0.03066348265393062</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1717,7 +1717,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.08698220392881571</v>
+        <v>0.03191974367897471</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1725,7 +1725,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.06313887655550621</v>
+        <v>-0.0039000156000624</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1733,7 +1733,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.01241208164832659</v>
+        <v>-0.05465551462205848</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1741,7 +1741,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.04809868839475358</v>
+        <v>0.02875931503726015</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1749,7 +1749,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.01524793299173196</v>
+        <v>-0.02074453097812391</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1757,7 +1757,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.03335600542402169</v>
+        <v>0.0004059856239424957</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1765,7 +1765,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.02018820875283501</v>
+        <v>0.02639463357853431</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1773,7 +1773,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-0.05267886671546686</v>
+        <v>0.0006435865743462973</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1781,7 +1781,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.04273159492637971</v>
+        <v>-0.02168245472981892</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1789,7 +1789,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.03640084960339841</v>
+        <v>-0.03791851967407869</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1797,7 +1797,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.04756022224088896</v>
+        <v>-0.009945831783327133</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1805,7 +1805,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.02010699242796971</v>
+        <v>-0.01527778911115644</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1813,7 +1813,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.0008160992643970576</v>
+        <v>0.07404135216540866</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1821,7 +1821,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.0186189864759459</v>
+        <v>0.003619598478393913</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.02235714542858171</v>
+        <v>0.01750106200424801</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.01470313081252325</v>
+        <v>-0.01024679298717195</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1845,7 +1845,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.01330152520610082</v>
+        <v>-0.0539564398257593</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1853,7 +1853,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.01734198936795747</v>
+        <v>0.0516375505502022</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1861,7 +1861,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.03235856143424573</v>
+        <v>0.01755530222120889</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1869,7 +1869,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.03212614450457801</v>
+        <v>-0.02732679730718923</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.07044325777303109</v>
+        <v>0.01149959799839199</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-0.001629510518042072</v>
+        <v>-0.02372332689330757</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.01266945867783471</v>
+        <v>0.03418506474025896</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-0.02176376705506822</v>
+        <v>-0.0284747698990796</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1909,7 +1909,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.05335163740654963</v>
+        <v>0.02161391045564182</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.02969455077820311</v>
+        <v>0.03334899739598958</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1925,7 +1925,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.05695385981543927</v>
+        <v>0.008844323377293508</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1933,7 +1933,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.01183070332281329</v>
+        <v>0.01368303073212293</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.02748922995691983</v>
+        <v>-0.05805546422185688</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.02620138480553922</v>
+        <v>-0.004147312589250357</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.101125748502994</v>
+        <v>0.07187577550310202</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.05755770223080892</v>
+        <v>-0.002523178092712371</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1973,7 +1973,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.05645571382285528</v>
+        <v>-0.02288850755403022</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.08077414709658838</v>
+        <v>0.03852649010596042</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1989,7 +1989,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.07677045108180432</v>
+        <v>0.07581524726098904</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.04780147120588482</v>
+        <v>-0.005253525014100056</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-0.04739423757695031</v>
+        <v>-0.05623030492121969</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.08615602462409848</v>
+        <v>-0.02351443005772023</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.07201564806259225</v>
+        <v>-0.01681293125172501</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-0.001529190116760467</v>
+        <v>-0.002020712082848331</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.01172241488965956</v>
+        <v>0.0356627986511946</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.003980175920703682</v>
+        <v>-0.02058421033684135</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.1173218772875091</v>
+        <v>0.004061968247872991</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.02126302905211621</v>
+        <v>0.1571055884223537</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.06173851895407582</v>
+        <v>-0.006482233928935715</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-0.001701702806811227</v>
+        <v>-0.003067404269617078</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.05769527078108313</v>
+        <v>0.0001530246120984484</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2093,7 +2093,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.04541038964155857</v>
+        <v>-0.06388355153420613</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.0710447961791847</v>
+        <v>0.04610706442825771</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.03123871695486782</v>
+        <v>-0.007304477217908872</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-0.00906819627278509</v>
+        <v>-0.035562382249529</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.004507698030792122</v>
+        <v>-0.05226760107040428</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.003698510794043176</v>
+        <v>0.06463523454093816</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>-0.03410269641078564</v>
+        <v>0.01313237252949012</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2149,7 +2149,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-0.003692942771771087</v>
+        <v>0.06813934455737823</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-0.01565699062796251</v>
+        <v>-0.07575553502214008</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.01880858723434894</v>
+        <v>-0.0255190140760563</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>-0.04242938571754287</v>
+        <v>0.0220560882243529</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.06467507470029879</v>
+        <v>0.03421520886083544</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.04264452257809032</v>
+        <v>-0.09344331777327108</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.01041642566570266</v>
+        <v>-0.06958626234504939</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.07722261289045157</v>
+        <v>-0.02680849123396494</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.06382009528038111</v>
+        <v>0.008212256849027395</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.03342944571778287</v>
+        <v>0.06171941487765951</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.03108338833355333</v>
+        <v>0.03824271297085188</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.007622910491641966</v>
+        <v>0.0872754851019404</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-0.01548025392101568</v>
+        <v>0.0256751107004428</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.0009579878319513277</v>
+        <v>-0.02901419605678423</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.05154788619154477</v>
+        <v>-0.01569865479461918</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>-0.0708997395989584</v>
+        <v>-0.0129063876255505</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.02875979503918016</v>
+        <v>0.02142670970683883</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.04425128100512402</v>
+        <v>0.02177480709922839</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.05489503558014232</v>
+        <v>0.0281750567002268</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-0.0002256969027876112</v>
+        <v>-0.0730569642278569</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.04302890811563246</v>
+        <v>0.08334062136248545</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>-0.01223707294829179</v>
+        <v>0.04775510302041208</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.006282169128676515</v>
+        <v>0.01365979863919455</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.04354231816927268</v>
+        <v>-0.1179671918687675</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-0.02121435685742743</v>
+        <v>0.02896225984903939</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.0231001884007536</v>
+        <v>0.02132408529634118</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.02835812943251773</v>
+        <v>0.008796611186444746</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.02931755727022908</v>
+        <v>0.04495553982215929</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.04901808407233629</v>
+        <v>-0.02406480025920104</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-0.03046188184752739</v>
+        <v>0.003903183612734451</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.02155314221256885</v>
+        <v>-0.07349808599234398</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.0005727382909531637</v>
+        <v>0.02157954231816927</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>-0.08684914739658958</v>
+        <v>0.07316938067752271</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-0.02916328465313861</v>
+        <v>-0.01581366325465302</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>-0.02813828855315421</v>
+        <v>0.03161897447589791</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-0.02437440149760599</v>
+        <v>-0.04760323041292164</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>-0.05978404713618853</v>
+        <v>-0.05115198060792243</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>-0.02032558530234121</v>
+        <v>0.01689942759771039</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>-0.1045505622022488</v>
+        <v>-0.04705353221412886</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-0.01249291397165589</v>
+        <v>-0.03848453793815175</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.001315685262741051</v>
+        <v>0.04041779367117469</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-0.0005167700670802684</v>
+        <v>-0.03296297985191941</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-0.04278343513374053</v>
+        <v>-0.01455250621002484</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.03105305221220885</v>
+        <v>0.02751217404869619</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.0329060516242065</v>
+        <v>0.01242811371245485</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>-0.1043861135444542</v>
+        <v>0.08895049980199921</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.03702082008328033</v>
+        <v>0.07067433069732278</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.06346143784575137</v>
+        <v>0.06243567374269497</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-0.01505084420337681</v>
+        <v>0.02490269161076645</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-0.06071112284449138</v>
+        <v>0.01711485245940984</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>-0.002521354085416341</v>
+        <v>0.1060815763263053</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-0.02541994167976672</v>
+        <v>-0.03185811143244573</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.05984731138924555</v>
+        <v>0.03535070140280561</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0.06440204960819843</v>
+        <v>-0.01757162228648914</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.005410485641942567</v>
+        <v>-0.02083371533486134</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-0.006583322333289333</v>
+        <v>-0.06052065808263233</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.04201696806787227</v>
+        <v>0.009821319285277141</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.06119688478753915</v>
+        <v>0.02534554138216552</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-0.02207960831843327</v>
+        <v>0.03036280945123781</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.02123077292309169</v>
+        <v>-0.02028564914259657</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.02633808935235741</v>
+        <v>0.06809854439417758</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>-0.04635810543242173</v>
+        <v>0.08301940407761631</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-0.01602880011520046</v>
+        <v>0.0007041628166512665</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.04082992331969328</v>
+        <v>0.05047210588842355</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.05194791979167916</v>
+        <v>0.02241752967011868</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.01167278269113076</v>
+        <v>-0.07241558566234266</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-0.02843963375853503</v>
+        <v>0.05680813123252493</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-0.005260149040596162</v>
+        <v>0.07634651338605354</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.008897123588494354</v>
+        <v>-0.03847551390205561</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-0.02636074544298177</v>
+        <v>-0.0938379753519014</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.05034634538538153</v>
+        <v>0.09463813855255421</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.0001002244008976036</v>
+        <v>0.00789814359257437</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-0.02668513074052296</v>
+        <v>0.005872055488221952</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.0931128844515378</v>
+        <v>0.2521805287221149</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.04767436669746679</v>
+        <v>0.006709466837867351</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.4308611474445898</v>
+        <v>0.000699746798987196</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>-0.0272316609266437</v>
+        <v>-0.1003962415849663</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.03769195876783506</v>
+        <v>0.4414363577454309</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.001583814335257341</v>
+        <v>0.003389293557174228</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.02919621278485114</v>
+        <v>0.02264677858711435</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.2290127560510242</v>
+        <v>0.05666307465229861</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>-0.02146357385429542</v>
+        <v>0.02685073140292561</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.01791808767235069</v>
+        <v>-0.03530807723230893</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>-0.03898661994647978</v>
+        <v>-0.03620318481273925</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.043812079248317</v>
+        <v>-0.01896967587870351</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-0.1328953475813903</v>
+        <v>-0.09558479833919335</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.0485691862767451</v>
+        <v>-0.02989077556310225</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.006953307813231252</v>
+        <v>0.0003856335425341701</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.002887595550382201</v>
+        <v>0.02982443929775719</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.05181323125292501</v>
+        <v>-0.02077189108756435</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-0.4685047220188881</v>
+        <v>-0.5315030540122161</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.1002547370189481</v>
+        <v>0.08846502586010344</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>-0.05812352849411398</v>
+        <v>0.02163906255625022</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.05796781587126348</v>
+        <v>0.08591794367177469</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>-0.05497317989271956</v>
+        <v>0.051500174000696</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -28,6 +28,339 @@
     <t>Saccharification and co fermentation-R301 ethanol conversion [0.9, 0.95, 1]</t>
   </si>
   <si>
+    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system electricity rate (hr·kW/kg) [0.0156, 0.0173, 0.019]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+  </si>
+  <si>
+    <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>CSLTank pump electricity rate (hr·kW/kg) [0.000241, 0.000268, 0.000294]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator electricity rate (hr·kW/kg) [0.00482, 0.00535, 0.00589]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system electricity rate (hr·kW/kg) [0.00744, 0.00827, 0.0091]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump electricity rate (hr·kW/kg) [0.000287, 0.000319, 0.000351]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+  </si>
+  <si>
+    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+  </si>
+  <si>
+    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.7e-05, 0.000108, 0.000119]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
+  </si>
+  <si>
+    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+  </si>
+  <si>
+    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps electricity rate (hr·kW/m3) [0.653, 0.725, 0.798]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators electricity rate (kW/m3) [0.0214, 0.0238, 0.0262]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps electricity rate (hr·kW/m3) [0.35, 0.388, 0.427]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump electricity rate (hr·kW/kg) [0.0102, 0.0113, 0.0124]</t>
+  </si>
+  <si>
+    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+  </si>
+  <si>
+    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump electricity rate (hr·kW/kg) [0.000156, 0.000173, 0.00019]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator electricity rate (hr·kW/kg) [0.000252, 0.00028, 0.000308]</t>
+  </si>
+  <si>
     <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
   </si>
   <si>
@@ -151,73 +484,28 @@
     <t>Pressure filter flitrate tank agitator electricity rate (hr·kW/kg) [0.000158, 0.000176, 0.000193]</t>
   </si>
   <si>
-    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
-  </si>
-  <si>
-    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump electricity rate (hr·kW/kg) [0.000156, 0.000173, 0.00019]</t>
-  </si>
-  <si>
-    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
-  </si>
-  <si>
-    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator electricity rate (hr·kW/kg) [0.000252, 0.00028, 0.000308]</t>
-  </si>
-  <si>
-    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
-  </si>
-  <si>
-    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump electricity rate (hr·kW/kg) [0.0102, 0.0113, 0.0124]</t>
-  </si>
-  <si>
-    <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
-  </si>
-  <si>
-    <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
-  </si>
-  <si>
-    <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>CSLTank pump electricity rate (hr·kW/kg) [0.000241, 0.000268, 0.000294]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator electricity rate (hr·kW/kg) [0.00482, 0.00535, 0.00589]</t>
+    <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump electricity rate (hr·kW/kg) [0.00019, 0.000212, 0.000233]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator electricity rate (hr·kW/kg) [0.000579, 0.000644, 0.000708]</t>
   </si>
   <si>
     <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
@@ -235,6 +523,114 @@
     <t>Ammonia addition tank agitator electricity rate (hr·kW/kg) [1.64e-05, 1.82e-05, 2e-05]</t>
   </si>
   <si>
+    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+  </si>
+  <si>
+    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>DAPTank pump electricity rate (hr·kW/kg) [0.00208, 0.00232, 0.00255]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator electricity rate (hr·kW/kg) [0.0226, 0.0252, 0.0277]</t>
+  </si>
+  <si>
+    <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system electricity rate (hr·kW/kg) [0.0494, 0.0549, 0.0604]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump electricity rate (hr·kW/kg) [0.000199, 0.000221, 0.000243]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator electricity rate (hr·kW/kg) [0.000605, 0.000672, 0.000739]</t>
+  </si>
+  <si>
+    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump electricity rate (hr·kW/kg) [0.000242, 0.000269, 0.000296]</t>
+  </si>
+  <si>
+    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00258, 0.00287, 0.00315]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
     <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
   </si>
   <si>
@@ -244,400 +640,16 @@
     <t>Chilled water package electricity rate (hr·kW/kJ) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
   </si>
   <si>
-    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
-  </si>
-  <si>
-    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
-  </si>
-  <si>
-    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>DAPTank pump electricity rate (hr·kW/kg) [0.00208, 0.00232, 0.00255]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator electricity rate (hr·kW/kg) [0.0226, 0.0252, 0.0277]</t>
-  </si>
-  <si>
-    <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
-  </si>
-  <si>
-    <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
-  </si>
-  <si>
-    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00258, 0.00287, 0.00315]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump electricity rate (hr·kW/kg) [0.000242, 0.000269, 0.000296]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump electricity rate (hr·kW/kg) [0.000287, 0.000319, 0.000351]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
-  </si>
-  <si>
-    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system electricity rate (hr·kW/kg) [0.0156, 0.0173, 0.019]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
-  </si>
-  <si>
-    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
-  </si>
-  <si>
-    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
-  </si>
-  <si>
-    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.7e-05, 0.000108, 0.000119]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
-  </si>
-  <si>
-    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Feed stock handling system electricity rate (hr·kW/kg) [0.00744, 0.00827, 0.0091]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump electricity rate (hr·kW/kg) [0.00019, 0.000212, 0.000233]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator electricity rate (hr·kW/kg) [0.000579, 0.000644, 0.000708]</t>
-  </si>
-  <si>
-    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
-  </si>
-  <si>
-    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system electricity rate (hr·kW/kg) [0.0494, 0.0549, 0.0604]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps electricity rate (hr·kW/m3) [0.653, 0.725, 0.798]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators electricity rate (kW/m3) [0.0214, 0.0238, 0.0262]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps electricity rate (hr·kW/m3) [0.35, 0.388, 0.427]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump electricity rate (hr·kW/kg) [0.000199, 0.000221, 0.000243]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator electricity rate (hr·kW/kg) [0.000605, 0.000672, 0.000739]</t>
+    <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
+  </si>
+  <si>
+    <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+  </si>
+  <si>
+    <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
+  </si>
+  <si>
+    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
   </si>
   <si>
     <t>Stream-cellulase price (USD/kg) [0.456, 0.507, 0.558]</t>
@@ -655,25 +667,13 @@
     <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
   </si>
   <si>
-    <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
-  </si>
-  <si>
-    <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
-  </si>
-  <si>
-    <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
-  </si>
-  <si>
-    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
-  </si>
-  <si>
-    <t>Stream-ethanol price (USD/kg) [0.602, 0.669, 0.736]</t>
+    <t>Stream-ethanol price (USD/kg) [0.598, 0.664, 0.731]</t>
+  </si>
+  <si>
+    <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
   </si>
   <si>
     <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
-  </si>
-  <si>
-    <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
   </si>
   <si>
     <t>Electricity price (USD/kWhr) [0.0515, 0.0572, 0.0629]</t>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.4918604634418537</v>
+        <v>-0.5242101682101683</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.2995159180636722</v>
+        <v>-0.2580848940848941</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.1234492937971752</v>
+        <v>-0.0693939333939334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.007478237912951653</v>
+        <v>0.1288976368976369</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.01963822255289021</v>
+        <v>-0.01098646698646699</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.002957195828783315</v>
+        <v>0.05169345969345969</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.009031428125712502</v>
+        <v>-0.04310819510819511</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.03254557018228073</v>
+        <v>-0.02690744690744691</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.009829383317533269</v>
+        <v>-0.01631892431892432</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.010437641750567</v>
+        <v>-0.03263514863514864</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.04678482713930855</v>
+        <v>0.004838272838272839</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.02582083928335713</v>
+        <v>-0.01108006708006708</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.005314101256405025</v>
+        <v>0.003343431343431344</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.03287331549326197</v>
+        <v>0.02043593643593644</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.03108924435697743</v>
+        <v>0.06718372318372319</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.03611553646214585</v>
+        <v>0.04188806988806989</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.02167544670178681</v>
+        <v>-0.04053643653643654</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.01611203244812979</v>
+        <v>-0.017996153996154</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.04309466837867351</v>
+        <v>0.02310771510771511</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.005099732398929595</v>
+        <v>-0.001281181281181281</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.003801807207228828</v>
+        <v>-0.03851912651912652</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.08674229896919586</v>
+        <v>0.003284343284343284</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.02475331501326005</v>
+        <v>-0.03951495951495951</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1261,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.007801567206268824</v>
+        <v>-0.0346914706914707</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1269,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.03938271753087012</v>
+        <v>-0.005894993894993895</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1277,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.04204231216924868</v>
+        <v>-0.008532488532488534</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1285,7 +1285,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.008561698246792987</v>
+        <v>-0.002987714987714988</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1293,7 +1293,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.01733834135336541</v>
+        <v>0.1224430344430344</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1301,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.04312250849003396</v>
+        <v>-0.04414702414702415</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1309,7 +1309,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.07865138660554641</v>
+        <v>0.0198051198051198</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1317,7 +1317,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.04405563222252889</v>
+        <v>0.007341547341547342</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1325,7 +1325,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.006518906075624303</v>
+        <v>0.006849474849474849</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1333,7 +1333,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.02893883575534302</v>
+        <v>-0.002218106218106218</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1341,7 +1341,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.03253549014196057</v>
+        <v>0.03533120333120333</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1349,7 +1349,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.01575894303577214</v>
+        <v>0.00587002187002187</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1357,7 +1357,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.03571175884703539</v>
+        <v>0.003495543495543496</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1365,7 +1365,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.008276769107076427</v>
+        <v>0.01524026724026724</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1373,7 +1373,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.03113945255781023</v>
+        <v>0.09722449322449322</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1381,7 +1381,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.008347329389317556</v>
+        <v>-0.00664002664002664</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1389,7 +1389,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.03561479845919383</v>
+        <v>-0.00154971754971755</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1397,7 +1397,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.04944326977307909</v>
+        <v>-0.0221968301968302</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1405,7 +1405,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.02217071268285073</v>
+        <v>0.02384098784098784</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1413,7 +1413,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.02432678530714123</v>
+        <v>-0.01575087975087975</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.00962883851535406</v>
+        <v>0.0517947877947878</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1429,7 +1429,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.03160879843519374</v>
+        <v>-0.005615969615969617</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1437,7 +1437,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.00763068652274609</v>
+        <v>-0.07454844254844255</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1445,7 +1445,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>5.500822003288013e-05</v>
+        <v>-0.01406082206082206</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1453,7 +1453,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.03731074124296497</v>
+        <v>-0.03410729810729811</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1461,7 +1461,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.05924500498001991</v>
+        <v>0.03796177396177396</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1469,7 +1469,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.00449569798279193</v>
+        <v>0.03144772344772345</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1477,7 +1477,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.03788059952239808</v>
+        <v>-0.003836331836331837</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1485,7 +1485,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.0626691466765867</v>
+        <v>0.05638402438402439</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1493,7 +1493,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.001295813183252733</v>
+        <v>-0.022995058995059</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1501,7 +1501,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.007852927411709646</v>
+        <v>-0.04923012123012124</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1509,7 +1509,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.007690110760443042</v>
+        <v>-0.01022776622776623</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1517,7 +1517,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.0237815031260125</v>
+        <v>0.007116655116655116</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1525,7 +1525,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.005056532226128905</v>
+        <v>0.08418886818886819</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1533,7 +1533,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.04306836427345709</v>
+        <v>-0.009912549912549914</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.01084938739754959</v>
+        <v>0.01339327339327339</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.05144103776415105</v>
+        <v>0.02034734034734035</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.05773031092124369</v>
+        <v>0.04191474591474591</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.04658495433981736</v>
+        <v>-0.01556825156825157</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.01070183480733923</v>
+        <v>-0.03788416988416989</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.02075422701690807</v>
+        <v>0.02342939942939943</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-0.0369564038256153</v>
+        <v>-0.02696335496335497</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1597,7 +1597,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.03399603998415993</v>
+        <v>-0.02272761472761473</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1605,7 +1605,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.007054780219120877</v>
+        <v>0.05031373431373432</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1613,7 +1613,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.03119609278437114</v>
+        <v>-0.02227726627726628</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1621,7 +1621,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.06617968871875488</v>
+        <v>0.02397596397596398</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1629,7 +1629,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.02051633806535226</v>
+        <v>-0.03581559581559582</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1637,7 +1637,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.02165586262345049</v>
+        <v>0.06437412437412438</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1645,7 +1645,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.02678545114180456</v>
+        <v>0.01364790164790165</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1653,7 +1653,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.05680438721754887</v>
+        <v>-0.02978255378255379</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1661,7 +1661,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-0.1102137208548834</v>
+        <v>-0.04393177993177994</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1669,7 +1669,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.001380293521174085</v>
+        <v>0.01824801024801025</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.0521936807747231</v>
+        <v>0.01875269475269475</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1685,7 +1685,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.005430837723350894</v>
+        <v>-0.04697629097629098</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1693,7 +1693,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.0143626174504698</v>
+        <v>-0.01790484590484591</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1701,7 +1701,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-0.02961007044028176</v>
+        <v>0.02248562248562249</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1709,7 +1709,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-0.03066348265393062</v>
+        <v>0.03408315408315409</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1717,7 +1717,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.03191974367897471</v>
+        <v>0.005885789885789886</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1725,7 +1725,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.0039000156000624</v>
+        <v>0.01230967230967231</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1733,7 +1733,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.05465551462205848</v>
+        <v>0.001168165168165168</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1741,7 +1741,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.02875931503726015</v>
+        <v>-0.01748425748425749</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1749,7 +1749,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.02074453097812391</v>
+        <v>0.02722910722910724</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1757,7 +1757,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.0004059856239424957</v>
+        <v>-0.04907205707205708</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1765,7 +1765,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.02639463357853431</v>
+        <v>-0.02716261516261517</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1773,7 +1773,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.0006435865743462973</v>
+        <v>0.05017723417723419</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1781,7 +1781,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.02168245472981892</v>
+        <v>-0.01104214704214704</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1789,7 +1789,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.03791851967407869</v>
+        <v>0.07910376710376711</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1797,7 +1797,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.009945831783327133</v>
+        <v>-0.001255045255045255</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1805,7 +1805,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.01527778911115644</v>
+        <v>0.003354147354147354</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1813,7 +1813,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.07404135216540866</v>
+        <v>0.04006025206025206</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1821,7 +1821,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.003619598478393913</v>
+        <v>0.03481246681246682</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.01750106200424801</v>
+        <v>-0.01586971586971587</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.01024679298717195</v>
+        <v>0.02073227673227673</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1845,7 +1845,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.0539564398257593</v>
+        <v>-0.01254246054246054</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1853,7 +1853,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.0516375505502022</v>
+        <v>-0.02259073059073059</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1861,7 +1861,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.01755530222120889</v>
+        <v>-0.01694202494202494</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1869,7 +1869,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.02732679730718923</v>
+        <v>0.005407853407853408</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.01149959799839199</v>
+        <v>-0.03141108741108741</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-0.02372332689330757</v>
+        <v>0.05325155325155326</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.03418506474025896</v>
+        <v>-0.004728472728472729</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-0.0284747698990796</v>
+        <v>-0.0006483126483126483</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1909,7 +1909,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.02161391045564182</v>
+        <v>0.0256996816996817</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.03334899739598958</v>
+        <v>-0.004182100182100182</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1925,7 +1925,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.008844323377293508</v>
+        <v>0.01914114714114714</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1933,7 +1933,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.01368303073212293</v>
+        <v>0.02432600432600433</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.05805546422185688</v>
+        <v>-0.006603906603906604</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.004147312589250357</v>
+        <v>-0.01116301116301116</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.07187577550310202</v>
+        <v>0.04858098058098059</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.002523178092712371</v>
+        <v>-0.01029203829203829</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1973,7 +1973,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.02288850755403022</v>
+        <v>-0.02150844950844951</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.03852649010596042</v>
+        <v>-0.0452958332958333</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1989,7 +1989,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.07581524726098904</v>
+        <v>0.001332757332757333</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.005253525014100056</v>
+        <v>-0.005629697629697629</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-0.05623030492121969</v>
+        <v>-0.02104377304377305</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.02351443005772023</v>
+        <v>0.01044206244206244</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.01681293125172501</v>
+        <v>0.01444947844947845</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-0.002020712082848331</v>
+        <v>0.0426972186972187</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.0356627986511946</v>
+        <v>0.02632508632508632</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.02058421033684135</v>
+        <v>0.002191562191562192</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.004061968247872991</v>
+        <v>0.008714624714624716</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.1571055884223537</v>
+        <v>-0.02664185064185064</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-0.006482233928935715</v>
+        <v>-0.06029959229959231</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-0.003067404269617078</v>
+        <v>-0.0396008436008436</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.0001530246120984484</v>
+        <v>-0.001551553551553552</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2093,7 +2093,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-0.06388355153420613</v>
+        <v>0.03480933480933482</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.04610706442825771</v>
+        <v>0.007686847686847687</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-0.007304477217908872</v>
+        <v>0.01967058767058767</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-0.035562382249529</v>
+        <v>0.01343860943860944</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.05226760107040428</v>
+        <v>0.009487929487929489</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.06463523454093816</v>
+        <v>0.06945420945420945</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.01313237252949012</v>
+        <v>0.02747430347430348</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2149,7 +2149,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.06813934455737823</v>
+        <v>-0.08822443622443624</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-0.07575553502214008</v>
+        <v>0.04255507855507856</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.0255190140760563</v>
+        <v>0.02075405675405675</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.0220560882243529</v>
+        <v>0.01697490497490498</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.03421520886083544</v>
+        <v>0.005355305355305356</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.09344331777327108</v>
+        <v>-0.002531642531642532</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.06958626234504939</v>
+        <v>-0.02523295323295323</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-0.02680849123396494</v>
+        <v>-0.06152940152940153</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.008212256849027395</v>
+        <v>-0.0244982404982405</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.06171941487765951</v>
+        <v>-0.008191796191796193</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.03824271297085188</v>
+        <v>-0.01993581193581194</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.0872754851019404</v>
+        <v>0.04595190995190995</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.0256751107004428</v>
+        <v>-0.006491262491262491</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>-0.02901419605678423</v>
+        <v>0.03611665211665212</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-0.01569865479461918</v>
+        <v>0.003730767730767731</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>-0.0129063876255505</v>
+        <v>0.0173021933021933</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.02142670970683883</v>
+        <v>0.05126375126375127</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.02177480709922839</v>
+        <v>-0.04874088074088075</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.0281750567002268</v>
+        <v>-0.02525679725679726</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-0.0730569642278569</v>
+        <v>0.006545478545478546</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.08334062136248545</v>
+        <v>-0.00274945474945475</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.04775510302041208</v>
+        <v>-0.0006424806424806425</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.01365979863919455</v>
+        <v>0.0280972240972241</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-0.1179671918687675</v>
+        <v>-0.02525708525708526</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.02896225984903939</v>
+        <v>0.02082005682005682</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.02132408529634118</v>
+        <v>0.04412778812778813</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.008796611186444746</v>
+        <v>-0.06487280887280888</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.04495553982215929</v>
+        <v>0.02286591486591487</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-0.02406480025920104</v>
+        <v>-0.04328171528171529</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.003903183612734451</v>
+        <v>-0.03442444642444643</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-0.07349808599234398</v>
+        <v>-0.02488078888078888</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.02157954231816927</v>
+        <v>0.08316874716874717</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.07316938067752271</v>
+        <v>0.02019202419202419</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-0.01581366325465302</v>
+        <v>0.01487835887835888</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.03161897447589791</v>
+        <v>-0.06377263577263577</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-0.04760323041292164</v>
+        <v>0.004758016758016758</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>-0.05115198060792243</v>
+        <v>-0.03825752625752626</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.01689942759771039</v>
+        <v>-0.01487925887925888</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>-0.04705353221412886</v>
+        <v>0.02109051309051309</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-0.03848453793815175</v>
+        <v>-0.0159013479013479</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.04041779367117469</v>
+        <v>-0.01603484803484804</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-0.03296297985191941</v>
+        <v>0.02983848583848584</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-0.01455250621002484</v>
+        <v>-0.0346988626988627</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.02751217404869619</v>
+        <v>0.02167028167028167</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.01242811371245485</v>
+        <v>0.1277327477327477</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.08895049980199921</v>
+        <v>0.02230961830961831</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.07067433069732278</v>
+        <v>-0.02574681774681775</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.06243567374269497</v>
+        <v>0.09937753537753538</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.02490269161076645</v>
+        <v>-0.01885965085965086</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.01711485245940984</v>
+        <v>-0.02320618720618721</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.1060815763263053</v>
+        <v>-0.01652153252153252</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-0.03185811143244573</v>
+        <v>-0.02582464982464983</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.03535070140280561</v>
+        <v>0.01446954246954247</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-0.01757162228648914</v>
+        <v>0.02750739950739951</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-0.02083371533486134</v>
+        <v>-0.007785199785199785</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-0.06052065808263233</v>
+        <v>0.01412828612828613</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.009821319285277141</v>
+        <v>-0.01430558630558631</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.02534554138216552</v>
+        <v>0.007621123621123622</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.03036280945123781</v>
+        <v>-0.007663783663783664</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-0.02028564914259657</v>
+        <v>0.007975975975975977</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.06809854439417758</v>
+        <v>0.07757092157092157</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.08301940407761631</v>
+        <v>0.01084523884523885</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.0007041628166512665</v>
+        <v>0.03383057783057784</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.05047210588842355</v>
+        <v>-0.009814821814821816</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.02241752967011868</v>
+        <v>-0.001004917004917005</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.07241558566234266</v>
+        <v>-0.06683475083475084</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.05680813123252493</v>
+        <v>0.02182842982842983</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.07634651338605354</v>
+        <v>-0.01173014373014373</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>-0.03847551390205561</v>
+        <v>0.03502438702438703</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-0.0938379753519014</v>
+        <v>-0.03743971343971344</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.09463813855255421</v>
+        <v>0.05357147357147358</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.00789814359257437</v>
+        <v>-0.01238487638487639</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.005872055488221952</v>
+        <v>-0.004248364248364249</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.2521805287221149</v>
+        <v>0.0512950352950353</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.006709466837867351</v>
+        <v>0.02932432132432132</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.000699746798987196</v>
+        <v>0.04227388227388228</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>-0.1003962415849663</v>
+        <v>0.05736464136464137</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.4414363577454309</v>
+        <v>0.2815715935715936</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.003389293557174228</v>
+        <v>0.005374517374517374</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.02264677858711435</v>
+        <v>0.04425820425820427</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.05666307465229861</v>
+        <v>0.004813192813192813</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.02685073140292561</v>
+        <v>0.515025827025827</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>-0.03530807723230893</v>
+        <v>0.06066064866064867</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>-0.03620318481273925</v>
+        <v>-0.01434522234522234</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>-0.01896967587870351</v>
+        <v>-0.007998163998163998</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-0.09558479833919335</v>
+        <v>-0.1071557511557512</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>-0.02989077556310225</v>
+        <v>-0.01044727044727045</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.0003856335425341701</v>
+        <v>0.05574689574689574</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.02982443929775719</v>
+        <v>0.005731349731349732</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.02077189108756435</v>
+        <v>-0.01238845238845239</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-0.5315030540122161</v>
+        <v>-0.498939810939811</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.08846502586010344</v>
+        <v>0.1495250335250335</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.02163906255625022</v>
+        <v>0.01660985260985261</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.08591794367177469</v>
+        <v>0.02337620337620338</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.051500174000696</v>
+        <v>0.006238866238866239</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>('Biorefinery', 'Minimum ethanol selling price')</t>
   </si>
@@ -28,6 +28,345 @@
     <t>Saccharification and co fermentation-R301 ethanol conversion [0.9, 0.95, 1]</t>
   </si>
   <si>
+    <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+  </si>
+  <si>
+    <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Molecular sieve column electricity rate (hr·kW/kg) [0.00599, 0.00666, 0.00732]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump electricity rate (hr·kW/kg) [0.000156, 0.000173, 0.00019]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator electricity rate (hr·kW/kg) [0.000252, 0.00028, 0.000308]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) electricity rate (hr·kW/kg) [0.0295, 0.0328, 0.0361]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter electricity rate (hr·kW/kg) [0.00317, 0.00352, 0.00387]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump electricity rate (hr·kW/kg) [0.00316, 0.00352, 0.00387]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+  </si>
+  <si>
+    <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor electricity rate (hr·kW/kg) [0.000234, 0.00026, 0.000287]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw electricity rate (hr·kW/kg) [0.000352, 0.000391, 0.00043]</t>
+  </si>
+  <si>
+    <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+  </si>
+  <si>
+    <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
+  </si>
+  <si>
+    <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
+  </si>
+  <si>
+    <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator electricity rate (hr·kW/kg) [0.000158, 0.000176, 0.000193]</t>
+  </si>
+  <si>
+    <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+  </si>
+  <si>
+    <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>CSLTank pump electricity rate (hr·kW/kg) [0.000241, 0.000268, 0.000294]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator electricity rate (hr·kW/kg) [0.00482, 0.00535, 0.00589]</t>
+  </si>
+  <si>
+    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+  </si>
+  <si>
+    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>DAPTank pump electricity rate (hr·kW/kg) [0.00208, 0.00232, 0.00255]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator electricity rate (hr·kW/kg) [0.0226, 0.0252, 0.0277]</t>
+  </si>
+  <si>
+    <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Chilled water package electricity rate (hr·kW/kJ) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system electricity rate (hr·kW/kg) [0.0494, 0.0549, 0.0604]</t>
+  </si>
+  <si>
+    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+  </si>
+  <si>
+    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump electricity rate (hr·kW/kg) [0.0102, 0.0113, 0.0124]</t>
+  </si>
+  <si>
+    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump electricity rate (hr·kW/kg) [0.00019, 0.000212, 0.000233]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator electricity rate (hr·kW/kg) [0.000579, 0.000644, 0.000708]</t>
+  </si>
+  <si>
+    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00258, 0.00287, 0.00315]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump electricity rate (hr·kW/kg) [0.000242, 0.000269, 0.000296]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
+  </si>
+  <si>
     <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
   </si>
   <si>
@@ -37,34 +376,13 @@
     <t>Waste water system cost waste water system electricity rate (hr·kW/kg) [0.0156, 0.0173, 0.019]</t>
   </si>
   <si>
-    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
-  </si>
-  <si>
-    <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
-  </si>
-  <si>
-    <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>CSLTank pump electricity rate (hr·kW/kg) [0.000241, 0.000268, 0.000294]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator electricity rate (hr·kW/kg) [0.00482, 0.00535, 0.00589]</t>
+    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
   </si>
   <si>
     <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
@@ -73,13 +391,145 @@
     <t>Feed stock handling system electricity rate (hr·kW/kg) [0.00744, 0.00827, 0.0091]</t>
   </si>
   <si>
-    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
+    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump electricity rate (hr·kW/kg) [0.000199, 0.000221, 0.000243]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator electricity rate (hr·kW/kg) [0.000605, 0.000672, 0.000739]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+  </si>
+  <si>
+    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator electricity rate (hr·kW/kg) [1.64e-05, 1.82e-05, 2e-05]</t>
   </si>
   <si>
     <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
@@ -91,136 +541,28 @@
     <t>Blowdown discharge pump pump electricity rate (hr·kW/kg) [0.000287, 0.000319, 0.000351]</t>
   </si>
   <si>
-    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
-  </si>
-  <si>
-    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
-  </si>
-  <si>
-    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+  </si>
+  <si>
+    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
   </si>
   <si>
     <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
@@ -247,30 +589,6 @@
     <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
   </si>
   <si>
-    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
-  </si>
-  <si>
-    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
-  </si>
-  <si>
     <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
   </si>
   <si>
@@ -316,366 +634,48 @@
     <t>Saccharification and co fermentation recirculation pumps electricity rate (hr·kW/m3) [0.35, 0.388, 0.427]</t>
   </si>
   <si>
-    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
-  </si>
-  <si>
-    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump electricity rate (hr·kW/kg) [0.0102, 0.0113, 0.0124]</t>
-  </si>
-  <si>
-    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
-  </si>
-  <si>
-    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump electricity rate (hr·kW/kg) [0.000156, 0.000173, 0.00019]</t>
-  </si>
-  <si>
-    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
-  </si>
-  <si>
-    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator electricity rate (hr·kW/kg) [0.000252, 0.00028, 0.000308]</t>
-  </si>
-  <si>
-    <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
-  </si>
-  <si>
-    <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Molecular sieve column electricity rate (hr·kW/kg) [0.00599, 0.00666, 0.00732]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) electricity rate (hr·kW/kg) [0.0295, 0.0328, 0.0361]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter electricity rate (hr·kW/kg) [0.00317, 0.00352, 0.00387]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump electricity rate (hr·kW/kg) [0.00316, 0.00352, 0.00387]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
-  </si>
-  <si>
-    <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor electricity rate (hr·kW/kg) [0.000234, 0.00026, 0.000287]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw electricity rate (hr·kW/kg) [0.000352, 0.000391, 0.00043]</t>
-  </si>
-  <si>
-    <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
-  </si>
-  <si>
-    <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
-  </si>
-  <si>
-    <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
-  </si>
-  <si>
-    <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator electricity rate (hr·kW/kg) [0.000158, 0.000176, 0.000193]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump electricity rate (hr·kW/kg) [0.00019, 0.000212, 0.000233]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator electricity rate (hr·kW/kg) [0.000579, 0.000644, 0.000708]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator electricity rate (hr·kW/kg) [1.64e-05, 1.82e-05, 2e-05]</t>
-  </si>
-  <si>
-    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
-  </si>
-  <si>
-    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
-  </si>
-  <si>
-    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>DAPTank pump electricity rate (hr·kW/kg) [0.00208, 0.00232, 0.00255]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator electricity rate (hr·kW/kg) [0.0226, 0.0252, 0.0277]</t>
-  </si>
-  <si>
-    <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
-  </si>
-  <si>
-    <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system electricity rate (hr·kW/kg) [0.0494, 0.0549, 0.0604]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump electricity rate (hr·kW/kg) [0.000199, 0.000221, 0.000243]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator electricity rate (hr·kW/kg) [0.000605, 0.000672, 0.000739]</t>
-  </si>
-  <si>
-    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump electricity rate (hr·kW/kg) [0.000242, 0.000269, 0.000296]</t>
-  </si>
-  <si>
-    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00258, 0.00287, 0.00315]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
-  </si>
-  <si>
     <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
   </si>
   <si>
     <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
   </si>
   <si>
-    <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Chilled water package electricity rate (hr·kW/kJ) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+    <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+  </si>
+  <si>
+    <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
+  </si>
+  <si>
+    <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
   </si>
   <si>
     <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
   </si>
   <si>
-    <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
   </si>
   <si>
     <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
   </si>
   <si>
-    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
+    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
   </si>
   <si>
     <t>Stream-cellulase price (USD/kg) [0.456, 0.507, 0.558]</t>
   </si>
   <si>
-    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
-  </si>
-  <si>
     <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
   </si>
   <si>
-    <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
-  </si>
-  <si>
-    <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
-  </si>
-  <si>
     <t>Stream-ethanol price (USD/kg) [0.598, 0.664, 0.731]</t>
   </si>
   <si>
+    <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
+  </si>
+  <si>
     <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
   </si>
   <si>
-    <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
-  </si>
-  <si>
     <t>Electricity price (USD/kWhr) [0.0515, 0.0572, 0.0629]</t>
   </si>
   <si>
@@ -689,9 +689,6 @@
   </si>
   <si>
     <t>High pressure steam price (USD/kmol) [0.285, 0.317, 0.349]</t>
-  </si>
-  <si>
-    <t>TEA operating days [315, 350, 385]</t>
   </si>
   <si>
     <t>TEA income tax [0.315, 0.35, 0.385]</t>
@@ -1061,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B230"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1077,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.5242101682101683</v>
+        <v>-0.565042227113689</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1085,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.2580848940848941</v>
+        <v>-0.3139891885275675</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1093,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.0693939333939334</v>
+        <v>-0.08404835500993418</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1101,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1288976368976369</v>
+        <v>0.001080423403216936</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1109,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.01098646698646699</v>
+        <v>0.02705331093813243</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1117,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.05169345969345969</v>
+        <v>0.005735406373416255</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1125,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.04310819510819511</v>
+        <v>0.007751866966074677</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1133,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.02690744690744691</v>
+        <v>-0.004182286439291458</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1141,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.01631892431892432</v>
+        <v>0.02268187233127489</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1149,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.03263514863514864</v>
+        <v>0.01061205623248225</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1157,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.004838272838272839</v>
+        <v>-0.005277874387114975</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1165,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.01108006708006708</v>
+        <v>-2.615020904600836e-05</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1173,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.003343431343431344</v>
+        <v>-0.00547058777082351</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1181,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.02043593643593644</v>
+        <v>-0.01296467619858705</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1189,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.06718372318372319</v>
+        <v>-0.01581068415242736</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1197,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.04188806988806989</v>
+        <v>-0.007132489341299572</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1205,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.04053643653643654</v>
+        <v>-0.01961690094467603</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1213,7 +1210,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.017996153996154</v>
+        <v>-0.004601817304072692</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1221,7 +1218,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.02310771510771511</v>
+        <v>0.0007723508468940338</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1229,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.001281181281181281</v>
+        <v>0.02153586230143449</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1237,7 +1234,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.03851912651912652</v>
+        <v>0.001983651151346046</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1245,7 +1242,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.003284343284343284</v>
+        <v>0.009083745963349836</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1253,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.03951495951495951</v>
+        <v>-0.003082986075319442</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1261,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.0346914706914707</v>
+        <v>0.003113993116559724</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1269,7 +1266,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.005894993894993895</v>
+        <v>0.001222491984899679</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1277,7 +1274,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.008532488532488534</v>
+        <v>0.005148207661928305</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1285,7 +1282,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.002987714987714988</v>
+        <v>0.001963799790551992</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1293,7 +1290,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.1224430344430344</v>
+        <v>0.03660731282429251</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1301,7 +1298,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.04414702414702415</v>
+        <v>0.009292488659699545</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1309,7 +1306,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.0198051198051198</v>
+        <v>0.02829729050789162</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1317,7 +1314,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.007341547341547342</v>
+        <v>0.03809239083569563</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1325,7 +1322,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.006849474849474849</v>
+        <v>0.03206236179449447</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1333,7 +1330,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.002218106218106218</v>
+        <v>-0.01625999978639999</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1341,7 +1338,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.03533120333120333</v>
+        <v>0.002473061186922447</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1349,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.00587002187002187</v>
+        <v>0.02210611240424449</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1357,7 +1354,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.003495543495543496</v>
+        <v>0.0077117300364692</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1365,7 +1362,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.01524026724026724</v>
+        <v>-0.01128311094732444</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1373,7 +1370,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.09722449322449322</v>
+        <v>0.01361116681644667</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1381,7 +1378,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.00664002664002664</v>
+        <v>-0.0005041473801658951</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1389,7 +1386,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.00154971754971755</v>
+        <v>-0.03178341947933677</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1397,7 +1394,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.0221968301968302</v>
+        <v>-0.01200518121620725</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1405,7 +1402,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.02384098784098784</v>
+        <v>-0.01495223935008957</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1413,7 +1410,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.01575087975087975</v>
+        <v>0.0366034775281391</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1421,7 +1418,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.0517947877947878</v>
+        <v>-0.007462011466480457</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1429,7 +1426,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.005615969615969617</v>
+        <v>0.01173781112551244</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1437,7 +1434,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.07454844254844255</v>
+        <v>-0.01481802673672107</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1445,7 +1442,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.01406082206082206</v>
+        <v>-0.0231731677109267</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1453,7 +1450,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.03410729810729811</v>
+        <v>0.01295677587827103</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1461,7 +1458,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.03796177396177396</v>
+        <v>0.004891583235663329</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1469,7 +1466,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.03144772344772345</v>
+        <v>-0.006391218303648732</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1477,7 +1474,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.003836331836331837</v>
+        <v>-0.004946908613876344</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1485,7 +1482,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.05638402438402439</v>
+        <v>0.006057617234304689</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1493,7 +1490,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.022995058995059</v>
+        <v>-0.0109754799910192</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1501,7 +1498,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.04923012123012124</v>
+        <v>-0.02094182118967285</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1509,7 +1506,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.01022776622776623</v>
+        <v>0.003394595271783811</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1517,7 +1514,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.007116655116655116</v>
+        <v>0.01199656809586272</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1525,7 +1522,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.08418886818886819</v>
+        <v>0.004328281421131256</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1533,7 +1530,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.009912549912549914</v>
+        <v>-0.01157974030318961</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1541,7 +1538,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.01339327339327339</v>
+        <v>-0.01323734136149365</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1549,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.02034734034734035</v>
+        <v>-6.485769859430794e-05</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1557,7 +1554,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.04191474591474591</v>
+        <v>0.02130763899630556</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1565,7 +1562,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.01556825156825157</v>
+        <v>-0.0005144904205796167</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1573,7 +1570,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.03788416988416989</v>
+        <v>0.004996431847857273</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1581,7 +1578,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.02342939942939943</v>
+        <v>0.01396080939043237</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1589,7 +1586,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-0.02696335496335497</v>
+        <v>0.0192449125457965</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1597,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.02272761472761473</v>
+        <v>0.001301985172079407</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1605,7 +1602,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.05031373431373432</v>
+        <v>0.01536943664677746</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1613,7 +1610,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.02227726627726628</v>
+        <v>0.01660809522432381</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1621,7 +1618,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.02397596397596398</v>
+        <v>-0.01651305090052203</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1629,7 +1626,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.03581559581559582</v>
+        <v>0.006397733535909341</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1637,7 +1634,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.06437412437412438</v>
+        <v>-0.008425467985018718</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1645,7 +1642,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.01364790164790165</v>
+        <v>-0.01736322683852907</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1653,7 +1650,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.02978255378255379</v>
+        <v>0.006608531880341274</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1661,7 +1658,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-0.04393177993177994</v>
+        <v>0.0963987531039501</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1669,7 +1666,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.01824801024801025</v>
+        <v>-0.01537086186283447</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1677,7 +1674,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.01875269475269475</v>
+        <v>0.02940214869608595</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1685,7 +1682,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.04697629097629098</v>
+        <v>0.02173385328535413</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1693,7 +1690,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.01790484590484591</v>
+        <v>0.02132443928497757</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1701,7 +1698,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.02248562248562249</v>
+        <v>0.02572758400510335</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1709,7 +1706,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.03408315408315409</v>
+        <v>0.02100813146432525</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1717,7 +1714,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.005885789885789886</v>
+        <v>-0.02264601632984065</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1725,7 +1722,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.01230967230967231</v>
+        <v>0.00654306726972269</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1733,7 +1730,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.001168165168165168</v>
+        <v>-0.009097343787893749</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1741,7 +1738,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.01748425748425749</v>
+        <v>0.002151141782045671</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1749,7 +1746,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.02722910722910724</v>
+        <v>-0.001073847210953888</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1757,7 +1754,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.04907205707205708</v>
+        <v>-0.01358070879922835</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1765,7 +1762,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.02716261516261517</v>
+        <v>-0.01609270720370829</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1773,7 +1770,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.05017723417723419</v>
+        <v>0.004881925155277005</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1781,7 +1778,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.01104214704214704</v>
+        <v>-0.01393580484543219</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1789,7 +1786,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.07910376710376711</v>
+        <v>-0.00583350877734035</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1797,7 +1794,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.001255045255045255</v>
+        <v>-0.00077764399910576</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1805,7 +1802,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.003354147354147354</v>
+        <v>0.02368410190736407</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1813,7 +1810,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.04006025206025206</v>
+        <v>0.01201305417652217</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1821,7 +1818,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.03481246681246682</v>
+        <v>-0.01630263031610521</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1829,7 +1826,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.01586971586971587</v>
+        <v>0.02439146401565856</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1837,7 +1834,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.02073227673227673</v>
+        <v>-0.008040362721614508</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1845,7 +1842,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.01254246054246054</v>
+        <v>0.01767762589110503</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1853,7 +1850,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.02259073059073059</v>
+        <v>-0.01005202283408091</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1861,7 +1858,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-0.01694202494202494</v>
+        <v>0.008517617908704716</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1869,7 +1866,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.005407853407853408</v>
+        <v>-0.01281262419250497</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1877,7 +1874,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-0.03141108741108741</v>
+        <v>0.008998442471937698</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1885,7 +1882,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.05325155325155326</v>
+        <v>0.0167192850207714</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1893,7 +1890,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.004728472728472729</v>
+        <v>-0.01759755814390233</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1901,7 +1898,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-0.0006483126483126483</v>
+        <v>0.002188350135534005</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1909,7 +1906,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.0256996816996817</v>
+        <v>0.02562378284895131</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1917,7 +1914,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.004182100182100182</v>
+        <v>0.01274920543796822</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1925,7 +1922,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.01914114714114714</v>
+        <v>-0.006088534035541361</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1933,7 +1930,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.02432600432600433</v>
+        <v>-0.009666849890673993</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1941,7 +1938,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.006603906603906604</v>
+        <v>0.01521575292863012</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1949,7 +1946,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.01116301116301116</v>
+        <v>0.009412008088480322</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1957,7 +1954,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.04858098058098059</v>
+        <v>0.002338093053523722</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1965,7 +1962,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.01029203829203829</v>
+        <v>2.698819307952772e-05</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1973,7 +1970,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.02150844950844951</v>
+        <v>-0.00696429877457195</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1981,7 +1978,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.0452958332958333</v>
+        <v>-0.01681836192073448</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1989,7 +1986,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.001332757332757333</v>
+        <v>-0.000788434879537395</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1997,7 +1994,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.005629697629697629</v>
+        <v>-0.01989198348367933</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2005,7 +2002,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-0.02104377304377305</v>
+        <v>0.08469284575571381</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2013,7 +2010,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.01044206244206244</v>
+        <v>-0.02359030491161219</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2021,7 +2018,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.01444947844947845</v>
+        <v>0.03604130217765208</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2029,7 +2026,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.0426972186972187</v>
+        <v>0.03706944052277761</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2037,7 +2034,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.02632508632508632</v>
+        <v>-0.007304865412194615</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2045,7 +2042,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.002191562191562192</v>
+        <v>-0.02415885552635422</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2053,7 +2050,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.008714624714624716</v>
+        <v>-0.01237576215903048</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2061,7 +2058,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.02664185064185064</v>
+        <v>-0.02909593239583729</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2069,7 +2066,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-0.06029959229959231</v>
+        <v>0.1022734805389392</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2077,7 +2074,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-0.0396008436008436</v>
+        <v>0.009705613924224556</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2085,7 +2082,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.001551553551553552</v>
+        <v>-0.008202879976115199</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2093,7 +2090,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.03480933480933482</v>
+        <v>-0.01022332082493283</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2101,7 +2098,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.007686847686847687</v>
+        <v>-0.0009594847103793883</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2109,7 +2106,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.01967058767058767</v>
+        <v>0.01837524063900962</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2117,7 +2114,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.01343860943860944</v>
+        <v>-0.002233184537327381</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2125,7 +2122,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.009487929487929489</v>
+        <v>0.02368038603521544</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2133,7 +2130,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.06945420945420945</v>
+        <v>0.003292881155715245</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2141,7 +2138,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.02747430347430348</v>
+        <v>0.03671768969270758</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2149,7 +2146,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-0.08822443622443624</v>
+        <v>0.01511083039643321</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2157,7 +2154,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.04255507855507856</v>
+        <v>-0.02054605570184223</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2165,7 +2162,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.02075405675405675</v>
+        <v>-0.01235400414216017</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2173,7 +2170,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.01697490497490498</v>
+        <v>0.001065437130617485</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2181,7 +2178,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.005355305355305356</v>
+        <v>-0.02454050152562006</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2189,7 +2186,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.002531642531642532</v>
+        <v>0.003659793362391734</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2197,7 +2194,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.02523295323295323</v>
+        <v>-0.01655325320613013</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2205,7 +2202,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-0.06152940152940153</v>
+        <v>0.008678231579129263</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2213,7 +2210,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.0244982404982405</v>
+        <v>0.0006530023941200957</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2221,7 +2218,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-0.008191796191796193</v>
+        <v>0.001865854346634174</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2229,7 +2226,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-0.01993581193581194</v>
+        <v>-0.01234647342185894</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2237,7 +2234,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.04595190995190995</v>
+        <v>0.008367226222689048</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2245,7 +2242,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-0.006491262491262491</v>
+        <v>0.0008689928987597157</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2253,7 +2250,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.03611665211665212</v>
+        <v>-0.002312395676495827</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2261,7 +2258,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.003730767730767731</v>
+        <v>0.02520679790427191</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2269,7 +2266,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.0173021933021933</v>
+        <v>0.02352164359686574</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2277,7 +2274,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.05126375126375127</v>
+        <v>-0.009354136214165448</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2285,7 +2282,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>-0.04874088074088075</v>
+        <v>0.000947907301916292</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2293,7 +2290,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>-0.02525679725679726</v>
+        <v>-0.01231761361270454</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2301,7 +2298,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.006545478545478546</v>
+        <v>-0.01371703389268135</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2309,7 +2306,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>-0.00274945474945475</v>
+        <v>0.02187916954716678</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2317,7 +2314,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>-0.0006424806424806425</v>
+        <v>-0.008247401513896061</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2325,7 +2322,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.0280972240972241</v>
+        <v>0.00772172354086894</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2333,7 +2330,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-0.02525708525708526</v>
+        <v>-0.01102990584919623</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2341,7 +2338,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.02082005682005682</v>
+        <v>0.002540527205621088</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2349,7 +2346,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.04412778812778813</v>
+        <v>0.009191651983666078</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2357,7 +2354,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-0.06487280887280888</v>
+        <v>-0.01369528854781154</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2365,7 +2362,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.02286591486591487</v>
+        <v>0.005471560058862401</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2373,7 +2370,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-0.04328171528171529</v>
+        <v>-0.02988635101945403</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2381,7 +2378,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-0.03442444642444643</v>
+        <v>0.01392041335681653</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2389,7 +2386,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-0.02488078888078888</v>
+        <v>0.01627473098698924</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2397,7 +2394,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.08316874716874717</v>
+        <v>0.004735909149436365</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2405,7 +2402,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.02019202419202419</v>
+        <v>0.0003976535199061407</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2413,7 +2410,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.01487835887835888</v>
+        <v>-0.00370990277239611</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2421,7 +2418,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>-0.06377263577263577</v>
+        <v>0.003291518339660733</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2429,7 +2426,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.004758016758016758</v>
+        <v>-0.02116538878261555</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2437,7 +2434,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>-0.03825752625752626</v>
+        <v>0.02553183298927331</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2445,7 +2442,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>-0.01487925887925888</v>
+        <v>0.01814903102996124</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2453,7 +2450,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.02109051309051309</v>
+        <v>0.01035312713412508</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2461,7 +2458,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-0.0159013479013479</v>
+        <v>0.002038916913556676</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2469,7 +2466,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>-0.01603484803484804</v>
+        <v>0.008725038877001554</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2477,7 +2474,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.02983848583848584</v>
+        <v>0.00837574804702992</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2485,7 +2482,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-0.0346988626988627</v>
+        <v>-0.01353316326132653</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2493,7 +2490,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.02167028167028167</v>
+        <v>-0.01761483776059351</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2501,7 +2498,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.1277327477327477</v>
+        <v>0.0240459552018382</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2509,7 +2506,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.02230961830961831</v>
+        <v>0.01469054151562166</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2517,7 +2514,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>-0.02574681774681775</v>
+        <v>-0.0005527724381108974</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2525,7 +2522,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.09937753537753538</v>
+        <v>-0.003949398109975924</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2533,7 +2530,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-0.01885965085965086</v>
+        <v>-0.01892832526913301</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2541,7 +2538,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-0.02320618720618721</v>
+        <v>-0.02087159545886381</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2549,7 +2546,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>-0.01652153252153252</v>
+        <v>-0.01489845265993811</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2557,7 +2554,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-0.02582464982464983</v>
+        <v>0.02183029709721188</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2565,7 +2562,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.01446954246954247</v>
+        <v>0.006872439346897573</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2573,7 +2570,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0.02750739950739951</v>
+        <v>-0.01207595693103827</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2581,7 +2578,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-0.007785199785199785</v>
+        <v>-0.003586736303469452</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2589,7 +2586,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.01412828612828613</v>
+        <v>-0.01284380144175206</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2597,7 +2594,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.01430558630558631</v>
+        <v>0.02997423115096924</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2605,7 +2602,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.007621123621123622</v>
+        <v>0.02738649747945989</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2613,7 +2610,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-0.007663783663783664</v>
+        <v>-0.05295679767027189</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2621,7 +2618,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.007975975975975977</v>
+        <v>-0.02583350368934014</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2629,7 +2626,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.07757092157092157</v>
+        <v>0.01540233690409347</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2637,7 +2634,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.01084523884523885</v>
+        <v>0.02975902947836118</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2645,7 +2642,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.03383057783057784</v>
+        <v>-0.001648577345943094</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2653,7 +2650,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.009814821814821816</v>
+        <v>0.003414271624570865</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2661,7 +2658,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.001004917004917005</v>
+        <v>0.002758306478332259</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2669,7 +2666,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.06683475083475084</v>
+        <v>-0.003405675976227038</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2677,7 +2674,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.02182842982842983</v>
+        <v>-0.0160261875530475</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2685,7 +2682,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-0.01173014373014373</v>
+        <v>-0.009210606896424275</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2693,7 +2690,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.03502438702438703</v>
+        <v>0.004431625617265024</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2701,7 +2698,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-0.03743971343971344</v>
+        <v>0.006805065008202599</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2709,7 +2706,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.05357147357147358</v>
+        <v>-0.009252761938110475</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2717,7 +2714,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>-0.01238487638487639</v>
+        <v>-0.02909095690763827</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2725,7 +2722,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-0.004248364248364249</v>
+        <v>0.007468003498720139</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2733,7 +2730,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.0512950352950353</v>
+        <v>0.05636079623843183</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2741,7 +2738,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.02932432132432132</v>
+        <v>0.5361584607743384</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2749,7 +2746,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.04227388227388228</v>
+        <v>0.05385450973818038</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2757,7 +2754,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.05736464136464137</v>
+        <v>0.01077197159887886</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2765,7 +2762,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.2815715935715936</v>
+        <v>0.01123164793726592</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2773,7 +2770,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.005374517374517374</v>
+        <v>0.04693077451723097</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2781,7 +2778,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.04425820425820427</v>
+        <v>-0.02558482700739308</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2789,7 +2786,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.004813192813192813</v>
+        <v>0.3455855490234219</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2797,7 +2794,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.515025827025827</v>
+        <v>0.009062042378481695</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2805,7 +2802,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.06066064866064867</v>
+        <v>0.03376670871066834</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2813,7 +2810,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>-0.01434522234522234</v>
+        <v>-0.01539851456794058</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2821,7 +2818,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>-0.007998163998163998</v>
+        <v>-0.01325014670600587</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2829,7 +2826,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-0.1071557511557512</v>
+        <v>-0.174141326741653</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2837,7 +2834,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>-0.01044727044727045</v>
+        <v>-0.0136468075858723</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2845,7 +2842,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.05574689574689574</v>
+        <v>-0.01112321967692879</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2853,7 +2850,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.005731349731349732</v>
+        <v>0.006050996690039867</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2861,7 +2858,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.01238845238845239</v>
+        <v>-0.027358549958342</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2869,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-0.498939810939811</v>
+        <v>0.1422738952589558</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2877,7 +2874,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.1495250335250335</v>
+        <v>0.003165514974620599</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2885,7 +2882,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.01660985260985261</v>
+        <v>0.018150475158019</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2893,15 +2890,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.02337620337620338</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B230">
-        <v>0.006238866238866239</v>
+        <v>0.01038709308748372</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -28,6 +28,480 @@
     <t>Saccharification and co fermentation-R301 ethanol conversion [0.9, 0.95, 1]</t>
   </si>
   <si>
+    <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Chilled water package electricity rate (hr·kW/kJ) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank pump electricity rate (hr·kW/kg) [0.00019, 0.000212, 0.000233]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank agitator electricity rate (hr·kW/kg) [0.000579, 0.000644, 0.000708]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system electricity rate (hr·kW/kg) [0.00744, 0.00827, 0.0091]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump electricity rate (hr·kW/kg) [0.000242, 0.000269, 0.000296]</t>
+  </si>
+  <si>
+    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+  </si>
+  <si>
+    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>DAPTank pump electricity rate (hr·kW/kg) [0.00208, 0.00232, 0.00255]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator electricity rate (hr·kW/kg) [0.0226, 0.0252, 0.0277]</t>
+  </si>
+  <si>
+    <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump electricity rate (hr·kW/kg) [0.000199, 0.000221, 0.000243]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator electricity rate (hr·kW/kg) [0.000605, 0.000672, 0.000739]</t>
+  </si>
+  <si>
+    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00258, 0.00287, 0.00315]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
+  </si>
+  <si>
+    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+  </si>
+  <si>
+    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump electricity rate (hr·kW/kg) [0.000287, 0.000319, 0.000351]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system electricity rate (hr·kW/kg) [0.0156, 0.0173, 0.019]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+  </si>
+  <si>
+    <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>CSLTank pump electricity rate (hr·kW/kg) [0.000241, 0.000268, 0.000294]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator electricity rate (hr·kW/kg) [0.00482, 0.00535, 0.00589]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+  </si>
+  <si>
+    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+  </si>
+  <si>
+    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.7e-05, 0.000108, 0.000119]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator electricity rate (hr·kW/kg) [1.64e-05, 1.82e-05, 2e-05]</t>
+  </si>
+  <si>
+    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+  </si>
+  <si>
+    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system electricity rate (hr·kW/kg) [0.0494, 0.0549, 0.0604]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps electricity rate (hr·kW/m3) [0.653, 0.725, 0.798]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators electricity rate (kW/m3) [0.0214, 0.0238, 0.0262]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps electricity rate (hr·kW/m3) [0.35, 0.388, 0.427]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump electricity rate (hr·kW/kg) [0.000156, 0.000173, 0.00019]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator electricity rate (hr·kW/kg) [0.000252, 0.00028, 0.000308]</t>
+  </si>
+  <si>
     <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
   </si>
   <si>
@@ -37,30 +511,6 @@
     <t>Molecular sieve column electricity rate (hr·kW/kg) [0.00599, 0.00666, 0.00732]</t>
   </si>
   <si>
-    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump electricity rate (hr·kW/kg) [0.000156, 0.000173, 0.00019]</t>
-  </si>
-  <si>
-    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
-  </si>
-  <si>
-    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator electricity rate (hr·kW/kg) [0.000252, 0.00028, 0.000308]</t>
-  </si>
-  <si>
     <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
   </si>
   <si>
@@ -175,84 +625,6 @@
     <t>Pressure filter flitrate tank agitator electricity rate (hr·kW/kg) [0.000158, 0.000176, 0.000193]</t>
   </si>
   <si>
-    <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
-  </si>
-  <si>
-    <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
-  </si>
-  <si>
-    <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>CSLTank pump electricity rate (hr·kW/kg) [0.000241, 0.000268, 0.000294]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator electricity rate (hr·kW/kg) [0.00482, 0.00535, 0.00589]</t>
-  </si>
-  <si>
-    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
-  </si>
-  <si>
-    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
-  </si>
-  <si>
-    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>DAPTank pump electricity rate (hr·kW/kg) [0.00208, 0.00232, 0.00255]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator electricity rate (hr·kW/kg) [0.0226, 0.0252, 0.0277]</t>
-  </si>
-  <si>
-    <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
-  </si>
-  <si>
-    <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Chilled water package electricity rate (hr·kW/kJ) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system electricity rate (hr·kW/kg) [0.0494, 0.0549, 0.0604]</t>
-  </si>
-  <si>
-    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
-  </si>
-  <si>
-    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
     <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
   </si>
   <si>
@@ -268,406 +640,34 @@
     <t>Fire water tank pump electricity rate (hr·kW/kg) [0.0102, 0.0113, 0.0124]</t>
   </si>
   <si>
-    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank pump electricity rate (hr·kW/kg) [0.00019, 0.000212, 0.000233]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank agitator electricity rate (hr·kW/kg) [0.000579, 0.000644, 0.000708]</t>
-  </si>
-  <si>
-    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00258, 0.00287, 0.00315]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump electricity rate (hr·kW/kg) [0.000242, 0.000269, 0.000296]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system electricity rate (hr·kW/kg) [0.0156, 0.0173, 0.019]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
-  </si>
-  <si>
-    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Feed stock handling system electricity rate (hr·kW/kg) [0.00744, 0.00827, 0.0091]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
-  </si>
-  <si>
-    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump electricity rate (hr·kW/kg) [0.000199, 0.000221, 0.000243]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator electricity rate (hr·kW/kg) [0.000605, 0.000672, 0.000739]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
-  </si>
-  <si>
-    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator electricity rate (hr·kW/kg) [1.64e-05, 1.82e-05, 2e-05]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump electricity rate (hr·kW/kg) [0.000287, 0.000319, 0.000351]</t>
-  </si>
-  <si>
-    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
-  </si>
-  <si>
-    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
-  </si>
-  <si>
-    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
-  </si>
-  <si>
-    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.7e-05, 0.000108, 0.000119]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps electricity rate (hr·kW/m3) [0.653, 0.725, 0.798]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators electricity rate (kW/m3) [0.0214, 0.0238, 0.0262]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps electricity rate (hr·kW/m3) [0.35, 0.388, 0.427]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+    <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
+  </si>
+  <si>
+    <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
+  </si>
+  <si>
+    <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+  </si>
+  <si>
+    <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
+  </si>
+  <si>
+    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
+  </si>
+  <si>
+    <t>Stream-cellulase price (USD/kg) [0.456, 0.507, 0.558]</t>
+  </si>
+  <si>
+    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+  </si>
+  <si>
+    <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
   </si>
   <si>
     <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
   </si>
   <si>
-    <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
-  </si>
-  <si>
-    <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
-  </si>
-  <si>
-    <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
-  </si>
-  <si>
-    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
-  </si>
-  <si>
-    <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
-  </si>
-  <si>
-    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
-  </si>
-  <si>
-    <t>Stream-cellulase price (USD/kg) [0.456, 0.507, 0.558]</t>
-  </si>
-  <si>
-    <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
-  </si>
-  <si>
-    <t>Stream-ethanol price (USD/kg) [0.598, 0.664, 0.731]</t>
+    <t>Stream-ethanol price (USD/kg) [0.593, 0.659, 0.725]</t>
   </si>
   <si>
     <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.565042227113689</v>
+        <v>-0.5645267067090681</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.3139891885275675</v>
+        <v>-0.3553862388554495</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.08404835500993418</v>
+        <v>-0.1161841212873648</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.001080423403216936</v>
+        <v>0.003355632998225319</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.02705331093813243</v>
+        <v>-0.007469804650792185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.005735406373416255</v>
+        <v>-0.001568323646732946</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.007751866966074677</v>
+        <v>0.01735732360629294</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.004182286439291458</v>
+        <v>-0.001708549316341972</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.02268187233127489</v>
+        <v>-0.002656204906248196</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.01061205623248225</v>
+        <v>-0.007517946252717849</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.005277874387114975</v>
+        <v>0.005986480847459234</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-2.615020904600836e-05</v>
+        <v>-0.01189423535576941</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.00547058777082351</v>
+        <v>-0.02234834057393362</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.01296467619858705</v>
+        <v>-0.01524873488194939</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.01581068415242736</v>
+        <v>-0.009172800846912032</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.007132489341299572</v>
+        <v>-0.01852873053314922</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.01961690094467603</v>
+        <v>-0.0004712294588491783</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.004601817304072692</v>
+        <v>-0.02419540656781625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.0007723508468940338</v>
+        <v>0.01838835164753407</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.02153586230143449</v>
+        <v>0.01913805532552221</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.001983651151346046</v>
+        <v>0.002432941345317653</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.009083745963349836</v>
+        <v>-0.007754219734168788</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.003082986075319442</v>
+        <v>-0.000755436030217441</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.003113993116559724</v>
+        <v>-0.02564491657779666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.001222491984899679</v>
+        <v>0.005712441060497642</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.005148207661928305</v>
+        <v>-0.03707447495497899</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.001963799790551992</v>
+        <v>-0.002901896180075847</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.03660731282429251</v>
+        <v>0.01880188068807523</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.009292488659699545</v>
+        <v>-0.003191223391648935</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.02829729050789162</v>
+        <v>-0.0005943506157740245</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.03809239083569563</v>
+        <v>0.003040217689608707</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.03206236179449447</v>
+        <v>0.004086860611474423</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.01625999978639999</v>
+        <v>-0.003869899546795981</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.002473061186922447</v>
+        <v>-0.03431625487665019</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.02210611240424449</v>
+        <v>-0.004764771070590842</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.0077117300364692</v>
+        <v>0.01803235713729428</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.01128311094732444</v>
+        <v>0.002234982041399281</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.01361116681644667</v>
+        <v>0.01582861455314458</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.0005041473801658951</v>
+        <v>0.005812208392488335</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.03178341947933677</v>
+        <v>-0.002395951103838044</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.01200518121620725</v>
+        <v>0.01560014424000577</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.01495223935008957</v>
+        <v>-0.02797632351905294</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.0366034775281391</v>
+        <v>0.009917341740693669</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.007462011466480457</v>
+        <v>-0.00942965528918621</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.01173781112551244</v>
+        <v>0.01739561051982442</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.01481802673672107</v>
+        <v>0.008726304253052168</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.0231731677109267</v>
+        <v>-0.01068675421947017</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.01295677587827103</v>
+        <v>-0.008896884643875384</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.004891583235663329</v>
+        <v>-0.001995652495826099</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.006391218303648732</v>
+        <v>-0.004747520733900829</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.004946908613876344</v>
+        <v>-0.004199498567979942</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.006057617234304689</v>
+        <v>0.02603941409757656</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.0109754799910192</v>
+        <v>-0.00565890301035612</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.02094182118967285</v>
+        <v>-0.008286572491462897</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.003394595271783811</v>
+        <v>0.002936245173449807</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.01199656809586272</v>
+        <v>0.009525656733026267</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.004328281421131256</v>
+        <v>0.002947378869895155</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.01157974030318961</v>
+        <v>0.02266469985058799</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.01323734136149365</v>
+        <v>0.005688242339529693</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-6.485769859430794e-05</v>
+        <v>0.08477094569483781</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.02130763899630556</v>
+        <v>0.001199548367981935</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.0005144904205796167</v>
+        <v>0.0307152350206094</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.004996431847857273</v>
+        <v>-0.006689459979578398</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.01396080939043237</v>
+        <v>0.0191419125096765</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.0192449125457965</v>
+        <v>-0.003418481608739264</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.001301985172079407</v>
+        <v>-0.00734833402193336</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.01536943664677746</v>
+        <v>0.02119609553584382</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.01660809522432381</v>
+        <v>0.09122003164880126</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-0.01651305090052203</v>
+        <v>-0.006146995445879817</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.006397733535909341</v>
+        <v>-0.0411969951518798</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.008425467985018718</v>
+        <v>-0.007230553057222122</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.01736322683852907</v>
+        <v>-0.01936187847047513</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.006608531880341274</v>
+        <v>-0.02561465363258614</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.0963987531039501</v>
+        <v>-0.0003724786708991468</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.01537086186283447</v>
+        <v>-0.02084540444981618</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.02940214869608595</v>
+        <v>-0.004960761414430456</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.02173385328535413</v>
+        <v>0.02363533083341323</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.02132443928497757</v>
+        <v>-0.01630592945223718</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.02572758400510335</v>
+        <v>0.003015923160636926</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.02100813146432525</v>
+        <v>0.001239026161561046</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.02264601632984065</v>
+        <v>0.0009063832682553307</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.00654306726972269</v>
+        <v>0.0116439025777561</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.009097343787893749</v>
+        <v>0.01291791805271672</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.002151141782045671</v>
+        <v>-0.01184161909766476</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.001073847210953888</v>
+        <v>-0.009593551487742059</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.01358070879922835</v>
+        <v>-0.0129980375439215</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.01609270720370829</v>
+        <v>-0.0003193995967759838</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.004881925155277005</v>
+        <v>-0.0004685736187429446</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.01393580484543219</v>
+        <v>-0.008264334090573363</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.00583350877734035</v>
+        <v>-0.01493041845321674</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.00077764399910576</v>
+        <v>0.01247828805113152</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.02368410190736407</v>
+        <v>-0.000393727599749104</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.01201305417652217</v>
+        <v>0.00708694453947778</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.01630263031610521</v>
+        <v>-0.01145647149825886</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.02439146401565856</v>
+        <v>0.0230183526327341</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.008040362721614508</v>
+        <v>-0.003647402545896101</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.01767762589110503</v>
+        <v>0.02015427882217115</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.01005202283408091</v>
+        <v>0.003113557180542287</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.008517617908704716</v>
+        <v>0.004095612355824494</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.01281262419250497</v>
+        <v>0.003476131627045264</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.008998442471937698</v>
+        <v>0.01102403237696129</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.0167192850207714</v>
+        <v>-0.002887794067511762</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.01759755814390233</v>
+        <v>-0.01144689165787567</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.002188350135534005</v>
+        <v>0.01816507771860311</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.02562378284895131</v>
+        <v>-0.01670130326005213</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.01274920543796822</v>
+        <v>-0.0009478305019132198</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-0.006088534035541361</v>
+        <v>0.0005474547098981883</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-0.009666849890673993</v>
+        <v>-0.001409372312374892</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.01521575292863012</v>
+        <v>-0.0235984875679395</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.009412008088480322</v>
+        <v>-0.001862991146519646</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.002338093053523722</v>
+        <v>-0.01549254244370169</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2.698819307952772e-05</v>
+        <v>0.01043605481744219</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.00696429877457195</v>
+        <v>-0.02113634599745384</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.01681836192073448</v>
+        <v>0.004269118154764726</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.000788434879537395</v>
+        <v>0.001896114315844572</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.01989198348367933</v>
+        <v>-0.01468514573940583</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.08469284575571381</v>
+        <v>0.00698701602348064</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.02359030491161219</v>
+        <v>0.01231849479673979</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.03604130217765208</v>
+        <v>0.0123689100627564</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.03706944052277761</v>
+        <v>0.009217844912713795</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-0.007304865412194615</v>
+        <v>0.003894480635779225</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.02415885552635422</v>
+        <v>0.006663483626539344</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.01237576215903048</v>
+        <v>-0.008947731525909259</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.02909593239583729</v>
+        <v>-0.00744298877771955</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.1022734805389392</v>
+        <v>-0.002643003945720157</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.009705613924224556</v>
+        <v>0.01596456083058243</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.008202879976115199</v>
+        <v>0.001309633396385336</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-0.01022332082493283</v>
+        <v>-0.0162978849399154</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-0.0009594847103793883</v>
+        <v>0.02363143140925726</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.01837524063900962</v>
+        <v>0.00585952929038117</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-0.002233184537327381</v>
+        <v>-0.01750339702013588</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.02368038603521544</v>
+        <v>-0.0008549406101976243</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.003292881155715245</v>
+        <v>0.008479516947180677</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.03671768969270758</v>
+        <v>0.01974127653365106</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.01511083039643321</v>
+        <v>-0.01260437570417503</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-0.02054605570184223</v>
+        <v>0.08620552991222118</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.01235400414216017</v>
+        <v>0.001753038118121524</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.001065437130617485</v>
+        <v>0.01483402888136115</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02454050152562006</v>
+        <v>0.05425814194632567</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.003659793362391734</v>
+        <v>-0.0347736152149446</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.01655325320613013</v>
+        <v>-0.004665028506601139</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.008678231579129263</v>
+        <v>0.01943932176957287</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.0006530023941200957</v>
+        <v>-0.002061325042453001</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.001865854346634174</v>
+        <v>0.02692077832483113</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-0.01234647342185894</v>
+        <v>0.005815057672602307</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.008367226222689048</v>
+        <v>-0.01037849436713977</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.0008689928987597157</v>
+        <v>-0.02271701236468049</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>-0.002312395676495827</v>
+        <v>0.000900662052026482</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.02520679790427191</v>
+        <v>-0.004644693305787731</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.02352164359686574</v>
+        <v>0.02580344954413798</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-0.009354136214165448</v>
+        <v>-0.0003417556936702277</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.000947907301916292</v>
+        <v>0.002285550811422032</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>-0.01231761361270454</v>
+        <v>0.01154350078174003</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-0.01371703389268135</v>
+        <v>-0.01622079156083166</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.02187916954716678</v>
+        <v>-0.01645695521827821</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>-0.008247401513896061</v>
+        <v>-0.007086245083449803</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.00772172354086894</v>
+        <v>0.007763247670529906</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-0.01102990584919623</v>
+        <v>-0.002752287086091483</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.002540527205621088</v>
+        <v>-0.01683864672154587</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.009191651983666078</v>
+        <v>0.008832452225298089</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-0.01369528854781154</v>
+        <v>0.003294819107792763</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.005471560058862401</v>
+        <v>0.03332567816502713</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-0.02988635101945403</v>
+        <v>-0.004530115285204611</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.01392041335681653</v>
+        <v>-0.01907843961113758</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.01627473098698924</v>
+        <v>0.003864689338587573</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.004735909149436365</v>
+        <v>0.004723947164957886</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.0003976535199061407</v>
+        <v>0.008091835427673416</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-0.00370990277239611</v>
+        <v>-8.367206734688269e-05</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.003291518339660733</v>
+        <v>-0.02307072908282916</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-0.02116538878261555</v>
+        <v>-0.01025843954633758</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.02553183298927331</v>
+        <v>-0.005240793809631752</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.01814903102996124</v>
+        <v>-0.01662386312895452</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.01035312713412508</v>
+        <v>-0.01611152291646092</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.002038916913556676</v>
+        <v>0.01120536428821457</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.008725038877001554</v>
+        <v>0.01190143967605758</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.00837574804702992</v>
+        <v>-3.299212931968517e-05</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-0.01353316326132653</v>
+        <v>-0.0221793677031747</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-0.01761483776059351</v>
+        <v>0.02433611550144461</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.0240459552018382</v>
+        <v>0.01404151956966078</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.01469054151562166</v>
+        <v>0.02998675799947031</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>-0.0005527724381108974</v>
+        <v>0.002152385462095419</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>-0.003949398109975924</v>
+        <v>-0.03497874792714991</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-0.01892832526913301</v>
+        <v>-0.001753924198156968</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-0.02087159545886381</v>
+        <v>0.005825331593013263</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>-0.01489845265993811</v>
+        <v>-0.006862360306494412</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.02183029709721188</v>
+        <v>-0.02941679455267178</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.006872439346897573</v>
+        <v>-0.009089238603569543</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-0.01207595693103827</v>
+        <v>-0.0008802231712089268</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-0.003586736303469452</v>
+        <v>-0.0009445514297820571</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-0.01284380144175206</v>
+        <v>0.001117143212685728</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.02997423115096924</v>
+        <v>-0.02585602826624113</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.02738649747945989</v>
+        <v>0.004555133942205357</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-0.05295679767027189</v>
+        <v>-0.004435239057409562</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-0.02583350368934014</v>
+        <v>0.002991102551644102</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.01540233690409347</v>
+        <v>0.01881502155260086</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.02975902947836118</v>
+        <v>0.002874251538970062</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-0.001648577345943094</v>
+        <v>-0.01943117674524707</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.003414271624570865</v>
+        <v>-0.01046009571440383</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.002758306478332259</v>
+        <v>-0.01171556062862242</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.003405675976227038</v>
+        <v>-0.001098967627958705</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-0.0160261875530475</v>
+        <v>0.01871837710073508</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-0.009210606896424275</v>
+        <v>-0.01233328033333121</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.004431625617265024</v>
+        <v>0.003793387063735482</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.006805065008202599</v>
+        <v>-0.04277590423903616</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>-0.009252761938110475</v>
+        <v>0.006442735937709437</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>-0.02909095690763827</v>
+        <v>-0.005800417192016688</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.007468003498720139</v>
+        <v>0.006706467532258701</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.05636079623843183</v>
+        <v>0.5509810789032431</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.5361584607743384</v>
+        <v>0.03042141625685665</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.05385450973818038</v>
+        <v>0.05579827154393086</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.01077197159887886</v>
+        <v>0.02979077245563089</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.01123164793726592</v>
+        <v>-0.01020640735225629</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.04693077451723097</v>
+        <v>0.3350433449857338</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-0.02558482700739308</v>
+        <v>-0.01307496225099849</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.3455855490234219</v>
+        <v>0.01159064081562563</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.009062042378481695</v>
+        <v>0.01675828665433146</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.03376670871066834</v>
+        <v>0.03188765119550604</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>-0.01539851456794058</v>
+        <v>0.009118501900740074</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>-0.01325014670600587</v>
+        <v>-0.01638483166339327</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-0.174141326741653</v>
+        <v>-0.145461574810463</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>-0.0136468075858723</v>
+        <v>-0.004545390421815616</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>-0.01112321967692879</v>
+        <v>-0.01256830418273217</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.006050996690039867</v>
+        <v>0.008320893644835745</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.027358549958342</v>
+        <v>-0.02602446084897843</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.1422738952589558</v>
+        <v>0.1596893540675741</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.003165514974620599</v>
+        <v>-0.002816660176666407</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.018150475158019</v>
+        <v>0.03400181022407241</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.01038709308748372</v>
+        <v>0.001375398871015955</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -28,6 +28,252 @@
     <t>Saccharification and co fermentation-R301 ethanol conversion [0.9, 0.95, 1]</t>
   </si>
   <si>
+    <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump pump electricity rate (hr·kW/kg) [0.000287, 0.000319, 0.000351]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+  </si>
+  <si>
+    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+  </si>
+  <si>
+    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.7e-05, 0.000108, 0.000119]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+  </si>
+  <si>
+    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump electricity rate (hr·kW/kg) [0.0102, 0.0113, 0.0124]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+  </si>
+  <si>
+    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+  </si>
+  <si>
+    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation transfer pumps electricity rate (hr·kW/m3) [0.653, 0.725, 0.798]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation agitators electricity rate (kW/m3) [0.0214, 0.0238, 0.0262]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Saccharification and co fermentation recirculation pumps electricity rate (hr·kW/m3) [0.35, 0.388, 0.427]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
     <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
   </si>
   <si>
@@ -37,6 +283,198 @@
     <t>Chilled water package electricity rate (hr·kW/kJ) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
   </si>
   <si>
+    <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+  </si>
+  <si>
+    <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Molecular sieve column electricity rate (hr·kW/kg) [0.00599, 0.00666, 0.00732]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system electricity rate (hr·kW/kg) [0.00744, 0.00827, 0.0091]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump electricity rate (hr·kW/kg) [0.000156, 0.000173, 0.00019]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator electricity rate (hr·kW/kg) [0.000252, 0.00028, 0.000308]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) electricity rate (hr·kW/kg) [0.0295, 0.0328, 0.0361]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter electricity rate (hr·kW/kg) [0.00317, 0.00352, 0.00387]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump electricity rate (hr·kW/kg) [0.00316, 0.00352, 0.00387]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+  </si>
+  <si>
+    <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor electricity rate (hr·kW/kg) [0.000234, 0.00026, 0.000287]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw electricity rate (hr·kW/kg) [0.000352, 0.000391, 0.00043]</t>
+  </si>
+  <si>
+    <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+  </si>
+  <si>
+    <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
+  </si>
+  <si>
+    <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
+  </si>
+  <si>
+    <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator electricity rate (hr·kW/kg) [0.000158, 0.000176, 0.000193]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator electricity rate (hr·kW/kg) [1.64e-05, 1.82e-05, 2e-05]</t>
+  </si>
+  <si>
+    <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+  </si>
+  <si>
+    <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>CSLTank pump electricity rate (hr·kW/kg) [0.000241, 0.000268, 0.000294]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>CSLTank agitator electricity rate (hr·kW/kg) [0.00482, 0.00535, 0.00589]</t>
+  </si>
+  <si>
     <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
   </si>
   <si>
@@ -61,10 +499,73 @@
     <t>Oligomer conversion tank agitator electricity rate (hr·kW/kg) [0.000579, 0.000644, 0.000708]</t>
   </si>
   <si>
-    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Feed stock handling system electricity rate (hr·kW/kg) [0.00744, 0.00827, 0.0091]</t>
+    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+  </si>
+  <si>
+    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>DAPTank pump electricity rate (hr·kW/kg) [0.00208, 0.00232, 0.00255]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator electricity rate (hr·kW/kg) [0.0226, 0.0252, 0.0277]</t>
+  </si>
+  <si>
+    <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump electricity rate (hr·kW/kg) [0.000199, 0.000221, 0.000243]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator electricity rate (hr·kW/kg) [0.000605, 0.000672, 0.000739]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system electricity rate (hr·kW/kg) [0.0494, 0.0549, 0.0604]</t>
+  </si>
+  <si>
+    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
   </si>
   <si>
     <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
@@ -82,85 +583,10 @@
     <t>Sulfuric acid tank pump electricity rate (hr·kW/kg) [0.000242, 0.000269, 0.000296]</t>
   </si>
   <si>
-    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
-  </si>
-  <si>
-    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
-  </si>
-  <si>
-    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>DAPTank pump electricity rate (hr·kW/kg) [0.00208, 0.00232, 0.00255]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator electricity rate (hr·kW/kg) [0.0226, 0.0252, 0.0277]</t>
-  </si>
-  <si>
-    <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
-  </si>
-  <si>
-    <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump electricity rate (hr·kW/kg) [0.000199, 0.000221, 0.000243]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator electricity rate (hr·kW/kg) [0.000605, 0.000672, 0.000739]</t>
-  </si>
-  <si>
-    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air compressor electricity rate (hr·kW/kg) [0.00121, 0.00134, 0.00148]</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
-  </si>
-  <si>
-    <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+    <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
   </si>
   <si>
     <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
@@ -181,502 +607,76 @@
     <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
   </si>
   <si>
+    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system electricity rate (hr·kW/kg) [0.0156, 0.0173, 0.019]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
+  </si>
+  <si>
+    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
+  </si>
+  <si>
     <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
   </si>
   <si>
     <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
   </si>
   <si>
-    <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump pump electricity rate (hr·kW/kg) [0.000287, 0.000319, 0.000351]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system electricity rate (hr·kW/kg) [0.0156, 0.0173, 0.019]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
-  </si>
-  <si>
-    <t>Mixer mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer electricity rate (hr·kW/kg) [0.000177, 0.000196, 0.000216]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
-  </si>
-  <si>
-    <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
-  </si>
-  <si>
-    <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
-  </si>
-  <si>
-    <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>CSLTank pump electricity rate (hr·kW/kg) [0.000241, 0.000268, 0.000294]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>CSLTank agitator electricity rate (hr·kW/kg) [0.00482, 0.00535, 0.00589]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators electricity rate (kW/m3) [0.0119, 0.0132, 0.0145]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators electricity rate (kW/m3) [0.0892, 0.0991, 0.109]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
-  </si>
-  <si>
-    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed train pumps electricity rate (hr·kW/kg) [0.000834, 0.000927, 0.00102]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
-  </si>
-  <si>
-    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.7e-05, 0.000108, 0.000119]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator electricity rate (hr·kW/kg) [1.64e-05, 1.82e-05, 2e-05]</t>
-  </si>
-  <si>
-    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
-  </si>
-  <si>
-    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Beer tank pump electricity rate (hr·kW/kg) [0.000197, 0.000219, 0.000241]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator electricity rate (hr·kW/kg) [3.15e-05, 3.5e-05, 3.85e-05]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system electricity rate (hr·kW/kg) [0.0494, 0.0549, 0.0604]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation transfer pumps electricity rate (hr·kW/m3) [0.653, 0.725, 0.798]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation agitators electricity rate (kW/m3) [0.0214, 0.0238, 0.0262]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Saccharification and co fermentation recirculation pumps electricity rate (hr·kW/m3) [0.35, 0.388, 0.427]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump electricity rate (hr·kW/kg) [0.000156, 0.000173, 0.00019]</t>
-  </si>
-  <si>
-    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
-  </si>
-  <si>
-    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator electricity rate (hr·kW/kg) [0.000252, 0.00028, 0.000308]</t>
-  </si>
-  <si>
-    <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
-  </si>
-  <si>
-    <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Molecular sieve column electricity rate (hr·kW/kg) [0.00599, 0.00666, 0.00732]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) electricity rate (hr·kW/kg) [0.0295, 0.0328, 0.0361]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter electricity rate (hr·kW/kg) [0.00317, 0.00352, 0.00387]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump electricity rate (hr·kW/kg) [0.00316, 0.00352, 0.00387]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
-  </si>
-  <si>
-    <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor electricity rate (hr·kW/kg) [0.000234, 0.00026, 0.000287]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw electricity rate (hr·kW/kg) [0.000352, 0.000391, 0.00043]</t>
-  </si>
-  <si>
-    <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
-  </si>
-  <si>
-    <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
-  </si>
-  <si>
-    <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump electricity rate (hr·kW/kg) [0.00211, 0.00234, 0.00258]</t>
-  </si>
-  <si>
-    <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator electricity rate (hr·kW/kg) [0.000158, 0.000176, 0.000193]</t>
-  </si>
-  <si>
-    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
-  </si>
-  <si>
-    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump electricity rate (hr·kW/kg) [0.0102, 0.0113, 0.0124]</t>
+    <t>Stream-cellulase price (USD/kg) [0.456, 0.507, 0.558]</t>
+  </si>
+  <si>
+    <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+  </si>
+  <si>
+    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
   </si>
   <si>
     <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
   </si>
   <si>
+    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+  </si>
+  <si>
     <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
   </si>
   <si>
+    <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
+  </si>
+  <si>
     <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
   </si>
   <si>
     <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
   </si>
   <si>
-    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
-  </si>
-  <si>
-    <t>Stream-cellulase price (USD/kg) [0.456, 0.507, 0.558]</t>
-  </si>
-  <si>
-    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
-  </si>
-  <si>
-    <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
-  </si>
-  <si>
-    <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
-  </si>
-  <si>
-    <t>Stream-ethanol price (USD/kg) [0.593, 0.659, 0.725]</t>
+    <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
+  </si>
+  <si>
+    <t>Stream-ethanol price (USD/kg) [0.665, 0.739, 0.813]</t>
   </si>
   <si>
     <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
   </si>
   <si>
-    <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
-  </si>
-  <si>
-    <t>Electricity price (USD/kWhr) [0.0515, 0.0572, 0.0629]</t>
+    <t>Electricity price (USD/kWhr) [0.0585, 0.065, 0.0715]</t>
   </si>
   <si>
     <t>Chilled Brine price (USD/kJ) [-7.33e-06, -8.15e-06, -8.96e-06]</t>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.5645267067090681</v>
+        <v>-0.604144127205765</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.3553862388554495</v>
+        <v>-0.3291407358856294</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.1161841212873648</v>
+        <v>-0.09257392671095706</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.003355632998225319</v>
+        <v>0.00407170451486818</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.007469804650792185</v>
+        <v>-0.01008527147541086</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.001568323646732946</v>
+        <v>-0.02372860664514426</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.01735732360629294</v>
+        <v>0.01565349777813991</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.001708549316341972</v>
+        <v>-0.00951087628443505</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.002656204906248196</v>
+        <v>-0.008577465463098616</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.007517946252717849</v>
+        <v>0.007128694173147766</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.005986480847459234</v>
+        <v>-0.01414938824597553</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.01189423535576941</v>
+        <v>-0.008526999989079999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.02234834057393362</v>
+        <v>-0.01065004871400195</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.01524873488194939</v>
+        <v>-0.01109747237989889</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.009172800846912032</v>
+        <v>-0.01986211538648461</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.01852873053314922</v>
+        <v>0.01626525098661004</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.0004712294588491783</v>
+        <v>-0.0152567925462717</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.02419540656781625</v>
+        <v>0.005582242879289714</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.01838835164753407</v>
+        <v>0.009168913998756559</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.01913805532552221</v>
+        <v>-0.01097506795900272</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.002432941345317653</v>
+        <v>0.01616062893442515</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.007754219734168788</v>
+        <v>-0.02888323536332941</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.000755436030217441</v>
+        <v>0.005371018390840735</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.02564491657779666</v>
+        <v>-0.009941427181657086</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.005712441060497642</v>
+        <v>-0.01984480159379206</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.03707447495497899</v>
+        <v>-0.02212567787702711</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.002901896180075847</v>
+        <v>0.03172799387711975</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.01880188068807523</v>
+        <v>-0.01908123705124948</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.003191223391648935</v>
+        <v>-0.01527577462703098</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.0005943506157740245</v>
+        <v>0.01395837953433518</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.003040217689608707</v>
+        <v>-0.008269527114781084</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.004086860611474423</v>
+        <v>-0.003441870569674823</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.003869899546795981</v>
+        <v>0.02772311323692453</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.03431625487665019</v>
+        <v>-0.01285924208236968</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.004764771070590842</v>
+        <v>0.0004477679219107168</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.01803235713729428</v>
+        <v>-0.03062540685701627</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.002234982041399281</v>
+        <v>-0.007686185587447422</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.01582861455314458</v>
+        <v>-0.03348491346739654</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.005812208392488335</v>
+        <v>-0.008553088086123524</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.002395951103838044</v>
+        <v>-0.01783036919321477</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.01560014424000577</v>
+        <v>-0.01428341615533664</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.02797632351905294</v>
+        <v>0.01347657269906291</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.009917341740693669</v>
+        <v>-0.01370222387608895</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.00942965528918621</v>
+        <v>-0.01060737095229484</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.01739561051982442</v>
+        <v>-0.01969351163574046</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.008726304253052168</v>
+        <v>0.02060949039237961</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.01068675421947017</v>
+        <v>0.01309050714762028</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.008896884643875384</v>
+        <v>-0.004232363305294532</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.001995652495826099</v>
+        <v>0.01127371465894859</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.004747520733900829</v>
+        <v>-0.02085538941021558</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.004199498567979942</v>
+        <v>-0.0009698891907955674</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.02603941409757656</v>
+        <v>0.01363626640145066</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.00565890301035612</v>
+        <v>-0.00834245102169804</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.008286572491462897</v>
+        <v>-0.0101740774309631</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.002936245173449807</v>
+        <v>-0.009592522175700887</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.009525656733026267</v>
+        <v>-0.01684838198593528</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.002947378869895155</v>
+        <v>0.0110885375635415</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.02266469985058799</v>
+        <v>0.002468734274749371</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.005688242339529693</v>
+        <v>0.0008933896677355866</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.08477094569483781</v>
+        <v>0.02882237241689489</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.001199548367981935</v>
+        <v>0.003727400597096023</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.0307152350206094</v>
+        <v>0.03250749470829978</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.006689459979578398</v>
+        <v>0.0003553259662130386</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.0191419125096765</v>
+        <v>-0.02362177793687112</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-0.003418481608739264</v>
+        <v>0.07221434468057378</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.00734833402193336</v>
+        <v>-0.005795998023839921</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.02119609553584382</v>
+        <v>-0.006418147360725894</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.09122003164880126</v>
+        <v>0.006849699825987992</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-0.006146995445879817</v>
+        <v>0.0009128205485128218</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.0411969951518798</v>
+        <v>0.009804348104173924</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.007230553057222122</v>
+        <v>-0.006552330982093238</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.01936187847047513</v>
+        <v>0.01108174306726972</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.02561465363258614</v>
+        <v>0.041513700220548</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-0.0003724786708991468</v>
+        <v>-0.006563260870530434</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.02084540444981618</v>
+        <v>0.1412306546732262</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.004960761414430456</v>
+        <v>0.003180204703208188</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.02363533083341323</v>
+        <v>-0.0101647649505906</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.01630592945223718</v>
+        <v>-0.02197822695912908</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.003015923160636926</v>
+        <v>0.0002181305367252215</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.001239026161561046</v>
+        <v>0.01064850340194013</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.0009063832682553307</v>
+        <v>0.005554452798178112</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.0116439025777561</v>
+        <v>0.007483234091329363</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.01291791805271672</v>
+        <v>-0.006945315829812631</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.01184161909766476</v>
+        <v>0.03003518865740755</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.009593551487742059</v>
+        <v>-0.02531885026075401</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.0129980375439215</v>
+        <v>0.01800869803234792</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.0003193995967759838</v>
+        <v>-0.000911984100479364</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-0.0004685736187429446</v>
+        <v>-0.006156223158248925</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.008264334090573363</v>
+        <v>0.01197255532690221</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.01493041845321674</v>
+        <v>-0.0006612883464515337</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.01247828805113152</v>
+        <v>-0.01459307626372305</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.000393727599749104</v>
+        <v>0.0007700666228026648</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.00708694453947778</v>
+        <v>-0.004888755939550237</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.01145647149825886</v>
+        <v>-0.001142678637707145</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.0230183526327341</v>
+        <v>0.006002496912099877</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.003647402545896101</v>
+        <v>0.002102862900114516</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.02015427882217115</v>
+        <v>0.02646472454658898</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.003113557180542287</v>
+        <v>-0.02535225643809026</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.004095612355824494</v>
+        <v>-0.01004136040165442</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.003476131627045264</v>
+        <v>-0.007127224317088971</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.01102403237696129</v>
+        <v>0.007004605432184216</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-0.002887794067511762</v>
+        <v>-0.002788142895525715</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.01144689165787567</v>
+        <v>-0.003606731280269251</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.01816507771860311</v>
+        <v>-0.01489998443599938</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-0.01670130326005213</v>
+        <v>0.0059253225090129</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.0009478305019132198</v>
+        <v>-0.02777435285497411</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.0005474547098981883</v>
+        <v>0.02136865535074621</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-0.001409372312374892</v>
+        <v>0.009759855942394237</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.0235984875679395</v>
+        <v>0.02848480280339211</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.001862991146519646</v>
+        <v>-0.02977814989512599</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-0.01549254244370169</v>
+        <v>-0.004845541633821665</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.01043605481744219</v>
+        <v>-0.01983897276155891</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.02113634599745384</v>
+        <v>0.0138990450999618</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.004269118154764726</v>
+        <v>-0.02021185088847403</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.001896114315844572</v>
+        <v>0.02137012146280486</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.01468514573940583</v>
+        <v>-0.0001771269190850768</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.00698701602348064</v>
+        <v>0.009988662447546497</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.01231849479673979</v>
+        <v>0.02282511153700446</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.0123689100627564</v>
+        <v>-0.003586507535460301</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.009217844912713795</v>
+        <v>-0.01756715811068632</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.003894480635779225</v>
+        <v>0.01608686464347458</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.006663483626539344</v>
+        <v>-0.001684877443395097</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.008947731525909259</v>
+        <v>0.008876762659070505</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.00744298877771955</v>
+        <v>0.01896059019842361</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-0.002643003945720157</v>
+        <v>-0.002883406675336267</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.01596456083058243</v>
+        <v>-0.001107575564303022</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.001309633396385336</v>
+        <v>-0.00561592352063694</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-0.0162978849399154</v>
+        <v>0.003298645571945823</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.02363143140925726</v>
+        <v>0.0116482824819313</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.00585952929038117</v>
+        <v>-0.02792978492519139</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-0.01750339702013588</v>
+        <v>0.002636467497458699</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.0008549406101976243</v>
+        <v>0.01598981391959255</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.008479516947180677</v>
+        <v>0.01989190399567616</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.01974127653365106</v>
+        <v>0.03703510295340411</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-0.01260437570417503</v>
+        <v>0.002623915208956608</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.08620552991222118</v>
+        <v>-0.01011683550867342</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.001753038118121524</v>
+        <v>0.02021971732078869</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.01483402888136115</v>
+        <v>0.004370229870809194</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.05425814194632567</v>
+        <v>-0.00298122299924892</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.0347736152149446</v>
+        <v>0.002085893651435746</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.004665028506601139</v>
+        <v>-0.01226398474655939</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.01943932176957287</v>
+        <v>-0.02016342675853707</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.002061325042453001</v>
+        <v>-0.02469073855562954</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.02692077832483113</v>
+        <v>-0.003517270796690831</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.005815057672602307</v>
+        <v>-0.01742404792896192</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>-0.01037849436713977</v>
+        <v>0.0006178149367125974</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-0.02271701236468049</v>
+        <v>-0.0189466125978645</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.000900662052026482</v>
+        <v>0.00525434152217366</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-0.004644693305787731</v>
+        <v>-0.007761317014452681</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.02580344954413798</v>
+        <v>-0.002647993065919722</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-0.0003417556936702277</v>
+        <v>-0.004891912323676492</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.002285550811422032</v>
+        <v>0.005741344837653792</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.01154350078174003</v>
+        <v>0.01049929472397179</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-0.01622079156083166</v>
+        <v>-0.01672732588509303</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>-0.01645695521827821</v>
+        <v>-0.01151229031649161</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>-0.007086245083449803</v>
+        <v>0.007697606515904259</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.007763247670529906</v>
+        <v>0.004778589215143568</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-0.002752287086091483</v>
+        <v>-0.005402527896101115</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-0.01683864672154587</v>
+        <v>-0.001225255441010217</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.008832452225298089</v>
+        <v>-0.001393198807727952</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.003294819107792763</v>
+        <v>-0.0322447200417888</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.03332567816502713</v>
+        <v>-0.0009197833327913331</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-0.004530115285204611</v>
+        <v>-0.01499193688767747</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-0.01907843961113758</v>
+        <v>-0.01202756774510271</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.003864689338587573</v>
+        <v>0.0275894076955763</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.004723947164957886</v>
+        <v>-0.008649634809985391</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.008091835427673416</v>
+        <v>-0.006787118671484746</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-8.367206734688269e-05</v>
+        <v>0.01642796590511863</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>-0.02307072908282916</v>
+        <v>-0.01439552620782105</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-0.01025843954633758</v>
+        <v>-0.02267057457082298</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>-0.005240793809631752</v>
+        <v>0.01679461737578469</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>-0.01662386312895452</v>
+        <v>-0.02584537408981496</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>-0.01611152291646092</v>
+        <v>0.003296384579855382</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.01120536428821457</v>
+        <v>0.01712266388490655</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.01190143967605758</v>
+        <v>-0.0005883018475320738</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-3.299212931968517e-05</v>
+        <v>0.004869179810767192</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-0.0221793677031747</v>
+        <v>0.001032961289318452</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.02433611550144461</v>
+        <v>0.008396578127863125</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.01404151956966078</v>
+        <v>0.1253186408847456</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.02998675799947031</v>
+        <v>0.006450002658000106</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.002152385462095419</v>
+        <v>0.02904514983380599</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>-0.03497874792714991</v>
+        <v>0.01220267060010682</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-0.001753924198156968</v>
+        <v>-0.02009158966766358</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.005825331593013263</v>
+        <v>0.01123340713733628</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>-0.006862360306494412</v>
+        <v>0.002818260304730412</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-0.02941679455267178</v>
+        <v>-0.0128208075208323</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>-0.009089238603569543</v>
+        <v>0.006112207348488293</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-0.0008802231712089268</v>
+        <v>0.004625755289030211</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-0.0009445514297820571</v>
+        <v>-0.01204265788970631</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.001117143212685728</v>
+        <v>-0.01170088933203557</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.02585602826624113</v>
+        <v>0.006648506761940269</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.004555133942205357</v>
+        <v>-0.033502125116085</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-0.004435239057409562</v>
+        <v>-0.01869096276363851</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.002991102551644102</v>
+        <v>0.001514776668591066</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.01881502155260086</v>
+        <v>-0.005075967947038717</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.002874251538970062</v>
+        <v>0.005184359247374369</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-0.01943117674524707</v>
+        <v>0.118662850218514</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.01046009571440383</v>
+        <v>-0.006847896465915858</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.01171556062862242</v>
+        <v>0.02490194365207775</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.001098967627958705</v>
+        <v>0.01816458139858325</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.01871837710073508</v>
+        <v>-0.01944445114577804</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-0.01233328033333121</v>
+        <v>0.006341278717651147</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.003793387063735482</v>
+        <v>-0.02332443136497725</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-0.04277590423903616</v>
+        <v>0.01082432059297282</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.006442735937709437</v>
+        <v>-0.01170037275601491</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>-0.005800417192016688</v>
+        <v>0.01063419680936787</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.006706467532258701</v>
+        <v>0.01434177820567113</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.5509810789032431</v>
+        <v>0.2848994724199788</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.03042141625685665</v>
+        <v>0.00860043701601748</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.05579827154393086</v>
+        <v>-0.02080754300830172</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.02979077245563089</v>
+        <v>0.490573226246929</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-0.01020640735225629</v>
+        <v>-0.005059389130375565</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.3350433449857338</v>
+        <v>0.02052612677304507</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-0.01307496225099849</v>
+        <v>0.007759425622377024</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.01159064081562563</v>
+        <v>0.02578154829526193</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.01675828665433146</v>
+        <v>0.02444935355397414</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.03188765119550604</v>
+        <v>-0.02944372408974896</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.009118501900740074</v>
+        <v>0.01122926454517058</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>-0.01638483166339327</v>
+        <v>0.002782501167300047</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-0.145461574810463</v>
+        <v>-0.1546979463799179</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>-0.004545390421815616</v>
+        <v>-0.006740724845628993</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>-0.01256830418273217</v>
+        <v>-0.0009000289320011572</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.008320893644835745</v>
+        <v>-0.009635402881416115</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.02602446084897843</v>
+        <v>-0.0004511468340458733</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.1596893540675741</v>
+        <v>0.233791901031676</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-0.002816660176666407</v>
+        <v>0.0110782048911282</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.03400181022407241</v>
+        <v>0.0298077350803094</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.001375398871015955</v>
+        <v>0.01387558845902354</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/biosteam/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoelr\OneDrive\Code\biosteam\biosteam\biorefineries\cornstover\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_B8AE9DCB571128F7D8160B48EB1ADB3D502C4652" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9C176595-E119-4D43-A395-DA8A555274E9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10483" yWindow="1544" windowWidth="11635" windowHeight="10137" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -706,8 +712,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +776,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -816,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,9 +862,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,6 +914,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1057,1587 +1107,1591 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.19921875" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.604144127205765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.60414412720576505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.3291407358856294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-0.32914073588562942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.09257392671095706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-9.2573926710957058E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.00407170451486818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>4.07170451486818E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.01008527147541086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-1.008527147541086E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.02372860664514426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-2.372860664514426E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.01565349777813991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>1.5653497778139909E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.00951087628443505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-9.5108762844350499E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.008577465463098616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-8.5774654630986161E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.007128694173147766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>7.1286941731477657E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.01414938824597553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-1.414938824597553E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.008526999989079999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-8.5269999890799988E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.01065004871400195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-1.065004871400195E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.01109747237989889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-1.1097472379898891E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.01986211538648461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-1.9862115386484611E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.01626525098661004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1.6265250986610039E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.0152567925462717</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>-1.52567925462717E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.005582242879289714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>5.5822428792897142E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.009168913998756559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>9.1689139987565591E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.01097506795900272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-1.0975067959002721E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.01616062893442515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>1.6160628934425152E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.02888323536332941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-2.8883235363329408E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.005371018390840735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>5.3710183908407347E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.009941427181657086</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-9.9414271816570862E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.01984480159379206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-1.9844801593792059E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.02212567787702711</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>-2.2125677877027111E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.03172799387711975</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>3.1727993877119748E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.01908123705124948</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-1.9081237051249481E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.01527577462703098</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-1.527577462703098E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.01395837953433518</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>1.395837953433518E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.008269527114781084</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-8.2695271147810844E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.003441870569674823</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-3.441870569674823E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.02772311323692453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>2.7723113236924529E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.01285924208236968</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-1.285924208236968E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.0004477679219107168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>4.4776792191071678E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.03062540685701627</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>-3.0625406857016271E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.007686185587447422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-7.6861855874474222E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.03348491346739654</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-3.3484913467396543E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.008553088086123524</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-8.5530880861235236E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.01783036919321477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-1.7830369193214769E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.01428341615533664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>-1.428341615533664E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.01347657269906291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>1.3476572699062909E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.01370222387608895</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-1.3702223876088949E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.01060737095229484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>-1.060737095229484E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.01969351163574046</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-1.9693511635740461E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.02060949039237961</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>2.0609490392379609E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.01309050714762028</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>1.309050714762028E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.004232363305294532</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-4.2323633052945321E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.01127371465894859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>1.1273714658948591E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.02085538941021558</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-2.0855389410215579E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.0009698891907955674</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>-9.6988919079556743E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.01363626640145066</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>1.363626640145066E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.00834245102169804</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-8.3424510216980399E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.0101740774309631</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-1.01740774309631E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.009592522175700887</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-9.592522175700887E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.01684838198593528</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>-1.684838198593528E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.0110885375635415</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>1.1088537563541501E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.002468734274749371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>2.468734274749371E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.0008933896677355866</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>8.9338966773558663E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.02882237241689489</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>2.8822372416894889E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.003727400597096023</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>3.7274005970960229E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.03250749470829978</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>3.2507494708299778E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.0003553259662130386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>3.5532596621303859E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.02362177793687112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-2.3621777936871119E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.07221434468057378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>7.2214344680573778E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.005795998023839921</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-5.7959980238399206E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.006418147360725894</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-6.4181473607258944E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.006849699825987992</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>6.8496998259879923E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.0009128205485128218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>9.1282054851282181E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.009804348104173924</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>9.8043481041739239E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.006552330982093238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-6.5523309820932378E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.01108174306726972</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>1.1081743067269721E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.041513700220548</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>4.1513700220547997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-0.006563260870530434</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-6.5632608705304338E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.1412306546732262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.14123065467322621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.003180204703208188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>3.1802047032081881E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.0101647649505906</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-1.0164764950590601E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.02197822695912908</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-2.1978226959129082E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.0002181305367252215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>2.181305367252215E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.01064850340194013</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>1.0648503401940131E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.005554452798178112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>5.5544527981781118E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.007483234091329363</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>7.4832340913293634E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.006945315829812631</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-6.9453158298126306E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.03003518865740755</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>3.0035188657407549E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.02531885026075401</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-2.5318850260754009E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.01800869803234792</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>1.800869803234792E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.000911984100479364</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-9.1198410047936399E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-0.006156223158248925</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-6.156223158248925E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.01197255532690221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>1.1972555326902209E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.0006612883464515337</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-6.612883464515337E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.01459307626372305</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-1.459307626372305E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.0007700666228026648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>7.7006662280266482E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.004888755939550237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-4.8887559395502369E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.001142678637707145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-1.142678637707145E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.006002496912099877</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>6.0024969120998769E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.002102862900114516</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>2.102862900114516E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.02646472454658898</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>2.6464724546588981E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.02535225643809026</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-2.5352256438090259E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-0.01004136040165442</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>-1.0041360401654421E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.007127224317088971</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-7.1272243170889711E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.007004605432184216</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>7.0046054321842161E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-0.002788142895525715</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>-2.7881428955257152E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.003606731280269251</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>-3.6067312802692511E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-0.01489998443599938</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>-1.489998443599938E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.0059253225090129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>5.9253225090128998E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.02777435285497411</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>-2.7774352854974111E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.02136865535074621</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>2.136865535074621E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.009759855942394237</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>9.7598559423942369E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.02848480280339211</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>2.848480280339211E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.02977814989512599</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>-2.9778149895125991E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-0.004845541633821665</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>-4.8455416338216654E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.01983897276155891</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>-1.983897276155891E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.0138990450999618</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>1.38990450999618E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.02021185088847403</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>-2.021185088847403E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.02137012146280486</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>2.1370121462804859E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.0001771269190850768</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>-1.7712691908507679E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.009988662447546497</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>9.988662447546497E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.02282511153700446</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>2.282511153700446E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.003586507535460301</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>-3.5865075354603012E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-0.01756715811068632</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>-1.7567158110686321E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.01608686464347458</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>1.6086864643474579E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.001684877443395097</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>-1.6848774433950971E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.008876762659070505</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>8.8767626590705046E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.01896059019842361</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>1.896059019842361E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-0.002883406675336267</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>-2.8834066753362672E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-0.001107575564303022</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>-1.107575564303022E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.00561592352063694</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>-5.6159235206369399E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.003298645571945823</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>3.298645571945823E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.0116482824819313</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>1.16482824819313E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-0.02792978492519139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>-2.7929784925191391E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.002636467497458699</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>2.6364674974586992E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.01598981391959255</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>1.598981391959255E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.01989190399567616</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>1.9891903995676159E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.03703510295340411</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>3.7035102953404113E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.002623915208956608</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>2.6239152089566082E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-0.01011683550867342</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>-1.011683550867342E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.02021971732078869</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>2.0219717320788689E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.004370229870809194</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>4.3702298708091936E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.00298122299924892</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>-2.9812229992489201E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.002085893651435746</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>2.0858936514357462E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.01226398474655939</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>-1.2263984746559389E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-0.02016342675853707</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>-2.0163426758537072E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.02469073855562954</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>-2.4690738555629539E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-0.003517270796690831</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>-3.5172707966908308E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-0.01742404792896192</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>-1.7424047928961919E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.0006178149367125974</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>6.1781493671259741E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-0.0189466125978645</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>-1.8946612597864499E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.00525434152217366</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>5.2543415221736603E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-0.007761317014452681</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>-7.7613170144526806E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>-0.002647993065919722</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>-2.6479930659197219E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-0.004891912323676492</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>-4.8919123236764919E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.005741344837653792</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>5.7413448376537916E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.01049929472397179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>1.049929472397179E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-0.01672732588509303</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>-1.6727325885093031E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>-0.01151229031649161</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>-1.151229031649161E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.007697606515904259</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>7.6976065159042586E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.004778589215143568</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>4.7785892151435676E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-0.005402527896101115</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>-5.402527896101115E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-0.001225255441010217</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>-1.225255441010217E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>-0.001393198807727952</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>-1.393198807727952E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-0.0322447200417888</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>-3.2244720041788799E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>-0.0009197833327913331</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>-9.1978333279133309E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-0.01499193688767747</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>-1.4991936887677471E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-0.01202756774510271</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>-1.202756774510271E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.0275894076955763</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>2.7589407695576301E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>-0.008649634809985391</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>-8.6496348099853911E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>-0.006787118671484746</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>-6.7871186714847462E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.01642796590511863</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>1.6427965905118629E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>-0.01439552620782105</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>-1.4395526207821051E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-0.02267057457082298</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>-2.2670574570822982E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.01679461737578469</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>1.6794617375784689E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>-0.02584537408981496</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>-2.5845374089814958E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.003296384579855382</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>3.2963845798553819E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.01712266388490655</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>1.7122663884906551E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>-0.0005883018475320738</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>-5.8830184753207377E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.004869179810767192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>4.8691798107671916E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.001032961289318452</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>1.032961289318452E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.008396578127863125</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>8.3965781278631246E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.1253186408847456</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>0.12531864088474559</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.006450002658000106</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>6.4500026580001056E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.02904514983380599</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>2.9045149833805989E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.01220267060010682</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>1.2202670600106821E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-0.02009158966766358</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>-2.0091589667663581E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.01123340713733628</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>1.123340713733628E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.002818260304730412</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>2.8182603047304119E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-0.0128208075208323</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>-1.2820807520832299E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.006112207348488293</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>6.1122073484882926E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0.004625755289030211</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>4.6257552890302108E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-0.01204265788970631</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>-1.204265788970631E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-0.01170088933203557</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>-1.170088933203557E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.006648506761940269</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>6.6485067619402689E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.033502125116085</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>-3.3502125116085003E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-0.01869096276363851</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>-1.8690962763638509E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.001514776668591066</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>1.514776668591066E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-0.005075967947038717</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>-5.0759679470387172E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.005184359247374369</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>5.1843592473743687E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -2645,252 +2699,252 @@
         <v>0.118662850218514</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.006847896465915858</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>-6.847896465915858E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.02490194365207775</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>2.4901943652077749E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.01816458139858325</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>1.8164581398583249E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-0.01944445114577804</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>-1.944445114577804E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.006341278717651147</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>6.3412787176511474E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B204">
-        <v>-0.02332443136497725</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>-2.3324431364977249E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.01082432059297282</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>1.082432059297282E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B206">
-        <v>-0.01170037275601491</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>-1.1700372756014909E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.01063419680936787</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>1.063419680936787E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.01434177820567113</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>1.4341778205671131E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.2848994724199788</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>0.28489947241997882</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.00860043701601748</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>8.6004370160174797E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-0.02080754300830172</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>-2.0807543008301722E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.490573226246929</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>0.49057322624692901</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-0.005059389130375565</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>-5.0593891303755646E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.02052612677304507</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>2.0526126773045071E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.007759425622377024</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>7.7594256223770244E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.02578154829526193</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>2.5781548295261931E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.02444935355397414</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>2.4449353553974141E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B218">
-        <v>-0.02944372408974896</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>-2.9443724089748959E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.01122926454517058</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>1.122926454517058E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.002782501167300047</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>2.7825011673000468E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-0.1546979463799179</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>-0.15469794637991791</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B222">
-        <v>-0.006740724845628993</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>-6.7407248456289931E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B223">
-        <v>-0.0009000289320011572</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>-9.0002893200115722E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B224">
-        <v>-0.009635402881416115</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>-9.635402881416115E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.0004511468340458733</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>-4.5114683404587331E-4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.233791901031676</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>0.23379190103167599</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.0110782048911282</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>1.10782048911282E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.0298077350803094</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>2.98077350803094E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.01387558845902354</v>
+        <v>1.3875588459023541E-2</v>
       </c>
     </row>
   </sheetData>
